--- a/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_6_23.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_6_23.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1284288.603604386</v>
+        <v>1278566.9916365</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>6654055.582836239</v>
+        <v>6654055.582836235</v>
       </c>
     </row>
     <row r="8">
@@ -661,10 +661,10 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
@@ -676,10 +676,10 @@
         <v>413.784170020795</v>
       </c>
       <c r="H2" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>151.9313162448613</v>
+        <v>40.62363183383287</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -706,22 +706,22 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>43.95772706123027</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S2" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
@@ -819,7 +819,7 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>59.66385641544559</v>
       </c>
       <c r="D4" t="n">
         <v>148.6154730182124</v>
@@ -828,10 +828,10 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -876,7 +876,7 @@
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
@@ -885,7 +885,7 @@
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>120.2570633735997</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -895,16 +895,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
         <v>406.8760457417114</v>
@@ -916,7 +916,7 @@
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>17.99038652663162</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -943,28 +943,28 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>80.58946103411398</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
         <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -1056,7 +1056,7 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
@@ -1068,16 +1068,16 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>155.3197306044665</v>
       </c>
       <c r="H7" t="n">
-        <v>139.3516137835392</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
-        <v>45.19995918853699</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1101,7 +1101,7 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
@@ -1116,7 +1116,7 @@
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -1135,25 +1135,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>31.15684496189657</v>
       </c>
       <c r="G8" t="n">
-        <v>413.784170020795</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>151.9313162448612</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1183,7 +1183,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
         <v>216.4483203576578</v>
@@ -1195,13 +1195,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>335.3177255349768</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -1229,10 +1229,10 @@
         <v>136.5310119231965</v>
       </c>
       <c r="H9" t="n">
-        <v>104.3883541553075</v>
+        <v>104.3883541553076</v>
       </c>
       <c r="I9" t="n">
-        <v>61.42221998250817</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>49.71123688229329</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S9" t="n">
         <v>156.5912426325231</v>
@@ -1296,16 +1296,16 @@
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>167.3098022590509</v>
+        <v>77.72878559814592</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1335,7 +1335,7 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.12274995491427</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -1344,10 +1344,10 @@
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>36.11424288805416</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -1356,10 +1356,10 @@
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -1387,10 +1387,10 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H11" t="n">
-        <v>294.6077643873205</v>
+        <v>294.6077643873199</v>
       </c>
       <c r="I11" t="n">
-        <v>41.57692977292547</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1469,7 +1469,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I12" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247747</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1496,7 +1496,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S12" t="n">
         <v>128.1435076414547</v>
@@ -1527,7 +1527,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>167.2468210986278</v>
@@ -1545,10 +1545,10 @@
         <v>166.0258082590282</v>
       </c>
       <c r="H13" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1581,22 +1581,22 @@
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>50.43805308696684</v>
       </c>
       <c r="W13" t="n">
-        <v>203.1977700471494</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1657,13 +1657,13 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>109.1877617881758</v>
+        <v>109.187761788176</v>
       </c>
       <c r="T14" t="n">
         <v>203.9179701396201</v>
       </c>
       <c r="U14" t="n">
-        <v>250.9951719589016</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V14" t="n">
         <v>327.7522584701349</v>
@@ -1706,7 +1706,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I15" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247747</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1764,7 +1764,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>167.2468210986278</v>
@@ -1773,7 +1773,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
@@ -1782,10 +1782,10 @@
         <v>166.0258082590282</v>
       </c>
       <c r="H16" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1815,25 +1815,25 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S16" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>149.2419515106229</v>
+        <v>75.35116901583</v>
       </c>
     </row>
     <row r="17">
@@ -1861,7 +1861,7 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H17" t="n">
-        <v>294.6077643873205</v>
+        <v>294.6077643873199</v>
       </c>
       <c r="I17" t="n">
         <v>41.57692977292595</v>
@@ -2001,25 +2001,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>5.631578079487888</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H19" t="n">
-        <v>144.7550149143208</v>
+        <v>90.39124635263593</v>
       </c>
       <c r="I19" t="n">
         <v>96.35242040983809</v>
@@ -2058,16 +2058,16 @@
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>218.5846533520948</v>
@@ -2149,7 +2149,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
-        <v>386.237938656054</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="21">
@@ -2207,7 +2207,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098397</v>
       </c>
       <c r="S21" t="n">
         <v>128.1435076414547</v>
@@ -2247,19 +2247,19 @@
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>18.26879610203984</v>
       </c>
       <c r="F22" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2286,7 +2286,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>189.7690253314419</v>
@@ -2301,13 +2301,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>106.5867442799587</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -2444,7 +2444,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098397</v>
       </c>
       <c r="S24" t="n">
         <v>128.1435076414547</v>
@@ -2475,10 +2475,10 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
         <v>148.6154730182124</v>
@@ -2490,10 +2490,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>106.7473372375336</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2532,7 +2532,7 @@
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>238.9171930685448</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
@@ -2575,7 +2575,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I26" t="n">
-        <v>41.57692977292636</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2681,7 +2681,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>0.1429098734093895</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S27" t="n">
         <v>128.1435076414547</v>
@@ -2727,10 +2727,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>96.35242040983809</v>
@@ -2760,28 +2760,28 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>203.1977700471494</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>173.8109364783589</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -2918,7 +2918,7 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S30" t="n">
         <v>128.1435076414547</v>
@@ -2952,7 +2952,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>97.16210696178877</v>
       </c>
       <c r="D31" t="n">
         <v>148.6154730182124</v>
@@ -2961,16 +2961,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -3003,22 +3003,22 @@
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>203.1977700471494</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -3186,19 +3186,19 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
@@ -3207,7 +3207,7 @@
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3234,19 +3234,19 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
         <v>286.2118382056129</v>
       </c>
       <c r="V34" t="n">
-        <v>252.137643323828</v>
+        <v>159.8284100303891</v>
       </c>
       <c r="W34" t="n">
         <v>286.522998336591</v>
@@ -3255,7 +3255,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>126.0955237083904</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -3286,7 +3286,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I35" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292636</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3432,13 +3432,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>77.31354443380484</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -3480,7 +3480,7 @@
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>71.67037196991727</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V37" t="n">
         <v>252.137643323828</v>
@@ -3514,7 +3514,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417118</v>
       </c>
       <c r="G38" t="n">
         <v>410.9217256534534</v>
@@ -3629,7 +3629,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S39" t="n">
         <v>128.1435076414547</v>
@@ -3660,7 +3660,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
@@ -3678,10 +3678,10 @@
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3708,10 +3708,10 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>189.7690253314419</v>
+        <v>173.6268892744757</v>
       </c>
       <c r="T40" t="n">
         <v>219.5489492761692</v>
@@ -3729,7 +3729,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>52.23490948285954</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -3912,10 +3912,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3954,13 +3954,13 @@
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>13.02719212039631</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>286.522998336591</v>
+        <v>71.98153210089556</v>
       </c>
       <c r="X43" t="n">
         <v>225.7096553890372</v>
@@ -4134,7 +4134,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
@@ -4143,19 +4143,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>144.7550149143208</v>
+        <v>99.13931750950138</v>
       </c>
       <c r="I46" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4182,28 +4182,28 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
         <v>286.2118382056129</v>
       </c>
       <c r="V46" t="n">
-        <v>210.1089145855743</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
   </sheetData>
@@ -4306,31 +4306,31 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2476.569858826099</v>
+        <v>1309.714918859356</v>
       </c>
       <c r="C2" t="n">
-        <v>2107.607341885688</v>
+        <v>1309.714918859356</v>
       </c>
       <c r="D2" t="n">
-        <v>1749.341643278937</v>
+        <v>1309.714918859356</v>
       </c>
       <c r="E2" t="n">
-        <v>1363.553390680693</v>
+        <v>923.9266662611112</v>
       </c>
       <c r="F2" t="n">
-        <v>952.5674858910851</v>
+        <v>512.9407614715037</v>
       </c>
       <c r="G2" t="n">
-        <v>534.603677789272</v>
+        <v>94.97695336969059</v>
       </c>
       <c r="H2" t="n">
-        <v>207.4089578252748</v>
+        <v>94.97695336969059</v>
       </c>
       <c r="I2" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K2" t="n">
         <v>463.9616490733127</v>
@@ -4354,28 +4354,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R2" t="n">
-        <v>2652.747346511929</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S2" t="n">
-        <v>2476.569858826099</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T2" t="n">
-        <v>2476.569858826099</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="U2" t="n">
-        <v>2476.569858826099</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="V2" t="n">
-        <v>2476.569858826099</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="W2" t="n">
-        <v>2476.569858826099</v>
+        <v>1309.714918859356</v>
       </c>
       <c r="X2" t="n">
-        <v>2476.569858826099</v>
+        <v>1309.714918859356</v>
       </c>
       <c r="Y2" t="n">
-        <v>2476.569858826099</v>
+        <v>1309.714918859356</v>
       </c>
     </row>
     <row r="3">
@@ -4385,34 +4385,34 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170825</v>
       </c>
       <c r="C3" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359555</v>
       </c>
       <c r="D3" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747041</v>
       </c>
       <c r="E3" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692486</v>
       </c>
       <c r="F3" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961338</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H3" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673422</v>
       </c>
       <c r="I3" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J3" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K3" t="n">
-        <v>384.4474646615928</v>
+        <v>266.2060027641987</v>
       </c>
       <c r="L3" t="n">
         <v>670.8219208598706</v>
@@ -4433,7 +4433,7 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R3" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S3" t="n">
         <v>2488.762748073963</v>
@@ -4448,10 +4448,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W3" t="n">
-        <v>1572.325111207638</v>
+        <v>1572.325111207637</v>
       </c>
       <c r="X3" t="n">
-        <v>1364.473611002105</v>
+        <v>1364.473611002104</v>
       </c>
       <c r="Y3" t="n">
         <v>1156.713312237151</v>
@@ -4464,19 +4464,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>351.9727148150933</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="C4" t="n">
-        <v>351.9727148150933</v>
+        <v>667.8624625746712</v>
       </c>
       <c r="D4" t="n">
-        <v>201.8560754027576</v>
+        <v>517.7458231623355</v>
       </c>
       <c r="E4" t="n">
-        <v>53.94298182036445</v>
+        <v>369.8327295799424</v>
       </c>
       <c r="F4" t="n">
-        <v>53.94298182036445</v>
+        <v>222.942782082032</v>
       </c>
       <c r="G4" t="n">
         <v>53.94298182036445</v>
@@ -4524,16 +4524,16 @@
         <v>728.1289842064344</v>
       </c>
       <c r="V4" t="n">
-        <v>473.4444960005476</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="W4" t="n">
-        <v>473.4444960005476</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="X4" t="n">
-        <v>473.4444960005476</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Y4" t="n">
-        <v>351.9727148150933</v>
+        <v>728.1289842064344</v>
       </c>
     </row>
     <row r="5">
@@ -4543,37 +4543,37 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1628.293017861605</v>
+        <v>1422.14692331494</v>
       </c>
       <c r="C5" t="n">
-        <v>1259.330500921194</v>
+        <v>1422.14692331494</v>
       </c>
       <c r="D5" t="n">
-        <v>901.0648023144433</v>
+        <v>1422.14692331494</v>
       </c>
       <c r="E5" t="n">
-        <v>901.0648023144433</v>
+        <v>1036.358670716696</v>
       </c>
       <c r="F5" t="n">
-        <v>490.0788975248358</v>
+        <v>625.3727659270879</v>
       </c>
       <c r="G5" t="n">
-        <v>72.11508942302265</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H5" t="n">
-        <v>72.11508942302265</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I5" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733129</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224077</v>
+        <v>881.2824271224079</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
@@ -4591,28 +4591,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R5" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S5" t="n">
-        <v>2642.120401548716</v>
+        <v>2615.745595024168</v>
       </c>
       <c r="T5" t="n">
-        <v>2642.120401548716</v>
+        <v>2397.110927996231</v>
       </c>
       <c r="U5" t="n">
-        <v>2388.358616186807</v>
+        <v>2143.349142634322</v>
       </c>
       <c r="V5" t="n">
-        <v>2388.358616186807</v>
+        <v>1812.286255290752</v>
       </c>
       <c r="W5" t="n">
-        <v>2388.358616186807</v>
+        <v>1812.286255290752</v>
       </c>
       <c r="X5" t="n">
-        <v>2014.892857925727</v>
+        <v>1812.286255290752</v>
       </c>
       <c r="Y5" t="n">
-        <v>2014.892857925727</v>
+        <v>1422.14692331494</v>
       </c>
     </row>
     <row r="6">
@@ -4649,13 +4649,13 @@
         <v>129.2001442204943</v>
       </c>
       <c r="K6" t="n">
-        <v>384.4474646615928</v>
+        <v>266.2060027641994</v>
       </c>
       <c r="L6" t="n">
-        <v>789.0633827572647</v>
+        <v>670.8219208598713</v>
       </c>
       <c r="M6" t="n">
-        <v>1313.210296315296</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N6" t="n">
         <v>1748.695370517453</v>
@@ -4701,28 +4701,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>409.2948950230958</v>
+        <v>550.5654064942401</v>
       </c>
       <c r="C7" t="n">
-        <v>240.3587120951888</v>
+        <v>550.5654064942401</v>
       </c>
       <c r="D7" t="n">
-        <v>240.3587120951888</v>
+        <v>550.5654064942401</v>
       </c>
       <c r="E7" t="n">
-        <v>240.3587120951888</v>
+        <v>550.5654064942401</v>
       </c>
       <c r="F7" t="n">
-        <v>240.3587120951888</v>
+        <v>550.5654064942401</v>
       </c>
       <c r="G7" t="n">
-        <v>240.3587120951888</v>
+        <v>393.6767897220517</v>
       </c>
       <c r="H7" t="n">
-        <v>99.5995062532301</v>
+        <v>235.9284171545819</v>
       </c>
       <c r="I7" t="n">
-        <v>99.5995062532301</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="J7" t="n">
         <v>53.94298182036445</v>
@@ -4731,46 +4731,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L7" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M7" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N7" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O7" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q7" t="n">
-        <v>698.7120650600564</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="R7" t="n">
-        <v>698.7120650600564</v>
+        <v>550.5654064942401</v>
       </c>
       <c r="S7" t="n">
-        <v>698.7120650600564</v>
+        <v>550.5654064942401</v>
       </c>
       <c r="T7" t="n">
-        <v>698.7120650600564</v>
+        <v>550.5654064942401</v>
       </c>
       <c r="U7" t="n">
-        <v>698.7120650600564</v>
+        <v>550.5654064942401</v>
       </c>
       <c r="V7" t="n">
-        <v>698.7120650600564</v>
+        <v>550.5654064942401</v>
       </c>
       <c r="W7" t="n">
-        <v>409.2948950230958</v>
+        <v>550.5654064942401</v>
       </c>
       <c r="X7" t="n">
-        <v>409.2948950230958</v>
+        <v>550.5654064942401</v>
       </c>
       <c r="Y7" t="n">
-        <v>409.2948950230958</v>
+        <v>550.5654064942401</v>
       </c>
     </row>
     <row r="8">
@@ -4780,37 +4780,37 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1422.14692331494</v>
+        <v>468.3004633897576</v>
       </c>
       <c r="C8" t="n">
-        <v>1422.14692331494</v>
+        <v>99.33794644934585</v>
       </c>
       <c r="D8" t="n">
-        <v>1422.14692331494</v>
+        <v>99.33794644934585</v>
       </c>
       <c r="E8" t="n">
-        <v>1036.358670716696</v>
+        <v>99.33794644934585</v>
       </c>
       <c r="F8" t="n">
-        <v>625.3727659270879</v>
+        <v>67.86638588177355</v>
       </c>
       <c r="G8" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="H8" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I8" t="n">
         <v>53.94298182036446</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733129</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224079</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
@@ -4831,25 +4831,25 @@
         <v>2697.149091018223</v>
       </c>
       <c r="S8" t="n">
-        <v>2697.149091018223</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="T8" t="n">
-        <v>2478.514423990286</v>
+        <v>2302.336936304456</v>
       </c>
       <c r="U8" t="n">
-        <v>2478.514423990286</v>
+        <v>2302.336936304456</v>
       </c>
       <c r="V8" t="n">
-        <v>2147.451536646715</v>
+        <v>1971.274048960885</v>
       </c>
       <c r="W8" t="n">
-        <v>1808.746763379062</v>
+        <v>1618.505393690771</v>
       </c>
       <c r="X8" t="n">
-        <v>1808.746763379062</v>
+        <v>1245.039635429691</v>
       </c>
       <c r="Y8" t="n">
-        <v>1808.746763379062</v>
+        <v>854.9003034538794</v>
       </c>
     </row>
     <row r="9">
@@ -4874,7 +4874,7 @@
         <v>359.3385232961344</v>
       </c>
       <c r="G9" t="n">
-        <v>221.4284102424005</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H9" t="n">
         <v>115.9856282673424</v>
@@ -4889,7 +4889,7 @@
         <v>309.190302261463</v>
       </c>
       <c r="L9" t="n">
-        <v>713.8062203571351</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M9" t="n">
         <v>1237.953133915166</v>
@@ -4898,10 +4898,10 @@
         <v>1791.679670014717</v>
       </c>
       <c r="O9" t="n">
-        <v>2231.815593035061</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P9" t="n">
-        <v>2568.06040664989</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q9" t="n">
         <v>2697.149091018223</v>
@@ -4938,19 +4938,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>373.0594214943678</v>
+        <v>279.3468541648868</v>
       </c>
       <c r="C10" t="n">
-        <v>373.0594214943678</v>
+        <v>279.3468541648868</v>
       </c>
       <c r="D10" t="n">
-        <v>222.942782082032</v>
+        <v>279.3468541648868</v>
       </c>
       <c r="E10" t="n">
-        <v>222.942782082032</v>
+        <v>279.3468541648868</v>
       </c>
       <c r="F10" t="n">
-        <v>222.942782082032</v>
+        <v>132.4569066669765</v>
       </c>
       <c r="G10" t="n">
         <v>53.94298182036446</v>
@@ -4968,46 +4968,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L10" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M10" t="n">
-        <v>382.7169011658211</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N10" t="n">
-        <v>529.6040388502503</v>
+        <v>529.60403885025</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594904</v>
+        <v>649.2617893594902</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064347</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="Q10" t="n">
-        <v>698.7120650600566</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="R10" t="n">
-        <v>698.7120650600566</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="S10" t="n">
-        <v>698.7120650600566</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="T10" t="n">
-        <v>662.2330318397999</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="U10" t="n">
-        <v>373.0594214943678</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="V10" t="n">
-        <v>373.0594214943678</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="W10" t="n">
-        <v>373.0594214943678</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="X10" t="n">
-        <v>373.0594214943678</v>
+        <v>500.139433308417</v>
       </c>
       <c r="Y10" t="n">
-        <v>373.0594214943678</v>
+        <v>279.3468541648868</v>
       </c>
     </row>
     <row r="11">
@@ -5035,34 +5035,34 @@
         <v>435.141533600158</v>
       </c>
       <c r="H11" t="n">
-        <v>137.5579332089252</v>
+        <v>137.5579332089257</v>
       </c>
       <c r="I11" t="n">
         <v>95.56103444839441</v>
       </c>
       <c r="J11" t="n">
-        <v>451.8458144277729</v>
+        <v>284.4401654074198</v>
       </c>
       <c r="K11" t="n">
-        <v>1070.832524924161</v>
+        <v>618.2595390972663</v>
       </c>
       <c r="L11" t="n">
-        <v>1521.86673817257</v>
+        <v>1237.706702364128</v>
       </c>
       <c r="M11" t="n">
-        <v>2055.398642844494</v>
+        <v>2216.257005193956</v>
       </c>
       <c r="N11" t="n">
-        <v>2602.177459903276</v>
+        <v>3196.009277420603</v>
       </c>
       <c r="O11" t="n">
-        <v>3482.142110232731</v>
+        <v>4075.973927750058</v>
       </c>
       <c r="P11" t="n">
-        <v>4195.497197679677</v>
+        <v>4470.748294107236</v>
       </c>
       <c r="Q11" t="n">
-        <v>4653.975400188665</v>
+        <v>4719.034655862918</v>
       </c>
       <c r="R11" t="n">
         <v>4778.05172241972</v>
@@ -5096,25 +5096,25 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>970.5927724973195</v>
+        <v>970.5927724973196</v>
       </c>
       <c r="C12" t="n">
-        <v>796.1397432161925</v>
+        <v>796.1397432161926</v>
       </c>
       <c r="D12" t="n">
-        <v>647.2053335549413</v>
+        <v>647.2053335549414</v>
       </c>
       <c r="E12" t="n">
-        <v>487.9678785494858</v>
+        <v>487.9678785494859</v>
       </c>
       <c r="F12" t="n">
-        <v>341.4333205763708</v>
+        <v>341.4333205763709</v>
       </c>
       <c r="G12" t="n">
-        <v>205.0702204089889</v>
+        <v>205.070220408989</v>
       </c>
       <c r="H12" t="n">
-        <v>114.5683260468564</v>
+        <v>114.5683260468565</v>
       </c>
       <c r="I12" t="n">
         <v>95.56103444839441</v>
@@ -5153,7 +5153,7 @@
         <v>2271.877220313403</v>
       </c>
       <c r="U12" t="n">
-        <v>2043.809373447818</v>
+        <v>2043.809373447819</v>
       </c>
       <c r="V12" t="n">
         <v>1808.657265216076</v>
@@ -5162,10 +5162,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X12" t="n">
-        <v>1346.568408282341</v>
+        <v>1346.568408282342</v>
       </c>
       <c r="Y12" t="n">
-        <v>1138.808109517387</v>
+        <v>1138.808109517388</v>
       </c>
     </row>
     <row r="13">
@@ -5175,25 +5175,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1120.662598458018</v>
+        <v>877.1197344942216</v>
       </c>
       <c r="C13" t="n">
-        <v>951.7264155301116</v>
+        <v>708.1835515663147</v>
       </c>
       <c r="D13" t="n">
-        <v>801.6097761177758</v>
+        <v>558.0669121539789</v>
       </c>
       <c r="E13" t="n">
-        <v>653.6966825353827</v>
+        <v>410.1538185715858</v>
       </c>
       <c r="F13" t="n">
-        <v>506.8067350374723</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="G13" t="n">
-        <v>339.1038984121913</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="H13" t="n">
-        <v>192.886711630049</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="I13" t="n">
         <v>95.56103444839441</v>
@@ -5229,22 +5229,22 @@
         <v>1956.343466104704</v>
       </c>
       <c r="T13" t="n">
-        <v>1956.343466104704</v>
+        <v>1734.57685067423</v>
       </c>
       <c r="U13" t="n">
-        <v>1956.343466104704</v>
+        <v>1445.473983799873</v>
       </c>
       <c r="V13" t="n">
-        <v>1956.343466104704</v>
+        <v>1394.5264554292</v>
       </c>
       <c r="W13" t="n">
-        <v>1751.093193329805</v>
+        <v>1105.109285392239</v>
       </c>
       <c r="X13" t="n">
-        <v>1523.103642431788</v>
+        <v>877.1197344942216</v>
       </c>
       <c r="Y13" t="n">
-        <v>1302.311063288258</v>
+        <v>877.1197344942216</v>
       </c>
     </row>
     <row r="14">
@@ -5284,13 +5284,13 @@
         <v>618.2595390972663</v>
       </c>
       <c r="L14" t="n">
-        <v>1482.778354750621</v>
+        <v>1237.706702364128</v>
       </c>
       <c r="M14" t="n">
-        <v>2461.32865758045</v>
+        <v>2216.257005193956</v>
       </c>
       <c r="N14" t="n">
-        <v>3441.080929807096</v>
+        <v>3196.009277420603</v>
       </c>
       <c r="O14" t="n">
         <v>4075.973927750058</v>
@@ -5333,76 +5333,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>970.5927724973185</v>
+        <v>970.5927724973196</v>
       </c>
       <c r="C15" t="n">
-        <v>796.1397432161915</v>
+        <v>796.1397432161926</v>
       </c>
       <c r="D15" t="n">
-        <v>647.2053335549404</v>
+        <v>647.2053335549414</v>
       </c>
       <c r="E15" t="n">
-        <v>487.9678785494848</v>
+        <v>487.9678785494859</v>
       </c>
       <c r="F15" t="n">
-        <v>341.4333205763699</v>
+        <v>341.4333205763709</v>
       </c>
       <c r="G15" t="n">
-        <v>205.0702204089883</v>
+        <v>205.070220408989</v>
       </c>
       <c r="H15" t="n">
-        <v>114.5683260468559</v>
+        <v>114.5683260468565</v>
       </c>
       <c r="I15" t="n">
         <v>95.56103444839441</v>
       </c>
       <c r="J15" t="n">
-        <v>189.2383039390117</v>
+        <v>189.2383039390118</v>
       </c>
       <c r="K15" t="n">
-        <v>427.5025029193584</v>
+        <v>427.5025029193589</v>
       </c>
       <c r="L15" t="n">
-        <v>794.2006632320239</v>
+        <v>794.2006632320242</v>
       </c>
       <c r="M15" t="n">
         <v>1241.47698845434</v>
       </c>
       <c r="N15" t="n">
-        <v>1715.000032008794</v>
+        <v>1715.000032008795</v>
       </c>
       <c r="O15" t="n">
-        <v>2125.961311426849</v>
+        <v>2125.96131142685</v>
       </c>
       <c r="P15" t="n">
-        <v>2436.460902902952</v>
+        <v>2436.460902902953</v>
       </c>
       <c r="Q15" t="n">
-        <v>2594.102460549551</v>
+        <v>2594.102460549552</v>
       </c>
       <c r="R15" t="n">
-        <v>2593.958107142067</v>
+        <v>2593.958107142068</v>
       </c>
       <c r="S15" t="n">
-        <v>2464.520220635547</v>
+        <v>2464.520220635548</v>
       </c>
       <c r="T15" t="n">
-        <v>2271.877220313402</v>
+        <v>2271.877220313403</v>
       </c>
       <c r="U15" t="n">
-        <v>2043.809373447818</v>
+        <v>2043.809373447819</v>
       </c>
       <c r="V15" t="n">
-        <v>1808.657265216075</v>
+        <v>1808.657265216076</v>
       </c>
       <c r="W15" t="n">
-        <v>1554.419908487873</v>
+        <v>1554.419908487874</v>
       </c>
       <c r="X15" t="n">
-        <v>1346.56840828234</v>
+        <v>1346.568408282342</v>
       </c>
       <c r="Y15" t="n">
-        <v>1138.808109517387</v>
+        <v>1138.808109517388</v>
       </c>
     </row>
     <row r="16">
@@ -5412,25 +5412,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1120.662598458018</v>
+        <v>729.2066409118285</v>
       </c>
       <c r="C16" t="n">
-        <v>951.7264155301116</v>
+        <v>560.2704579839216</v>
       </c>
       <c r="D16" t="n">
-        <v>801.6097761177758</v>
+        <v>410.1538185715858</v>
       </c>
       <c r="E16" t="n">
-        <v>653.6966825353827</v>
+        <v>410.1538185715858</v>
       </c>
       <c r="F16" t="n">
-        <v>506.8067350374723</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="G16" t="n">
-        <v>339.1038984121913</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="H16" t="n">
-        <v>192.886711630049</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="I16" t="n">
         <v>95.56103444839441</v>
@@ -5463,25 +5463,25 @@
         <v>1866.513008862232</v>
       </c>
       <c r="S16" t="n">
-        <v>1674.827124689058</v>
+        <v>1866.513008862232</v>
       </c>
       <c r="T16" t="n">
-        <v>1453.060509258584</v>
+        <v>1866.513008862232</v>
       </c>
       <c r="U16" t="n">
-        <v>1453.060509258584</v>
+        <v>1577.410141987875</v>
       </c>
       <c r="V16" t="n">
-        <v>1453.060509258584</v>
+        <v>1322.725653781988</v>
       </c>
       <c r="W16" t="n">
-        <v>1453.060509258584</v>
+        <v>1033.308483745028</v>
       </c>
       <c r="X16" t="n">
-        <v>1453.060509258584</v>
+        <v>805.3189328470103</v>
       </c>
       <c r="Y16" t="n">
-        <v>1302.311063288258</v>
+        <v>729.2066409118285</v>
       </c>
     </row>
     <row r="17">
@@ -5497,16 +5497,16 @@
         <v>2005.253839749764</v>
       </c>
       <c r="D17" t="n">
-        <v>1646.988141143014</v>
+        <v>1646.988141143013</v>
       </c>
       <c r="E17" t="n">
-        <v>1261.19988854477</v>
+        <v>1261.199888544769</v>
       </c>
       <c r="F17" t="n">
-        <v>850.213983755162</v>
+        <v>850.2139837551615</v>
       </c>
       <c r="G17" t="n">
-        <v>435.1415336001585</v>
+        <v>435.141533600158</v>
       </c>
       <c r="H17" t="n">
         <v>137.5579332089257</v>
@@ -5515,28 +5515,28 @@
         <v>95.56103444839441</v>
       </c>
       <c r="J17" t="n">
-        <v>451.8458144277729</v>
+        <v>284.4401654074198</v>
       </c>
       <c r="K17" t="n">
-        <v>1106.569146563073</v>
+        <v>618.2595390972663</v>
       </c>
       <c r="L17" t="n">
-        <v>1557.603359811481</v>
+        <v>1069.293752345675</v>
       </c>
       <c r="M17" t="n">
-        <v>2091.135264483406</v>
+        <v>2047.844055175504</v>
       </c>
       <c r="N17" t="n">
-        <v>2637.914081542188</v>
+        <v>3027.596327402151</v>
       </c>
       <c r="O17" t="n">
-        <v>3482.142110232731</v>
+        <v>3530.568798281487</v>
       </c>
       <c r="P17" t="n">
-        <v>4195.497197679677</v>
+        <v>4243.923885728434</v>
       </c>
       <c r="Q17" t="n">
-        <v>4653.975400188665</v>
+        <v>4702.402088237422</v>
       </c>
       <c r="R17" t="n">
         <v>4778.05172241972</v>
@@ -5649,22 +5649,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>789.7120416113839</v>
+        <v>620.8300204283238</v>
       </c>
       <c r="C19" t="n">
-        <v>784.0235789048305</v>
+        <v>451.8938375004169</v>
       </c>
       <c r="D19" t="n">
-        <v>633.9069394924948</v>
+        <v>451.8938375004169</v>
       </c>
       <c r="E19" t="n">
-        <v>485.9938459101016</v>
+        <v>451.8938375004169</v>
       </c>
       <c r="F19" t="n">
-        <v>339.1038984121913</v>
+        <v>451.8938375004169</v>
       </c>
       <c r="G19" t="n">
-        <v>339.1038984121913</v>
+        <v>284.1910008751358</v>
       </c>
       <c r="H19" t="n">
         <v>192.886711630049</v>
@@ -5706,19 +5706,19 @@
         <v>1674.827124689058</v>
       </c>
       <c r="U19" t="n">
-        <v>1674.827124689058</v>
+        <v>1385.724257814702</v>
       </c>
       <c r="V19" t="n">
-        <v>1420.142636483171</v>
+        <v>1131.039769608815</v>
       </c>
       <c r="W19" t="n">
-        <v>1420.142636483171</v>
+        <v>841.6225995718539</v>
       </c>
       <c r="X19" t="n">
-        <v>1192.153085585154</v>
+        <v>841.6225995718539</v>
       </c>
       <c r="Y19" t="n">
-        <v>971.3605064416237</v>
+        <v>620.8300204283238</v>
       </c>
     </row>
     <row r="20">
@@ -5728,7 +5728,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2374.216356690176</v>
+        <v>2374.216356690175</v>
       </c>
       <c r="C20" t="n">
         <v>2005.253839749764</v>
@@ -5737,19 +5737,19 @@
         <v>1646.988141143014</v>
       </c>
       <c r="E20" t="n">
-        <v>1261.199888544769</v>
+        <v>1261.19988854477</v>
       </c>
       <c r="F20" t="n">
-        <v>850.213983755162</v>
+        <v>850.2139837551618</v>
       </c>
       <c r="G20" t="n">
-        <v>435.1415336001585</v>
+        <v>435.1415336001584</v>
       </c>
       <c r="H20" t="n">
         <v>137.5579332089257</v>
       </c>
       <c r="I20" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J20" t="n">
         <v>284.4401654074198</v>
@@ -5764,40 +5764,40 @@
         <v>2461.32865758045</v>
       </c>
       <c r="N20" t="n">
-        <v>3441.080929807096</v>
+        <v>3196.009277420603</v>
       </c>
       <c r="O20" t="n">
         <v>4075.973927750058</v>
       </c>
       <c r="P20" t="n">
-        <v>4470.748294107237</v>
+        <v>4470.748294107236</v>
       </c>
       <c r="Q20" t="n">
-        <v>4719.034655862919</v>
+        <v>4719.034655862918</v>
       </c>
       <c r="R20" t="n">
-        <v>4778.051722419721</v>
+        <v>4778.05172241972</v>
       </c>
       <c r="S20" t="n">
-        <v>4667.761053946816</v>
+        <v>4667.761053946815</v>
       </c>
       <c r="T20" t="n">
-        <v>4461.783306331038</v>
+        <v>4461.783306331037</v>
       </c>
       <c r="U20" t="n">
-        <v>4208.252829604875</v>
+        <v>4208.252829604874</v>
       </c>
       <c r="V20" t="n">
-        <v>3877.189942261304</v>
+        <v>3877.189942261303</v>
       </c>
       <c r="W20" t="n">
-        <v>3524.42128699119</v>
+        <v>3524.421286991189</v>
       </c>
       <c r="X20" t="n">
-        <v>3150.95552873011</v>
+        <v>3150.955528730109</v>
       </c>
       <c r="Y20" t="n">
-        <v>2760.816196754298</v>
+        <v>2760.816196754297</v>
       </c>
     </row>
     <row r="21">
@@ -5807,43 +5807,43 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>970.5927724973194</v>
+        <v>970.5927724973195</v>
       </c>
       <c r="C21" t="n">
-        <v>796.1397432161924</v>
+        <v>796.1397432161925</v>
       </c>
       <c r="D21" t="n">
         <v>647.2053335549413</v>
       </c>
       <c r="E21" t="n">
-        <v>487.9678785494857</v>
+        <v>487.9678785494858</v>
       </c>
       <c r="F21" t="n">
         <v>341.4333205763708</v>
       </c>
       <c r="G21" t="n">
-        <v>205.0702204089894</v>
+        <v>205.0702204089889</v>
       </c>
       <c r="H21" t="n">
-        <v>114.5683260468568</v>
+        <v>114.5683260468564</v>
       </c>
       <c r="I21" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J21" t="n">
-        <v>189.2383039390117</v>
+        <v>189.2383039390118</v>
       </c>
       <c r="K21" t="n">
         <v>427.5025029193589</v>
       </c>
       <c r="L21" t="n">
-        <v>794.200663232024</v>
+        <v>794.2006632320242</v>
       </c>
       <c r="M21" t="n">
         <v>1241.47698845434</v>
       </c>
       <c r="N21" t="n">
-        <v>1715.000032008794</v>
+        <v>1715.000032008795</v>
       </c>
       <c r="O21" t="n">
         <v>2125.96131142685</v>
@@ -5864,7 +5864,7 @@
         <v>2271.877220313403</v>
       </c>
       <c r="U21" t="n">
-        <v>2043.809373447819</v>
+        <v>2043.809373447818</v>
       </c>
       <c r="V21" t="n">
         <v>1808.657265216076</v>
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>3623.318032432793</v>
+        <v>260.9043113423046</v>
       </c>
       <c r="C22" t="n">
-        <v>3623.318032432793</v>
+        <v>260.9043113423046</v>
       </c>
       <c r="D22" t="n">
-        <v>3623.318032432793</v>
+        <v>260.9043113423046</v>
       </c>
       <c r="E22" t="n">
-        <v>3475.4049388504</v>
+        <v>242.4509819463048</v>
       </c>
       <c r="F22" t="n">
-        <v>3328.51499135249</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="G22" t="n">
-        <v>3160.812154727209</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="H22" t="n">
-        <v>3014.594967945066</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="I22" t="n">
-        <v>2917.269290763412</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J22" t="n">
-        <v>2962.391923210348</v>
+        <v>140.68366689533</v>
       </c>
       <c r="K22" t="n">
-        <v>3166.379106159224</v>
+        <v>344.6708498442064</v>
       </c>
       <c r="L22" t="n">
-        <v>3482.93890460772</v>
+        <v>661.2306482927024</v>
       </c>
       <c r="M22" t="n">
-        <v>3827.095950207269</v>
+        <v>1005.387693892251</v>
       </c>
       <c r="N22" t="n">
-        <v>4168.504326913134</v>
+        <v>1346.796070598116</v>
       </c>
       <c r="O22" t="n">
-        <v>4467.833925833547</v>
+        <v>1646.12566951853</v>
       </c>
       <c r="P22" t="n">
-        <v>4700.441426267206</v>
+        <v>1878.733169952189</v>
       </c>
       <c r="Q22" t="n">
-        <v>4778.051722419721</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="R22" t="n">
-        <v>4688.221265177249</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="S22" t="n">
-        <v>4496.535381004075</v>
+        <v>1764.65758193153</v>
       </c>
       <c r="T22" t="n">
-        <v>4274.768765573601</v>
+        <v>1542.890966501056</v>
       </c>
       <c r="U22" t="n">
-        <v>3985.665898699244</v>
+        <v>1253.788099626699</v>
       </c>
       <c r="V22" t="n">
-        <v>3730.981410493358</v>
+        <v>999.1036114208126</v>
       </c>
       <c r="W22" t="n">
-        <v>3623.318032432793</v>
+        <v>709.6864413838521</v>
       </c>
       <c r="X22" t="n">
-        <v>3623.318032432793</v>
+        <v>481.6968904858347</v>
       </c>
       <c r="Y22" t="n">
-        <v>3623.318032432793</v>
+        <v>260.9043113423046</v>
       </c>
     </row>
     <row r="23">
@@ -5968,67 +5968,67 @@
         <v>2374.216356690176</v>
       </c>
       <c r="C23" t="n">
-        <v>2005.253839749765</v>
+        <v>2005.253839749764</v>
       </c>
       <c r="D23" t="n">
-        <v>1646.988141143015</v>
+        <v>1646.988141143014</v>
       </c>
       <c r="E23" t="n">
-        <v>1261.199888544771</v>
+        <v>1261.199888544769</v>
       </c>
       <c r="F23" t="n">
-        <v>850.2139837551626</v>
+        <v>850.213983755162</v>
       </c>
       <c r="G23" t="n">
-        <v>435.1415336001592</v>
+        <v>435.1415336001585</v>
       </c>
       <c r="H23" t="n">
-        <v>137.5579332089264</v>
+        <v>137.5579332089257</v>
       </c>
       <c r="I23" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J23" t="n">
         <v>284.4401654074198</v>
       </c>
       <c r="K23" t="n">
-        <v>618.2595390972663</v>
+        <v>939.1634975427194</v>
       </c>
       <c r="L23" t="n">
-        <v>1482.778354750621</v>
+        <v>1803.682313196074</v>
       </c>
       <c r="M23" t="n">
-        <v>2461.32865758045</v>
+        <v>2337.214217867999</v>
       </c>
       <c r="N23" t="n">
-        <v>3441.080929807096</v>
+        <v>3316.966490094645</v>
       </c>
       <c r="O23" t="n">
         <v>4075.973927750058</v>
       </c>
       <c r="P23" t="n">
-        <v>4470.748294107237</v>
+        <v>4470.748294107236</v>
       </c>
       <c r="Q23" t="n">
-        <v>4719.034655862919</v>
+        <v>4719.034655862918</v>
       </c>
       <c r="R23" t="n">
-        <v>4778.051722419721</v>
+        <v>4778.05172241972</v>
       </c>
       <c r="S23" t="n">
-        <v>4667.761053946816</v>
+        <v>4667.761053946815</v>
       </c>
       <c r="T23" t="n">
-        <v>4461.783306331038</v>
+        <v>4461.783306331037</v>
       </c>
       <c r="U23" t="n">
-        <v>4208.252829604875</v>
+        <v>4208.252829604874</v>
       </c>
       <c r="V23" t="n">
         <v>3877.189942261304</v>
       </c>
       <c r="W23" t="n">
-        <v>3524.42128699119</v>
+        <v>3524.421286991189</v>
       </c>
       <c r="X23" t="n">
         <v>3150.95552873011</v>
@@ -6044,28 +6044,28 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>970.5927724973189</v>
+        <v>970.5927724973195</v>
       </c>
       <c r="C24" t="n">
-        <v>796.139743216192</v>
+        <v>796.1397432161925</v>
       </c>
       <c r="D24" t="n">
-        <v>647.2053335549408</v>
+        <v>647.2053335549413</v>
       </c>
       <c r="E24" t="n">
-        <v>487.9678785494852</v>
+        <v>487.9678785494858</v>
       </c>
       <c r="F24" t="n">
-        <v>341.4333205763703</v>
+        <v>341.4333205763708</v>
       </c>
       <c r="G24" t="n">
         <v>205.0702204089889</v>
       </c>
       <c r="H24" t="n">
-        <v>114.5683260468565</v>
+        <v>114.5683260468564</v>
       </c>
       <c r="I24" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J24" t="n">
         <v>189.2383039390118</v>
@@ -6074,7 +6074,7 @@
         <v>427.5025029193589</v>
       </c>
       <c r="L24" t="n">
-        <v>794.2006632320243</v>
+        <v>794.2006632320242</v>
       </c>
       <c r="M24" t="n">
         <v>1241.47698845434</v>
@@ -6086,16 +6086,16 @@
         <v>2125.96131142685</v>
       </c>
       <c r="P24" t="n">
-        <v>2436.460902902952</v>
+        <v>2436.460902902953</v>
       </c>
       <c r="Q24" t="n">
         <v>2594.102460549552</v>
       </c>
       <c r="R24" t="n">
-        <v>2593.958107142067</v>
+        <v>2593.958107142068</v>
       </c>
       <c r="S24" t="n">
-        <v>2464.520220635547</v>
+        <v>2464.520220635548</v>
       </c>
       <c r="T24" t="n">
         <v>2271.877220313403</v>
@@ -6123,28 +6123,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>540.4807149410336</v>
+        <v>963.4596778203087</v>
       </c>
       <c r="C25" t="n">
-        <v>540.4807149410336</v>
+        <v>794.5234948924018</v>
       </c>
       <c r="D25" t="n">
-        <v>390.3640755286979</v>
+        <v>644.406855480066</v>
       </c>
       <c r="E25" t="n">
-        <v>242.4509819463048</v>
+        <v>496.4937618976729</v>
       </c>
       <c r="F25" t="n">
-        <v>95.56103444839442</v>
+        <v>349.6038143997625</v>
       </c>
       <c r="G25" t="n">
-        <v>95.56103444839442</v>
+        <v>241.7782212305366</v>
       </c>
       <c r="H25" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="I25" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J25" t="n">
         <v>140.68366689533</v>
@@ -6180,19 +6180,19 @@
         <v>1956.343466104704</v>
       </c>
       <c r="U25" t="n">
-        <v>1715.012968055669</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="V25" t="n">
-        <v>1460.328479849782</v>
+        <v>1701.658977898817</v>
       </c>
       <c r="W25" t="n">
-        <v>1170.911309812821</v>
+        <v>1412.241807861856</v>
       </c>
       <c r="X25" t="n">
-        <v>942.9217589148035</v>
+        <v>1184.252256963839</v>
       </c>
       <c r="Y25" t="n">
-        <v>722.1291797712734</v>
+        <v>963.4596778203087</v>
       </c>
     </row>
     <row r="26">
@@ -6202,76 +6202,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2374.216356690176</v>
+        <v>2374.216356690175</v>
       </c>
       <c r="C26" t="n">
-        <v>2005.253839749765</v>
+        <v>2005.253839749763</v>
       </c>
       <c r="D26" t="n">
-        <v>1646.988141143014</v>
+        <v>1646.988141143013</v>
       </c>
       <c r="E26" t="n">
-        <v>1261.19988854477</v>
+        <v>1261.199888544769</v>
       </c>
       <c r="F26" t="n">
-        <v>850.2139837551624</v>
+        <v>850.2139837551617</v>
       </c>
       <c r="G26" t="n">
-        <v>435.1415336001589</v>
+        <v>435.1415336001583</v>
       </c>
       <c r="H26" t="n">
-        <v>137.5579332089261</v>
+        <v>137.5579332089255</v>
       </c>
       <c r="I26" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J26" t="n">
-        <v>451.8458144277729</v>
+        <v>284.4401654074198</v>
       </c>
       <c r="K26" t="n">
-        <v>1106.569146563073</v>
+        <v>618.2595390972663</v>
       </c>
       <c r="L26" t="n">
-        <v>1557.603359811481</v>
+        <v>1482.778354750621</v>
       </c>
       <c r="M26" t="n">
-        <v>2091.135264483406</v>
+        <v>2461.32865758045</v>
       </c>
       <c r="N26" t="n">
-        <v>2637.914081542188</v>
+        <v>3441.080929807096</v>
       </c>
       <c r="O26" t="n">
-        <v>3482.142110232732</v>
+        <v>4075.973927750058</v>
       </c>
       <c r="P26" t="n">
-        <v>4195.497197679678</v>
+        <v>4470.748294107236</v>
       </c>
       <c r="Q26" t="n">
-        <v>4653.975400188666</v>
+        <v>4719.034655862918</v>
       </c>
       <c r="R26" t="n">
-        <v>4778.051722419721</v>
+        <v>4778.05172241972</v>
       </c>
       <c r="S26" t="n">
-        <v>4667.761053946816</v>
+        <v>4667.761053946815</v>
       </c>
       <c r="T26" t="n">
-        <v>4461.783306331038</v>
+        <v>4461.783306331037</v>
       </c>
       <c r="U26" t="n">
-        <v>4208.252829604875</v>
+        <v>4208.252829604873</v>
       </c>
       <c r="V26" t="n">
-        <v>3877.189942261304</v>
+        <v>3877.189942261302</v>
       </c>
       <c r="W26" t="n">
-        <v>3524.42128699119</v>
+        <v>3524.421286991188</v>
       </c>
       <c r="X26" t="n">
-        <v>3150.95552873011</v>
+        <v>3150.955528730108</v>
       </c>
       <c r="Y26" t="n">
-        <v>2760.816196754298</v>
+        <v>2760.816196754296</v>
       </c>
     </row>
     <row r="27">
@@ -6281,76 +6281,76 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>3154.542034367489</v>
+        <v>970.5927724973195</v>
       </c>
       <c r="C27" t="n">
-        <v>2980.089005086362</v>
+        <v>796.1397432161925</v>
       </c>
       <c r="D27" t="n">
-        <v>2831.154595425111</v>
+        <v>647.2053335549413</v>
       </c>
       <c r="E27" t="n">
-        <v>2671.917140419655</v>
+        <v>487.9678785494858</v>
       </c>
       <c r="F27" t="n">
-        <v>2525.38258244654</v>
+        <v>341.4333205763708</v>
       </c>
       <c r="G27" t="n">
-        <v>2389.019482279158</v>
+        <v>205.0702204089889</v>
       </c>
       <c r="H27" t="n">
-        <v>2298.517587917025</v>
+        <v>114.5683260468564</v>
       </c>
       <c r="I27" t="n">
-        <v>2279.510296318563</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J27" t="n">
-        <v>2373.18756580918</v>
+        <v>189.2383039390118</v>
       </c>
       <c r="K27" t="n">
-        <v>2611.451764789528</v>
+        <v>427.5025029193589</v>
       </c>
       <c r="L27" t="n">
-        <v>2978.149925102193</v>
+        <v>794.2006632320242</v>
       </c>
       <c r="M27" t="n">
-        <v>3425.426250324509</v>
+        <v>1241.47698845434</v>
       </c>
       <c r="N27" t="n">
-        <v>3898.949293878964</v>
+        <v>1715.000032008795</v>
       </c>
       <c r="O27" t="n">
-        <v>4309.910573297018</v>
+        <v>2125.96131142685</v>
       </c>
       <c r="P27" t="n">
-        <v>4620.410164773121</v>
+        <v>2436.460902902953</v>
       </c>
       <c r="Q27" t="n">
-        <v>4778.051722419721</v>
+        <v>2594.102460549552</v>
       </c>
       <c r="R27" t="n">
-        <v>4777.907369012237</v>
+        <v>2593.958107142068</v>
       </c>
       <c r="S27" t="n">
-        <v>4648.469482505717</v>
+        <v>2464.520220635548</v>
       </c>
       <c r="T27" t="n">
-        <v>4455.826482183572</v>
+        <v>2271.877220313403</v>
       </c>
       <c r="U27" t="n">
-        <v>4227.758635317988</v>
+        <v>2043.809373447818</v>
       </c>
       <c r="V27" t="n">
-        <v>3992.606527086245</v>
+        <v>1808.657265216076</v>
       </c>
       <c r="W27" t="n">
-        <v>3738.369170358043</v>
+        <v>1554.419908487874</v>
       </c>
       <c r="X27" t="n">
-        <v>3530.517670152511</v>
+        <v>1346.568408282341</v>
       </c>
       <c r="Y27" t="n">
-        <v>3322.757371387557</v>
+        <v>1138.808109517387</v>
       </c>
     </row>
     <row r="28">
@@ -6360,28 +6360,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>1120.662598458018</v>
+        <v>806.7425750505952</v>
       </c>
       <c r="C28" t="n">
-        <v>951.7264155301116</v>
+        <v>637.8063921226883</v>
       </c>
       <c r="D28" t="n">
-        <v>801.6097761177758</v>
+        <v>487.6897527103525</v>
       </c>
       <c r="E28" t="n">
-        <v>653.6966825353827</v>
+        <v>339.7766591279594</v>
       </c>
       <c r="F28" t="n">
-        <v>506.8067350374723</v>
+        <v>192.886711630049</v>
       </c>
       <c r="G28" t="n">
-        <v>339.1038984121913</v>
+        <v>192.886711630049</v>
       </c>
       <c r="H28" t="n">
-        <v>192.8867116300491</v>
+        <v>192.886711630049</v>
       </c>
       <c r="I28" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J28" t="n">
         <v>140.68366689533</v>
@@ -6408,28 +6408,28 @@
         <v>1956.343466104704</v>
       </c>
       <c r="R28" t="n">
-        <v>1956.343466104704</v>
+        <v>1866.513008862232</v>
       </c>
       <c r="S28" t="n">
-        <v>1956.343466104704</v>
+        <v>1674.827124689058</v>
       </c>
       <c r="T28" t="n">
-        <v>1956.343466104704</v>
+        <v>1453.060509258584</v>
       </c>
       <c r="U28" t="n">
-        <v>1956.343466104704</v>
+        <v>1163.957642384228</v>
       </c>
       <c r="V28" t="n">
-        <v>1956.343466104704</v>
+        <v>1163.957642384228</v>
       </c>
       <c r="W28" t="n">
-        <v>1751.093193329805</v>
+        <v>1163.957642384228</v>
       </c>
       <c r="X28" t="n">
-        <v>1523.103642431788</v>
+        <v>988.3910398808349</v>
       </c>
       <c r="Y28" t="n">
-        <v>1302.311063288258</v>
+        <v>988.3910398808349</v>
       </c>
     </row>
     <row r="29">
@@ -6439,76 +6439,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2374.216356690176</v>
+        <v>2374.216356690175</v>
       </c>
       <c r="C29" t="n">
-        <v>2005.253839749765</v>
+        <v>2005.253839749764</v>
       </c>
       <c r="D29" t="n">
-        <v>1646.988141143015</v>
+        <v>1646.988141143014</v>
       </c>
       <c r="E29" t="n">
-        <v>1261.199888544771</v>
+        <v>1261.19988854477</v>
       </c>
       <c r="F29" t="n">
-        <v>850.2139837551626</v>
+        <v>850.213983755162</v>
       </c>
       <c r="G29" t="n">
-        <v>435.1415336001586</v>
+        <v>435.1415336001585</v>
       </c>
       <c r="H29" t="n">
         <v>137.5579332089257</v>
       </c>
       <c r="I29" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J29" t="n">
-        <v>451.8458144277729</v>
+        <v>284.4401654074198</v>
       </c>
       <c r="K29" t="n">
-        <v>1106.569146563073</v>
+        <v>618.2595390972663</v>
       </c>
       <c r="L29" t="n">
-        <v>1898.858917622688</v>
+        <v>1237.706702364128</v>
       </c>
       <c r="M29" t="n">
-        <v>2432.390822294613</v>
+        <v>2216.257005193956</v>
       </c>
       <c r="N29" t="n">
-        <v>2979.169639353395</v>
+        <v>3196.009277420603</v>
       </c>
       <c r="O29" t="n">
-        <v>3482.142110232732</v>
+        <v>4075.973927750058</v>
       </c>
       <c r="P29" t="n">
-        <v>4195.497197679678</v>
+        <v>4470.748294107236</v>
       </c>
       <c r="Q29" t="n">
-        <v>4653.975400188666</v>
+        <v>4719.034655862918</v>
       </c>
       <c r="R29" t="n">
-        <v>4778.051722419721</v>
+        <v>4778.05172241972</v>
       </c>
       <c r="S29" t="n">
-        <v>4667.761053946816</v>
+        <v>4667.761053946815</v>
       </c>
       <c r="T29" t="n">
-        <v>4461.783306331038</v>
+        <v>4461.783306331037</v>
       </c>
       <c r="U29" t="n">
-        <v>4208.252829604875</v>
+        <v>4208.252829604874</v>
       </c>
       <c r="V29" t="n">
-        <v>3877.189942261304</v>
+        <v>3877.189942261303</v>
       </c>
       <c r="W29" t="n">
-        <v>3524.42128699119</v>
+        <v>3524.421286991189</v>
       </c>
       <c r="X29" t="n">
-        <v>3150.95552873011</v>
+        <v>3150.955528730109</v>
       </c>
       <c r="Y29" t="n">
-        <v>2760.816196754298</v>
+        <v>2760.816196754297</v>
       </c>
     </row>
     <row r="30">
@@ -6518,28 +6518,28 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>970.5927724973197</v>
+        <v>970.5927724973195</v>
       </c>
       <c r="C30" t="n">
-        <v>796.1397432161928</v>
+        <v>796.1397432161925</v>
       </c>
       <c r="D30" t="n">
-        <v>647.2053335549415</v>
+        <v>647.2053335549413</v>
       </c>
       <c r="E30" t="n">
-        <v>487.9678785494859</v>
+        <v>487.9678785494858</v>
       </c>
       <c r="F30" t="n">
-        <v>341.4333205763709</v>
+        <v>341.4333205763708</v>
       </c>
       <c r="G30" t="n">
         <v>205.0702204089889</v>
       </c>
       <c r="H30" t="n">
-        <v>114.5683260468565</v>
+        <v>114.5683260468564</v>
       </c>
       <c r="I30" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J30" t="n">
         <v>189.2383039390118</v>
@@ -6575,7 +6575,7 @@
         <v>2271.877220313403</v>
       </c>
       <c r="U30" t="n">
-        <v>2043.809373447819</v>
+        <v>2043.809373447818</v>
       </c>
       <c r="V30" t="n">
         <v>1808.657265216076</v>
@@ -6584,10 +6584,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X30" t="n">
-        <v>1346.568408282342</v>
+        <v>1346.568408282341</v>
       </c>
       <c r="Y30" t="n">
-        <v>1138.808109517388</v>
+        <v>1138.808109517387</v>
       </c>
     </row>
     <row r="31">
@@ -6597,28 +6597,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>1120.662598458018</v>
+        <v>491.7343098287685</v>
       </c>
       <c r="C31" t="n">
-        <v>951.7264155301116</v>
+        <v>393.5907674431232</v>
       </c>
       <c r="D31" t="n">
-        <v>801.6097761177758</v>
+        <v>243.4741280307875</v>
       </c>
       <c r="E31" t="n">
-        <v>653.6966825353827</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="F31" t="n">
-        <v>506.8067350374723</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="G31" t="n">
-        <v>339.1038984121913</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="H31" t="n">
-        <v>192.8867116300491</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="I31" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J31" t="n">
         <v>140.68366689533</v>
@@ -6651,22 +6651,22 @@
         <v>1956.343466104704</v>
       </c>
       <c r="T31" t="n">
-        <v>1956.343466104704</v>
+        <v>1734.57685067423</v>
       </c>
       <c r="U31" t="n">
-        <v>1956.343466104704</v>
+        <v>1445.473983799873</v>
       </c>
       <c r="V31" t="n">
-        <v>1956.343466104704</v>
+        <v>1190.789495593986</v>
       </c>
       <c r="W31" t="n">
-        <v>1751.093193329805</v>
+        <v>901.3723255570255</v>
       </c>
       <c r="X31" t="n">
-        <v>1523.103642431788</v>
+        <v>673.3827746590082</v>
       </c>
       <c r="Y31" t="n">
-        <v>1302.311063288258</v>
+        <v>673.3827746590082</v>
       </c>
     </row>
     <row r="32">
@@ -6688,43 +6688,43 @@
         <v>1261.199888544769</v>
       </c>
       <c r="F32" t="n">
-        <v>850.2139837551613</v>
+        <v>850.2139837551617</v>
       </c>
       <c r="G32" t="n">
         <v>435.1415336001583</v>
       </c>
       <c r="H32" t="n">
-        <v>137.5579332089257</v>
+        <v>137.5579332089255</v>
       </c>
       <c r="I32" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J32" t="n">
-        <v>451.8458144277729</v>
+        <v>284.4401654074198</v>
       </c>
       <c r="K32" t="n">
-        <v>1106.569146563073</v>
+        <v>618.2595390972663</v>
       </c>
       <c r="L32" t="n">
-        <v>1557.603359811481</v>
+        <v>1482.778354750621</v>
       </c>
       <c r="M32" t="n">
-        <v>2091.135264483406</v>
+        <v>2461.32865758045</v>
       </c>
       <c r="N32" t="n">
-        <v>2979.169639353395</v>
+        <v>3441.080929807096</v>
       </c>
       <c r="O32" t="n">
-        <v>3482.142110232732</v>
+        <v>4075.973927750058</v>
       </c>
       <c r="P32" t="n">
-        <v>4195.497197679678</v>
+        <v>4470.748294107236</v>
       </c>
       <c r="Q32" t="n">
-        <v>4653.975400188666</v>
+        <v>4719.034655862918</v>
       </c>
       <c r="R32" t="n">
-        <v>4778.051722419721</v>
+        <v>4778.05172241972</v>
       </c>
       <c r="S32" t="n">
         <v>4667.761053946815</v>
@@ -6755,28 +6755,28 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>970.5927724973197</v>
+        <v>970.5927724973195</v>
       </c>
       <c r="C33" t="n">
-        <v>796.1397432161928</v>
+        <v>796.1397432161925</v>
       </c>
       <c r="D33" t="n">
-        <v>647.2053335549415</v>
+        <v>647.2053335549413</v>
       </c>
       <c r="E33" t="n">
-        <v>487.9678785494859</v>
+        <v>487.9678785494858</v>
       </c>
       <c r="F33" t="n">
-        <v>341.4333205763709</v>
+        <v>341.4333205763708</v>
       </c>
       <c r="G33" t="n">
         <v>205.0702204089889</v>
       </c>
       <c r="H33" t="n">
-        <v>114.5683260468565</v>
+        <v>114.5683260468564</v>
       </c>
       <c r="I33" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J33" t="n">
         <v>189.2383039390118</v>
@@ -6812,7 +6812,7 @@
         <v>2271.877220313403</v>
       </c>
       <c r="U33" t="n">
-        <v>2043.809373447819</v>
+        <v>2043.809373447818</v>
       </c>
       <c r="V33" t="n">
         <v>1808.657265216076</v>
@@ -6821,10 +6821,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X33" t="n">
-        <v>1346.568408282342</v>
+        <v>1346.568408282341</v>
       </c>
       <c r="Y33" t="n">
-        <v>1138.808109517388</v>
+        <v>1138.808109517387</v>
       </c>
     </row>
     <row r="34">
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>3086.205473691319</v>
+        <v>806.7425750505952</v>
       </c>
       <c r="C34" t="n">
-        <v>2917.269290763412</v>
+        <v>637.8063921226883</v>
       </c>
       <c r="D34" t="n">
-        <v>2917.269290763412</v>
+        <v>487.6897527103525</v>
       </c>
       <c r="E34" t="n">
-        <v>2917.269290763412</v>
+        <v>339.7766591279594</v>
       </c>
       <c r="F34" t="n">
-        <v>2917.269290763412</v>
+        <v>192.886711630049</v>
       </c>
       <c r="G34" t="n">
-        <v>2917.269290763412</v>
+        <v>192.886711630049</v>
       </c>
       <c r="H34" t="n">
-        <v>2917.269290763412</v>
+        <v>192.886711630049</v>
       </c>
       <c r="I34" t="n">
-        <v>2917.269290763412</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J34" t="n">
-        <v>2962.391923210348</v>
+        <v>140.68366689533</v>
       </c>
       <c r="K34" t="n">
-        <v>3166.379106159224</v>
+        <v>344.6708498442064</v>
       </c>
       <c r="L34" t="n">
-        <v>3482.93890460772</v>
+        <v>661.2306482927024</v>
       </c>
       <c r="M34" t="n">
-        <v>3827.095950207269</v>
+        <v>1005.387693892251</v>
       </c>
       <c r="N34" t="n">
-        <v>4168.504326913134</v>
+        <v>1346.796070598116</v>
       </c>
       <c r="O34" t="n">
-        <v>4467.833925833547</v>
+        <v>1646.12566951853</v>
       </c>
       <c r="P34" t="n">
-        <v>4700.441426267206</v>
+        <v>1878.733169952189</v>
       </c>
       <c r="Q34" t="n">
-        <v>4778.051722419721</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="R34" t="n">
-        <v>4688.221265177249</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="S34" t="n">
-        <v>4496.535381004075</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="T34" t="n">
-        <v>4274.768765573601</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="U34" t="n">
-        <v>3985.665898699244</v>
+        <v>1667.240599230347</v>
       </c>
       <c r="V34" t="n">
-        <v>3730.981410493358</v>
+        <v>1505.797760815813</v>
       </c>
       <c r="W34" t="n">
-        <v>3441.564240456397</v>
+        <v>1216.380590778852</v>
       </c>
       <c r="X34" t="n">
-        <v>3213.57468955838</v>
+        <v>988.3910398808349</v>
       </c>
       <c r="Y34" t="n">
-        <v>3086.205473691319</v>
+        <v>988.3910398808349</v>
       </c>
     </row>
     <row r="35">
@@ -6913,76 +6913,76 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2374.216356690175</v>
+        <v>2374.216356690176</v>
       </c>
       <c r="C35" t="n">
-        <v>2005.253839749763</v>
+        <v>2005.253839749765</v>
       </c>
       <c r="D35" t="n">
-        <v>1646.988141143013</v>
+        <v>1646.988141143014</v>
       </c>
       <c r="E35" t="n">
-        <v>1261.199888544769</v>
+        <v>1261.19988854477</v>
       </c>
       <c r="F35" t="n">
-        <v>850.2139837551613</v>
+        <v>850.2139837551624</v>
       </c>
       <c r="G35" t="n">
-        <v>435.1415336001578</v>
+        <v>435.1415336001589</v>
       </c>
       <c r="H35" t="n">
-        <v>137.5579332089257</v>
+        <v>137.5579332089261</v>
       </c>
       <c r="I35" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J35" t="n">
-        <v>284.4401654074198</v>
+        <v>451.8458144277729</v>
       </c>
       <c r="K35" t="n">
-        <v>618.2595390972663</v>
+        <v>785.6651881176194</v>
       </c>
       <c r="L35" t="n">
-        <v>1069.293752345675</v>
+        <v>1521.86673817257</v>
       </c>
       <c r="M35" t="n">
-        <v>2047.844055175504</v>
+        <v>2055.398642844495</v>
       </c>
       <c r="N35" t="n">
-        <v>2979.169639353394</v>
+        <v>2602.177459903277</v>
       </c>
       <c r="O35" t="n">
-        <v>3482.142110232731</v>
+        <v>3482.142110232732</v>
       </c>
       <c r="P35" t="n">
-        <v>4195.497197679677</v>
+        <v>4195.497197679678</v>
       </c>
       <c r="Q35" t="n">
-        <v>4653.975400188665</v>
+        <v>4653.975400188666</v>
       </c>
       <c r="R35" t="n">
-        <v>4778.05172241972</v>
+        <v>4778.051722419721</v>
       </c>
       <c r="S35" t="n">
-        <v>4667.761053946815</v>
+        <v>4667.761053946816</v>
       </c>
       <c r="T35" t="n">
-        <v>4461.783306331037</v>
+        <v>4461.783306331038</v>
       </c>
       <c r="U35" t="n">
-        <v>4208.252829604873</v>
+        <v>4208.252829604875</v>
       </c>
       <c r="V35" t="n">
-        <v>3877.189942261302</v>
+        <v>3877.189942261304</v>
       </c>
       <c r="W35" t="n">
-        <v>3524.421286991188</v>
+        <v>3524.42128699119</v>
       </c>
       <c r="X35" t="n">
-        <v>3150.955528730108</v>
+        <v>3150.95552873011</v>
       </c>
       <c r="Y35" t="n">
-        <v>2760.816196754296</v>
+        <v>2760.816196754298</v>
       </c>
     </row>
     <row r="36">
@@ -6992,64 +6992,64 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>970.5927724973189</v>
+        <v>970.5927724973194</v>
       </c>
       <c r="C36" t="n">
-        <v>796.139743216192</v>
+        <v>796.1397432161924</v>
       </c>
       <c r="D36" t="n">
-        <v>647.2053335549408</v>
+        <v>647.2053335549413</v>
       </c>
       <c r="E36" t="n">
-        <v>487.9678785494852</v>
+        <v>487.9678785494857</v>
       </c>
       <c r="F36" t="n">
-        <v>341.4333205763703</v>
+        <v>341.4333205763708</v>
       </c>
       <c r="G36" t="n">
-        <v>205.0702204089889</v>
+        <v>205.0702204089894</v>
       </c>
       <c r="H36" t="n">
-        <v>114.5683260468564</v>
+        <v>114.5683260468568</v>
       </c>
       <c r="I36" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J36" t="n">
         <v>189.238303939012</v>
       </c>
       <c r="K36" t="n">
-        <v>427.502502919359</v>
+        <v>427.5025029193591</v>
       </c>
       <c r="L36" t="n">
-        <v>794.200663232024</v>
+        <v>794.2006632320245</v>
       </c>
       <c r="M36" t="n">
         <v>1241.47698845434</v>
       </c>
       <c r="N36" t="n">
-        <v>1715.000032008794</v>
+        <v>1715.000032008795</v>
       </c>
       <c r="O36" t="n">
-        <v>2125.961311426849</v>
+        <v>2125.96131142685</v>
       </c>
       <c r="P36" t="n">
-        <v>2436.460902902952</v>
+        <v>2436.460902902953</v>
       </c>
       <c r="Q36" t="n">
         <v>2594.102460549552</v>
       </c>
       <c r="R36" t="n">
-        <v>2593.958107142067</v>
+        <v>2593.958107142068</v>
       </c>
       <c r="S36" t="n">
-        <v>2464.520220635547</v>
+        <v>2464.520220635548</v>
       </c>
       <c r="T36" t="n">
         <v>2271.877220313403</v>
       </c>
       <c r="U36" t="n">
-        <v>2043.809373447818</v>
+        <v>2043.809373447819</v>
       </c>
       <c r="V36" t="n">
         <v>1808.657265216076</v>
@@ -7071,28 +7071,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>709.4168978689405</v>
+        <v>492.7083461157126</v>
       </c>
       <c r="C37" t="n">
-        <v>540.4807149410336</v>
+        <v>323.7721631878057</v>
       </c>
       <c r="D37" t="n">
-        <v>390.3640755286979</v>
+        <v>173.65552377547</v>
       </c>
       <c r="E37" t="n">
-        <v>242.4509819463048</v>
+        <v>173.65552377547</v>
       </c>
       <c r="F37" t="n">
-        <v>95.56103444839441</v>
+        <v>173.65552377547</v>
       </c>
       <c r="G37" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H37" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="I37" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J37" t="n">
         <v>140.68366689533</v>
@@ -7128,19 +7128,19 @@
         <v>1956.343466104704</v>
       </c>
       <c r="U37" t="n">
-        <v>1883.949150983575</v>
+        <v>1667.240599230347</v>
       </c>
       <c r="V37" t="n">
-        <v>1629.264662777688</v>
+        <v>1412.556111024461</v>
       </c>
       <c r="W37" t="n">
-        <v>1339.847492740728</v>
+        <v>1123.1389409875</v>
       </c>
       <c r="X37" t="n">
-        <v>1111.85794184271</v>
+        <v>895.1493900894825</v>
       </c>
       <c r="Y37" t="n">
-        <v>891.0653626991802</v>
+        <v>674.3568109459524</v>
       </c>
     </row>
     <row r="38">
@@ -7150,76 +7150,76 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2374.216356690175</v>
+        <v>2374.216356690176</v>
       </c>
       <c r="C38" t="n">
-        <v>2005.253839749763</v>
+        <v>2005.253839749765</v>
       </c>
       <c r="D38" t="n">
-        <v>1646.988141143013</v>
+        <v>1646.988141143014</v>
       </c>
       <c r="E38" t="n">
-        <v>1261.199888544769</v>
+        <v>1261.19988854477</v>
       </c>
       <c r="F38" t="n">
-        <v>850.2139837551617</v>
+        <v>850.213983755162</v>
       </c>
       <c r="G38" t="n">
-        <v>435.1415336001583</v>
+        <v>435.1415336001585</v>
       </c>
       <c r="H38" t="n">
-        <v>137.5579332089255</v>
+        <v>137.5579332089257</v>
       </c>
       <c r="I38" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J38" t="n">
-        <v>451.8458144277729</v>
+        <v>284.4401654074198</v>
       </c>
       <c r="K38" t="n">
-        <v>1106.569146563073</v>
+        <v>618.2595390972663</v>
       </c>
       <c r="L38" t="n">
-        <v>1557.603359811481</v>
+        <v>1482.778354750621</v>
       </c>
       <c r="M38" t="n">
-        <v>2091.135264483406</v>
+        <v>2461.32865758045</v>
       </c>
       <c r="N38" t="n">
-        <v>2637.914081542188</v>
+        <v>3441.080929807096</v>
       </c>
       <c r="O38" t="n">
-        <v>3482.142110232731</v>
+        <v>3944.053400686433</v>
       </c>
       <c r="P38" t="n">
-        <v>4195.497197679677</v>
+        <v>4338.827767043611</v>
       </c>
       <c r="Q38" t="n">
-        <v>4653.975400188665</v>
+        <v>4653.975400188666</v>
       </c>
       <c r="R38" t="n">
-        <v>4778.05172241972</v>
+        <v>4778.051722419721</v>
       </c>
       <c r="S38" t="n">
-        <v>4667.761053946815</v>
+        <v>4667.761053946816</v>
       </c>
       <c r="T38" t="n">
-        <v>4461.783306331037</v>
+        <v>4461.783306331038</v>
       </c>
       <c r="U38" t="n">
-        <v>4208.252829604873</v>
+        <v>4208.252829604875</v>
       </c>
       <c r="V38" t="n">
-        <v>3877.189942261302</v>
+        <v>3877.189942261304</v>
       </c>
       <c r="W38" t="n">
-        <v>3524.421286991188</v>
+        <v>3524.42128699119</v>
       </c>
       <c r="X38" t="n">
-        <v>3150.955528730108</v>
+        <v>3150.95552873011</v>
       </c>
       <c r="Y38" t="n">
-        <v>2760.816196754296</v>
+        <v>2760.816196754298</v>
       </c>
     </row>
     <row r="39">
@@ -7229,28 +7229,28 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>970.5927724973195</v>
+        <v>970.5927724973197</v>
       </c>
       <c r="C39" t="n">
-        <v>796.1397432161925</v>
+        <v>796.1397432161928</v>
       </c>
       <c r="D39" t="n">
-        <v>647.2053335549413</v>
+        <v>647.2053335549415</v>
       </c>
       <c r="E39" t="n">
-        <v>487.9678785494858</v>
+        <v>487.9678785494859</v>
       </c>
       <c r="F39" t="n">
-        <v>341.4333205763708</v>
+        <v>341.4333205763709</v>
       </c>
       <c r="G39" t="n">
         <v>205.0702204089889</v>
       </c>
       <c r="H39" t="n">
-        <v>114.5683260468564</v>
+        <v>114.5683260468565</v>
       </c>
       <c r="I39" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J39" t="n">
         <v>189.2383039390118</v>
@@ -7286,7 +7286,7 @@
         <v>2271.877220313403</v>
       </c>
       <c r="U39" t="n">
-        <v>2043.809373447818</v>
+        <v>2043.809373447819</v>
       </c>
       <c r="V39" t="n">
         <v>1808.657265216076</v>
@@ -7295,10 +7295,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X39" t="n">
-        <v>1346.568408282341</v>
+        <v>1346.568408282342</v>
       </c>
       <c r="Y39" t="n">
-        <v>1138.808109517387</v>
+        <v>1138.808109517388</v>
       </c>
     </row>
     <row r="40">
@@ -7308,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>3160.812154727208</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="C40" t="n">
-        <v>3160.812154727208</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="D40" t="n">
-        <v>3160.812154727208</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="E40" t="n">
-        <v>3160.812154727208</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="F40" t="n">
-        <v>3160.812154727208</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="G40" t="n">
-        <v>3160.812154727208</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H40" t="n">
-        <v>3014.594967945065</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="I40" t="n">
-        <v>2917.269290763411</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J40" t="n">
-        <v>2962.391923210347</v>
+        <v>140.68366689533</v>
       </c>
       <c r="K40" t="n">
-        <v>3166.379106159223</v>
+        <v>344.6708498442064</v>
       </c>
       <c r="L40" t="n">
-        <v>3482.938904607719</v>
+        <v>661.2306482927024</v>
       </c>
       <c r="M40" t="n">
-        <v>3827.095950207268</v>
+        <v>1005.387693892251</v>
       </c>
       <c r="N40" t="n">
-        <v>4168.504326913133</v>
+        <v>1346.796070598116</v>
       </c>
       <c r="O40" t="n">
-        <v>4467.833925833546</v>
+        <v>1646.12566951853</v>
       </c>
       <c r="P40" t="n">
-        <v>4700.441426267205</v>
+        <v>1878.733169952189</v>
       </c>
       <c r="Q40" t="n">
-        <v>4778.05172241972</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="R40" t="n">
-        <v>4688.221265177248</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="S40" t="n">
-        <v>4496.535381004074</v>
+        <v>1780.96276986786</v>
       </c>
       <c r="T40" t="n">
-        <v>4274.7687655736</v>
+        <v>1559.196154437386</v>
       </c>
       <c r="U40" t="n">
-        <v>3985.665898699243</v>
+        <v>1270.093287563029</v>
       </c>
       <c r="V40" t="n">
-        <v>3730.981410493357</v>
+        <v>1015.408799357142</v>
       </c>
       <c r="W40" t="n">
-        <v>3441.564240456396</v>
+        <v>725.9916293201816</v>
       </c>
       <c r="X40" t="n">
-        <v>3213.574689558379</v>
+        <v>498.0020784221642</v>
       </c>
       <c r="Y40" t="n">
-        <v>3160.812154727208</v>
+        <v>277.2094992786341</v>
       </c>
     </row>
     <row r="41">
@@ -7417,13 +7417,13 @@
         <v>618.2595390972663</v>
       </c>
       <c r="L41" t="n">
-        <v>1237.706702364128</v>
+        <v>1482.778354750621</v>
       </c>
       <c r="M41" t="n">
-        <v>2216.257005193957</v>
+        <v>2461.32865758045</v>
       </c>
       <c r="N41" t="n">
-        <v>3196.009277420604</v>
+        <v>3441.080929807096</v>
       </c>
       <c r="O41" t="n">
         <v>4075.973927750058</v>
@@ -7545,22 +7545,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>1023.336921276364</v>
+        <v>709.4168978689405</v>
       </c>
       <c r="C43" t="n">
-        <v>854.4007383484569</v>
+        <v>540.4807149410336</v>
       </c>
       <c r="D43" t="n">
-        <v>704.2840989361212</v>
+        <v>390.3640755286979</v>
       </c>
       <c r="E43" t="n">
-        <v>556.371005353728</v>
+        <v>242.4509819463048</v>
       </c>
       <c r="F43" t="n">
-        <v>409.4810578558177</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="G43" t="n">
-        <v>241.7782212305366</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H43" t="n">
         <v>95.56103444839442</v>
@@ -7602,19 +7602,19 @@
         <v>1956.343466104704</v>
       </c>
       <c r="U43" t="n">
-        <v>1943.184686185112</v>
+        <v>1667.240599230347</v>
       </c>
       <c r="V43" t="n">
-        <v>1943.184686185112</v>
+        <v>1412.556111024461</v>
       </c>
       <c r="W43" t="n">
-        <v>1653.767516148151</v>
+        <v>1339.847492740728</v>
       </c>
       <c r="X43" t="n">
-        <v>1425.777965250134</v>
+        <v>1111.85794184271</v>
       </c>
       <c r="Y43" t="n">
-        <v>1204.985386106604</v>
+        <v>891.0653626991802</v>
       </c>
     </row>
     <row r="44">
@@ -7627,22 +7627,22 @@
         <v>2374.216356690175</v>
       </c>
       <c r="C44" t="n">
-        <v>2005.253839749764</v>
+        <v>2005.253839749763</v>
       </c>
       <c r="D44" t="n">
-        <v>1646.988141143014</v>
+        <v>1646.988141143013</v>
       </c>
       <c r="E44" t="n">
-        <v>1261.19988854477</v>
+        <v>1261.199888544769</v>
       </c>
       <c r="F44" t="n">
-        <v>850.213983755162</v>
+        <v>850.2139837551617</v>
       </c>
       <c r="G44" t="n">
-        <v>435.1415336001585</v>
+        <v>435.1415336001583</v>
       </c>
       <c r="H44" t="n">
-        <v>137.5579332089257</v>
+        <v>137.5579332089255</v>
       </c>
       <c r="I44" t="n">
         <v>95.56103444839441</v>
@@ -7681,19 +7681,19 @@
         <v>4461.783306331037</v>
       </c>
       <c r="U44" t="n">
-        <v>4208.252829604874</v>
+        <v>4208.252829604873</v>
       </c>
       <c r="V44" t="n">
-        <v>3877.189942261303</v>
+        <v>3877.189942261302</v>
       </c>
       <c r="W44" t="n">
-        <v>3524.421286991189</v>
+        <v>3524.421286991188</v>
       </c>
       <c r="X44" t="n">
-        <v>3150.955528730109</v>
+        <v>3150.955528730108</v>
       </c>
       <c r="Y44" t="n">
-        <v>2760.816196754297</v>
+        <v>2760.816196754296</v>
       </c>
     </row>
     <row r="45">
@@ -7782,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>3773.434671845128</v>
+        <v>492.7083461157126</v>
       </c>
       <c r="C46" t="n">
-        <v>3773.434671845128</v>
+        <v>492.7083461157126</v>
       </c>
       <c r="D46" t="n">
-        <v>3623.318032432792</v>
+        <v>342.5917067033769</v>
       </c>
       <c r="E46" t="n">
-        <v>3475.404938850399</v>
+        <v>342.5917067033769</v>
       </c>
       <c r="F46" t="n">
-        <v>3328.514991352489</v>
+        <v>195.7017592054665</v>
       </c>
       <c r="G46" t="n">
-        <v>3160.812154727208</v>
+        <v>195.7017592054665</v>
       </c>
       <c r="H46" t="n">
-        <v>3014.594967945065</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="I46" t="n">
-        <v>2917.269290763411</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J46" t="n">
-        <v>2962.391923210347</v>
+        <v>140.68366689533</v>
       </c>
       <c r="K46" t="n">
-        <v>3166.379106159223</v>
+        <v>344.6708498442064</v>
       </c>
       <c r="L46" t="n">
-        <v>3482.938904607719</v>
+        <v>661.2306482927024</v>
       </c>
       <c r="M46" t="n">
-        <v>3827.095950207268</v>
+        <v>1005.387693892251</v>
       </c>
       <c r="N46" t="n">
-        <v>4168.504326913133</v>
+        <v>1346.796070598116</v>
       </c>
       <c r="O46" t="n">
-        <v>4467.833925833546</v>
+        <v>1646.12566951853</v>
       </c>
       <c r="P46" t="n">
-        <v>4700.441426267205</v>
+        <v>1878.733169952189</v>
       </c>
       <c r="Q46" t="n">
-        <v>4778.05172241972</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="R46" t="n">
-        <v>4688.221265177248</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="S46" t="n">
-        <v>4496.535381004074</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="T46" t="n">
-        <v>4274.7687655736</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="U46" t="n">
-        <v>3985.665898699243</v>
+        <v>1667.240599230347</v>
       </c>
       <c r="V46" t="n">
-        <v>3773.434671845128</v>
+        <v>1412.556111024461</v>
       </c>
       <c r="W46" t="n">
-        <v>3773.434671845128</v>
+        <v>1123.1389409875</v>
       </c>
       <c r="X46" t="n">
-        <v>3773.434671845128</v>
+        <v>895.1493900894825</v>
       </c>
       <c r="Y46" t="n">
-        <v>3773.434671845128</v>
+        <v>674.3568109459524</v>
       </c>
     </row>
   </sheetData>
@@ -8057,13 +8057,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270192</v>
       </c>
       <c r="K3" t="n">
-        <v>264.4652370125786</v>
+        <v>221.0467526719077</v>
       </c>
       <c r="L3" t="n">
-        <v>251.4045252050814</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M3" t="n">
         <v>465.7050637499999</v>
@@ -8297,7 +8297,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>264.4652370125786</v>
+        <v>145.0294169142014</v>
       </c>
       <c r="L6" t="n">
         <v>370.8403453034592</v>
@@ -8306,7 +8306,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N6" t="n">
-        <v>359.906554245176</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O6" t="n">
         <v>393.8623192767295</v>
@@ -8531,7 +8531,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>50.07369958270189</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K9" t="n">
         <v>264.4652370125786</v>
@@ -8546,13 +8546,13 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O9" t="n">
-        <v>393.8623192767295</v>
+        <v>350.4438349360591</v>
       </c>
       <c r="P9" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>166.658803395178</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8689,31 +8689,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K11" t="n">
-        <v>288.0478149561023</v>
+        <v>0</v>
       </c>
       <c r="L11" t="n">
-        <v>0</v>
+        <v>170.1140909277297</v>
       </c>
       <c r="M11" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N11" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O11" t="n">
         <v>380.8001812627454</v>
       </c>
       <c r="P11" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q11" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -8932,7 +8932,7 @@
         <v>0</v>
       </c>
       <c r="L14" t="n">
-        <v>417.6612145504504</v>
+        <v>170.1140909277297</v>
       </c>
       <c r="M14" t="n">
         <v>449.5135334928325</v>
@@ -8941,7 +8941,7 @@
         <v>437.3469244119842</v>
       </c>
       <c r="O14" t="n">
-        <v>133.2530576400246</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P14" t="n">
         <v>0</v>
@@ -9163,22 +9163,22 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K17" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L17" t="n">
         <v>0</v>
       </c>
       <c r="M17" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N17" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O17" t="n">
-        <v>344.7025836476829</v>
+        <v>0</v>
       </c>
       <c r="P17" t="n">
         <v>321.7987081714826</v>
@@ -9187,7 +9187,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R17" t="n">
-        <v>65.71641987298243</v>
+        <v>16.80057335908688</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9412,10 +9412,10 @@
         <v>449.5135334928325</v>
       </c>
       <c r="N20" t="n">
-        <v>437.3469244119842</v>
+        <v>189.7998007892635</v>
       </c>
       <c r="O20" t="n">
-        <v>133.2530576400255</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P20" t="n">
         <v>0</v>
@@ -9640,19 +9640,19 @@
         <v>0</v>
       </c>
       <c r="K23" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L23" t="n">
         <v>417.6612145504504</v>
       </c>
       <c r="M23" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N23" t="n">
         <v>437.3469244119842</v>
       </c>
       <c r="O23" t="n">
-        <v>133.2530576400255</v>
+        <v>258.6211785616921</v>
       </c>
       <c r="P23" t="n">
         <v>0</v>
@@ -9874,31 +9874,31 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K26" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L26" t="n">
-        <v>0</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M26" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N26" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O26" t="n">
-        <v>344.7025836476838</v>
+        <v>133.2530576400246</v>
       </c>
       <c r="P26" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -10111,31 +10111,31 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K29" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L29" t="n">
-        <v>344.7025836476838</v>
+        <v>170.1140909277297</v>
       </c>
       <c r="M29" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N29" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O29" t="n">
-        <v>0</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P29" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10348,31 +10348,31 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K32" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L32" t="n">
-        <v>0</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M32" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N32" t="n">
-        <v>344.7025836476837</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O32" t="n">
-        <v>0</v>
+        <v>133.2530576400246</v>
       </c>
       <c r="P32" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10585,22 +10585,22 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K35" t="n">
         <v>0</v>
       </c>
       <c r="L35" t="n">
-        <v>0</v>
+        <v>288.0478149561032</v>
       </c>
       <c r="M35" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N35" t="n">
-        <v>388.431077898089</v>
+        <v>0</v>
       </c>
       <c r="O35" t="n">
-        <v>0</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P35" t="n">
         <v>321.7987081714826</v>
@@ -10822,28 +10822,28 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K38" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L38" t="n">
-        <v>0</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M38" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N38" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O38" t="n">
-        <v>344.7025836476829</v>
+        <v>0</v>
       </c>
       <c r="P38" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>212.3149906599047</v>
+        <v>67.53663776704306</v>
       </c>
       <c r="R38" t="n">
         <v>65.71641987298243</v>
@@ -11065,7 +11065,7 @@
         <v>0</v>
       </c>
       <c r="L41" t="n">
-        <v>170.1140909277306</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M41" t="n">
         <v>449.5135334928325</v>
@@ -11074,7 +11074,7 @@
         <v>437.3469244119842</v>
       </c>
       <c r="O41" t="n">
-        <v>380.8001812627454</v>
+        <v>133.2530576400255</v>
       </c>
       <c r="P41" t="n">
         <v>0</v>
@@ -23415,7 +23415,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
@@ -23433,10 +23433,10 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23469,22 +23469,22 @@
         <v>189.7690253314419</v>
       </c>
       <c r="T13" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>201.6995902368612</v>
       </c>
       <c r="W13" t="n">
-        <v>83.32522828944164</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -23652,7 +23652,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
@@ -23661,7 +23661,7 @@
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
@@ -23670,10 +23670,10 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23703,25 +23703,25 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U16" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>69.34270184147189</v>
+        <v>143.2334843362648</v>
       </c>
     </row>
     <row r="17">
@@ -23889,25 +23889,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>161.6152430191399</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>54.36376856168485</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -23946,16 +23946,16 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U19" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -24135,19 +24135,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>128.1651665445293</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24174,7 +24174,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -24189,13 +24189,13 @@
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>179.9362540566323</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -24363,10 +24363,10 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
@@ -24378,10 +24378,10 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>166.0258082590282</v>
+        <v>59.2784710214946</v>
       </c>
       <c r="H25" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>96.35242040983809</v>
@@ -24420,7 +24420,7 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U25" t="n">
-        <v>47.29464513706804</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -24615,10 +24615,10 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -24648,28 +24648,28 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>83.32522828944164</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>51.8987189106783</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -24840,7 +24840,7 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>70.08471413683907</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
@@ -24849,16 +24849,16 @@
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24891,22 +24891,22 @@
         <v>189.7690253314419</v>
       </c>
       <c r="T31" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>83.32522828944164</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -25074,19 +25074,19 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>166.0258082590282</v>
@@ -25095,7 +25095,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I34" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25122,19 +25122,19 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>92.30923329343892</v>
       </c>
       <c r="W34" t="n">
         <v>0</v>
@@ -25143,7 +25143,7 @@
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>92.48912964370437</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -25320,13 +25320,13 @@
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>166.0258082590282</v>
+        <v>88.71226382522339</v>
       </c>
       <c r="H37" t="n">
         <v>144.7550149143208</v>
@@ -25368,7 +25368,7 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U37" t="n">
-        <v>214.5414662356956</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -25548,7 +25548,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
         <v>167.2468210986278</v>
@@ -25566,10 +25566,10 @@
         <v>166.0258082590282</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25596,10 +25596,10 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>16.14213605696617</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
@@ -25617,7 +25617,7 @@
         <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>166.3497438692353</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -25800,10 +25800,10 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I43" t="n">
         <v>96.35242040983809</v>
@@ -25842,13 +25842,13 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U43" t="n">
-        <v>273.1846460852166</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>214.5414662356955</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
@@ -26022,7 +26022,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
         <v>167.2468210986278</v>
@@ -26031,19 +26031,19 @@
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>45.6156974048194</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26070,28 +26070,28 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>42.02872873825373</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>953968.8932518224</v>
+        <v>953968.8932518226</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>953968.8932518226</v>
+        <v>953968.8932518224</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>953968.8932518226</v>
+        <v>953968.8932518224</v>
       </c>
     </row>
     <row r="12">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>953968.8932518226</v>
+        <v>953968.8932518224</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>953968.8932518226</v>
+        <v>953968.8932518224</v>
       </c>
     </row>
   </sheetData>
@@ -26322,13 +26322,13 @@
         <v>472099.0176719629</v>
       </c>
       <c r="E2" t="n">
+        <v>456644.0549200306</v>
+      </c>
+      <c r="F2" t="n">
         <v>456644.0549200308</v>
       </c>
-      <c r="F2" t="n">
-        <v>456644.0549200309</v>
-      </c>
       <c r="G2" t="n">
-        <v>456644.0549200309</v>
+        <v>456644.0549200308</v>
       </c>
       <c r="H2" t="n">
         <v>456644.0549200308</v>
@@ -26337,10 +26337,10 @@
         <v>456644.0549200308</v>
       </c>
       <c r="J2" t="n">
-        <v>456644.054920031</v>
+        <v>456644.0549200309</v>
       </c>
       <c r="K2" t="n">
-        <v>456644.054920031</v>
+        <v>456644.0549200308</v>
       </c>
       <c r="L2" t="n">
         <v>456644.0549200309</v>
@@ -26349,13 +26349,13 @@
         <v>456644.0549200309</v>
       </c>
       <c r="N2" t="n">
-        <v>456644.0549200309</v>
+        <v>456644.054920031</v>
       </c>
       <c r="O2" t="n">
         <v>456644.0549200308</v>
       </c>
       <c r="P2" t="n">
-        <v>456644.0549200309</v>
+        <v>456644.0549200308</v>
       </c>
     </row>
     <row r="3">
@@ -26374,7 +26374,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>727377.4139934065</v>
+        <v>727377.4139934066</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26398,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>129642.3148389446</v>
+        <v>129642.3148389447</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26420,13 +26420,13 @@
         <v>192206.5963924297</v>
       </c>
       <c r="C4" t="n">
-        <v>192206.5963924297</v>
+        <v>192206.5963924298</v>
       </c>
       <c r="D4" t="n">
         <v>192206.5963924297</v>
       </c>
       <c r="E4" t="n">
-        <v>21619.60799709186</v>
+        <v>21619.60799709187</v>
       </c>
       <c r="F4" t="n">
         <v>21619.60799709187</v>
@@ -26435,10 +26435,10 @@
         <v>21619.60799709186</v>
       </c>
       <c r="H4" t="n">
-        <v>21619.60799709188</v>
+        <v>21619.60799709187</v>
       </c>
       <c r="I4" t="n">
-        <v>21619.60799709188</v>
+        <v>21619.60799709186</v>
       </c>
       <c r="J4" t="n">
         <v>21619.60799709187</v>
@@ -26450,10 +26450,10 @@
         <v>21619.60799709187</v>
       </c>
       <c r="M4" t="n">
-        <v>21619.60799709186</v>
+        <v>21619.60799709187</v>
       </c>
       <c r="N4" t="n">
-        <v>21619.60799709186</v>
+        <v>21619.60799709188</v>
       </c>
       <c r="O4" t="n">
         <v>21619.60799709188</v>
@@ -26475,7 +26475,7 @@
         <v>82859.07806340946</v>
       </c>
       <c r="D5" t="n">
-        <v>82859.07806340948</v>
+        <v>82859.07806340947</v>
       </c>
       <c r="E5" t="n">
         <v>96383.51825371364</v>
@@ -26487,25 +26487,25 @@
         <v>96383.51825371364</v>
       </c>
       <c r="H5" t="n">
+        <v>96383.51825371364</v>
+      </c>
+      <c r="I5" t="n">
+        <v>96383.51825371364</v>
+      </c>
+      <c r="J5" t="n">
+        <v>96383.51825371364</v>
+      </c>
+      <c r="K5" t="n">
+        <v>96383.51825371364</v>
+      </c>
+      <c r="L5" t="n">
+        <v>96383.51825371364</v>
+      </c>
+      <c r="M5" t="n">
         <v>96383.51825371366</v>
       </c>
-      <c r="I5" t="n">
+      <c r="N5" t="n">
         <v>96383.51825371366</v>
-      </c>
-      <c r="J5" t="n">
-        <v>96383.51825371366</v>
-      </c>
-      <c r="K5" t="n">
-        <v>96383.51825371366</v>
-      </c>
-      <c r="L5" t="n">
-        <v>96383.51825371366</v>
-      </c>
-      <c r="M5" t="n">
-        <v>96383.51825371364</v>
-      </c>
-      <c r="N5" t="n">
-        <v>96383.51825371364</v>
       </c>
       <c r="O5" t="n">
         <v>96383.51825371366</v>
@@ -26524,46 +26524,46 @@
         <v>-392934.5359984208</v>
       </c>
       <c r="C6" t="n">
-        <v>197033.3432161238</v>
+        <v>197033.3432161237</v>
       </c>
       <c r="D6" t="n">
         <v>197033.3432161237</v>
       </c>
       <c r="E6" t="n">
-        <v>-388736.4853241812</v>
+        <v>-389408.4402264393</v>
       </c>
       <c r="F6" t="n">
-        <v>338640.9286692254</v>
+        <v>337968.9737669674</v>
       </c>
       <c r="G6" t="n">
-        <v>338640.9286692254</v>
+        <v>337968.9737669674</v>
       </c>
       <c r="H6" t="n">
-        <v>338640.9286692252</v>
+        <v>337968.9737669674</v>
       </c>
       <c r="I6" t="n">
-        <v>338640.9286692252</v>
+        <v>337968.9737669674</v>
       </c>
       <c r="J6" t="n">
-        <v>162217.7094766325</v>
+        <v>161545.7545743746</v>
       </c>
       <c r="K6" t="n">
-        <v>338640.9286692254</v>
+        <v>337968.9737669674</v>
       </c>
       <c r="L6" t="n">
-        <v>338640.9286692254</v>
+        <v>337968.9737669675</v>
       </c>
       <c r="M6" t="n">
-        <v>208998.6138302808</v>
+        <v>208326.6589280226</v>
       </c>
       <c r="N6" t="n">
-        <v>338640.9286692254</v>
+        <v>337968.9737669675</v>
       </c>
       <c r="O6" t="n">
-        <v>338640.9286692252</v>
+        <v>337968.9737669672</v>
       </c>
       <c r="P6" t="n">
-        <v>338640.9286692254</v>
+        <v>337968.9737669674</v>
       </c>
     </row>
   </sheetData>
@@ -26740,10 +26740,10 @@
         <v>377.7436642170867</v>
       </c>
       <c r="C3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="D3" t="n">
-        <v>377.7436642170869</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="E3" t="n">
         <v>1089.776700593298</v>
@@ -26968,7 +26968,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>712.0330363762114</v>
+        <v>712.0330363762116</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>520.2256578503741</v>
+        <v>520.2256578503745</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27381,10 +27381,10 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
@@ -27396,10 +27396,10 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>111.3076844110284</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27426,22 +27426,22 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>10.52067551358143</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
@@ -27539,7 +27539,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>107.5829646831822</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -27548,10 +27548,10 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>156.1708888417951</v>
@@ -27596,7 +27596,7 @@
         <v>286.2818742419777</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
         <v>286.522998336591</v>
@@ -27605,7 +27605,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>98.32758997849506</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -27615,16 +27615,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
@@ -27636,7 +27636,7 @@
         <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
-        <v>133.9409297182296</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27663,28 +27663,28 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S5" t="n">
-        <v>174.4157128089715</v>
+        <v>93.82625177485755</v>
       </c>
       <c r="T5" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27776,7 +27776,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
         <v>148.6154730182124</v>
@@ -27788,13 +27788,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>167.3098022590509</v>
+        <v>11.99007165458445</v>
       </c>
       <c r="H7" t="n">
-        <v>16.81927505825598</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27821,7 +27821,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801578</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>212.1455389500189</v>
@@ -27836,7 +27836,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
@@ -27855,25 +27855,25 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>375.7192007798149</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27900,10 +27900,10 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481165</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S8" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
@@ -27915,13 +27915,13 @@
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>13.92324318243624</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28016,16 +28016,16 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>89.58101666090499</v>
       </c>
       <c r="H10" t="n">
         <v>156.1708888417951</v>
@@ -28034,7 +28034,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
-        <v>45.19995918853697</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28055,19 +28055,19 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S10" t="n">
         <v>212.1455389500189</v>
       </c>
       <c r="T10" t="n">
-        <v>188.9208625700301</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
@@ -28076,10 +28076,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -31284,19 +31284,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K5" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L5" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M5" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N5" t="n">
         <v>270.9617944338304</v>
@@ -31311,13 +31311,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S5" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31357,16 +31357,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I6" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K6" t="n">
         <v>131.2017781649102</v>
@@ -31384,22 +31384,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P6" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q6" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S6" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T6" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31436,16 +31436,16 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I7" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J7" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K7" t="n">
         <v>79.14039391302239</v>
@@ -31460,16 +31460,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P7" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R7" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S7" t="n">
         <v>11.87105908695336</v>
@@ -31518,46 +31518,46 @@
         <v>1.518567494340046</v>
       </c>
       <c r="H8" t="n">
-        <v>15.55202935141001</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I8" t="n">
-        <v>58.5445733255447</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K8" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L8" t="n">
-        <v>239.6413398630671</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M8" t="n">
-        <v>266.6471645405369</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N8" t="n">
-        <v>270.9617944338306</v>
+        <v>270.9617944338304</v>
       </c>
       <c r="O8" t="n">
-        <v>255.8615389119867</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P8" t="n">
-        <v>218.3719038954668</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q8" t="n">
-        <v>163.9882055044138</v>
+        <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633803</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S8" t="n">
-        <v>34.60435677727384</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473557</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U8" t="n">
-        <v>0.1214853995472037</v>
+        <v>0.1214853995472036</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31594,49 +31594,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.8125052400141114</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188919</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I9" t="n">
-        <v>27.97441286890691</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J9" t="n">
-        <v>76.7639270839648</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K9" t="n">
-        <v>131.2017781649103</v>
+        <v>131.2017781649102</v>
       </c>
       <c r="L9" t="n">
-        <v>176.4169820478008</v>
+        <v>176.4169820478007</v>
       </c>
       <c r="M9" t="n">
-        <v>205.8702969983123</v>
+        <v>205.8702969983122</v>
       </c>
       <c r="N9" t="n">
-        <v>211.3190711736702</v>
+        <v>211.31907117367</v>
       </c>
       <c r="O9" t="n">
-        <v>193.3156655923048</v>
+        <v>193.3156655923047</v>
       </c>
       <c r="P9" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q9" t="n">
-        <v>103.7155811639066</v>
+        <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034985</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S9" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T9" t="n">
-        <v>3.274966296372667</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619156</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31673,19 +31673,19 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078614</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644446</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I10" t="n">
-        <v>20.48485313492006</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J10" t="n">
-        <v>48.1592209281358</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K10" t="n">
-        <v>79.14039391302244</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L10" t="n">
         <v>101.2724571246924</v>
@@ -31694,28 +31694,28 @@
         <v>106.777606591725</v>
       </c>
       <c r="N10" t="n">
-        <v>104.2386737666595</v>
+        <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175849</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P10" t="n">
-        <v>82.38527391383805</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678012</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R10" t="n">
-        <v>30.62819939701166</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S10" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T10" t="n">
-        <v>2.910483970197225</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U10" t="n">
-        <v>0.03715511451315612</v>
+        <v>0.0371551145131561</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -33046,7 +33046,7 @@
         <v>447.6103584002927</v>
       </c>
       <c r="Q27" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R27" t="n">
         <v>145.5365940905541</v>
@@ -33283,7 +33283,7 @@
         <v>447.6103584002927</v>
       </c>
       <c r="Q30" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R30" t="n">
         <v>145.5365940905541</v>
@@ -33994,7 +33994,7 @@
         <v>447.6103584002927</v>
       </c>
       <c r="Q39" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R39" t="n">
         <v>145.5365940905541</v>
@@ -34777,13 +34777,13 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>76.01733575770692</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>257.8255762031298</v>
+        <v>214.4070918624589</v>
       </c>
       <c r="L3" t="n">
-        <v>289.2671274730079</v>
+        <v>408.7029475713857</v>
       </c>
       <c r="M3" t="n">
         <v>529.4413268262938</v>
@@ -34935,19 +34935,19 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K5" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L5" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M5" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N5" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O5" t="n">
         <v>406.5635087530452</v>
@@ -35014,10 +35014,10 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>76.01733575770692</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K6" t="n">
-        <v>257.8255762031298</v>
+        <v>138.3897561047526</v>
       </c>
       <c r="L6" t="n">
         <v>408.7029475713857</v>
@@ -35026,13 +35026,13 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
-        <v>439.8839133355128</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O6" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P6" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q6" t="n">
         <v>173.8110948137341</v>
@@ -35172,28 +35172,28 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K8" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L8" t="n">
-        <v>421.5361394435303</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M8" t="n">
-        <v>485.8144648060967</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N8" t="n">
-        <v>478.8956552492238</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O8" t="n">
-        <v>406.5635087530453</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P8" t="n">
-        <v>308.9376163116799</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q8" t="n">
-        <v>153.997506289869</v>
+        <v>153.9975062898689</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35254,25 +35254,25 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>257.8255762031299</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L9" t="n">
-        <v>408.7029475713858</v>
+        <v>408.7029475713857</v>
       </c>
       <c r="M9" t="n">
-        <v>529.4413268262939</v>
+        <v>529.4413268262938</v>
       </c>
       <c r="N9" t="n">
-        <v>559.3197334338904</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O9" t="n">
-        <v>444.5817404245899</v>
+        <v>401.1632560839194</v>
       </c>
       <c r="P9" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q9" t="n">
-        <v>130.3926104730631</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35333,10 +35333,10 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>56.87090208713958</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L10" t="n">
-        <v>128.8624823850086</v>
+        <v>128.8624823850085</v>
       </c>
       <c r="M10" t="n">
         <v>146.3614835535656</v>
@@ -35345,10 +35345,10 @@
         <v>148.370846145888</v>
       </c>
       <c r="O10" t="n">
-        <v>120.8664146557982</v>
+        <v>120.8664146557981</v>
       </c>
       <c r="P10" t="n">
-        <v>79.66383317873154</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35409,31 +35409,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>359.8836161407863</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K11" t="n">
-        <v>625.2391015115028</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L11" t="n">
-        <v>455.5901143923322</v>
+        <v>625.7042053200619</v>
       </c>
       <c r="M11" t="n">
-        <v>538.9211158302268</v>
+        <v>988.4346493230593</v>
       </c>
       <c r="N11" t="n">
-        <v>552.3018354129115</v>
+        <v>989.6487598248956</v>
       </c>
       <c r="O11" t="n">
         <v>888.8531821509645</v>
       </c>
       <c r="P11" t="n">
-        <v>720.5606943908545</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q11" t="n">
-        <v>463.1092954636242</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R11" t="n">
-        <v>125.3296184152072</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35652,7 +35652,7 @@
         <v>337.1912865554005</v>
       </c>
       <c r="L14" t="n">
-        <v>873.2513289427826</v>
+        <v>625.7042053200619</v>
       </c>
       <c r="M14" t="n">
         <v>988.4346493230593</v>
@@ -35661,7 +35661,7 @@
         <v>989.6487598248956</v>
       </c>
       <c r="O14" t="n">
-        <v>641.3060585282437</v>
+        <v>888.8531821509645</v>
       </c>
       <c r="P14" t="n">
         <v>398.7619862193719</v>
@@ -35883,22 +35883,22 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>359.8836161407863</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K17" t="n">
-        <v>661.3366991265652</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L17" t="n">
         <v>455.5901143923322</v>
       </c>
       <c r="M17" t="n">
-        <v>538.9211158302268</v>
+        <v>988.4346493230593</v>
       </c>
       <c r="N17" t="n">
-        <v>552.3018354129115</v>
+        <v>989.6487598248956</v>
       </c>
       <c r="O17" t="n">
-        <v>852.755584535902</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P17" t="n">
         <v>720.5606943908545</v>
@@ -35907,7 +35907,7 @@
         <v>463.1092954636242</v>
       </c>
       <c r="R17" t="n">
-        <v>125.3296184152072</v>
+        <v>76.41377190131166</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -36132,10 +36132,10 @@
         <v>988.4346493230593</v>
       </c>
       <c r="N20" t="n">
-        <v>989.6487598248956</v>
+        <v>742.101636202175</v>
       </c>
       <c r="O20" t="n">
-        <v>641.3060585282446</v>
+        <v>888.8531821509645</v>
       </c>
       <c r="P20" t="n">
         <v>398.7619862193719</v>
@@ -36360,19 +36360,19 @@
         <v>190.7870009687126</v>
       </c>
       <c r="K23" t="n">
-        <v>337.1912865554005</v>
+        <v>661.3366991265652</v>
       </c>
       <c r="L23" t="n">
         <v>873.2513289427826</v>
       </c>
       <c r="M23" t="n">
-        <v>988.4346493230593</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N23" t="n">
         <v>989.6487598248956</v>
       </c>
       <c r="O23" t="n">
-        <v>641.3060585282446</v>
+        <v>766.6741794499112</v>
       </c>
       <c r="P23" t="n">
         <v>398.7619862193719</v>
@@ -36594,31 +36594,31 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>359.8836161407863</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K26" t="n">
-        <v>661.3366991265652</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L26" t="n">
-        <v>455.5901143923322</v>
+        <v>873.2513289427826</v>
       </c>
       <c r="M26" t="n">
-        <v>538.9211158302268</v>
+        <v>988.4346493230593</v>
       </c>
       <c r="N26" t="n">
-        <v>552.3018354129115</v>
+        <v>989.6487598248956</v>
       </c>
       <c r="O26" t="n">
-        <v>852.7555845359029</v>
+        <v>641.3060585282437</v>
       </c>
       <c r="P26" t="n">
-        <v>720.5606943908545</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q26" t="n">
-        <v>463.1092954636242</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R26" t="n">
-        <v>125.3296184152072</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36694,7 +36694,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q27" t="n">
-        <v>159.2338966127272</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36831,31 +36831,31 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>359.8836161407863</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K29" t="n">
-        <v>661.3366991265652</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L29" t="n">
-        <v>800.2926980400159</v>
+        <v>625.7042053200619</v>
       </c>
       <c r="M29" t="n">
-        <v>538.9211158302268</v>
+        <v>988.4346493230593</v>
       </c>
       <c r="N29" t="n">
-        <v>552.3018354129115</v>
+        <v>989.6487598248956</v>
       </c>
       <c r="O29" t="n">
-        <v>508.0530008882191</v>
+        <v>888.8531821509645</v>
       </c>
       <c r="P29" t="n">
-        <v>720.5606943908545</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q29" t="n">
-        <v>463.1092954636242</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R29" t="n">
-        <v>125.3296184152072</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36931,7 +36931,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q30" t="n">
-        <v>159.2338966127272</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37068,31 +37068,31 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>359.8836161407863</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K32" t="n">
-        <v>661.3366991265652</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L32" t="n">
-        <v>455.5901143923322</v>
+        <v>873.2513289427826</v>
       </c>
       <c r="M32" t="n">
-        <v>538.9211158302268</v>
+        <v>988.4346493230593</v>
       </c>
       <c r="N32" t="n">
-        <v>897.0044190605952</v>
+        <v>989.6487598248956</v>
       </c>
       <c r="O32" t="n">
-        <v>508.0530008882191</v>
+        <v>641.3060585282437</v>
       </c>
       <c r="P32" t="n">
-        <v>720.5606943908545</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q32" t="n">
-        <v>463.1092954636242</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R32" t="n">
-        <v>125.3296184152072</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37305,22 +37305,22 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>190.7870009687126</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K35" t="n">
         <v>337.1912865554005</v>
       </c>
       <c r="L35" t="n">
-        <v>455.5901143923322</v>
+        <v>743.6379293484354</v>
       </c>
       <c r="M35" t="n">
-        <v>988.4346493230593</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N35" t="n">
-        <v>940.7329133110005</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O35" t="n">
-        <v>508.0530008882191</v>
+        <v>888.8531821509645</v>
       </c>
       <c r="P35" t="n">
         <v>720.5606943908545</v>
@@ -37542,28 +37542,28 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>359.8836161407863</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K38" t="n">
-        <v>661.3366991265652</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L38" t="n">
-        <v>455.5901143923322</v>
+        <v>873.2513289427826</v>
       </c>
       <c r="M38" t="n">
-        <v>538.9211158302268</v>
+        <v>988.4346493230593</v>
       </c>
       <c r="N38" t="n">
-        <v>552.3018354129115</v>
+        <v>989.6487598248956</v>
       </c>
       <c r="O38" t="n">
-        <v>852.755584535902</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P38" t="n">
-        <v>720.5606943908545</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q38" t="n">
-        <v>463.1092954636242</v>
+        <v>318.3309425707625</v>
       </c>
       <c r="R38" t="n">
         <v>125.3296184152072</v>
@@ -37642,7 +37642,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q39" t="n">
-        <v>159.2338966127272</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37785,7 +37785,7 @@
         <v>337.1912865554005</v>
       </c>
       <c r="L41" t="n">
-        <v>625.7042053200628</v>
+        <v>873.2513289427826</v>
       </c>
       <c r="M41" t="n">
         <v>988.4346493230593</v>
@@ -37794,7 +37794,7 @@
         <v>989.6487598248956</v>
       </c>
       <c r="O41" t="n">
-        <v>888.8531821509645</v>
+        <v>641.3060585282446</v>
       </c>
       <c r="P41" t="n">
         <v>398.7619862193719</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_6_23.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_6_23.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1278566.9916365</v>
+        <v>1281972.48276095</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>6654055.582836235</v>
+        <v>6654055.582836241</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>806345.8827095097</v>
+        <v>806345.8827095089</v>
       </c>
     </row>
     <row r="9">
@@ -667,19 +667,19 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>413.784170020795</v>
+        <v>314.6757550035595</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>40.62363183383287</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -724,7 +724,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -816,28 +816,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>59.66385641544559</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -861,7 +861,7 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -882,7 +882,7 @@
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>18.73742857301194</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -901,19 +901,19 @@
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>413.784170020795</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
         <v>151.9313162448613</v>
@@ -943,10 +943,10 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S5" t="n">
-        <v>80.58946103411398</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
         <v>216.4483203576578</v>
@@ -961,7 +961,7 @@
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>355.0199013375526</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -1068,16 +1068,16 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>155.3197306044665</v>
+        <v>70.03418953492981</v>
       </c>
       <c r="H7" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>45.199959188537</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1098,7 +1098,7 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
         <v>146.6651919801579</v>
@@ -1107,7 +1107,7 @@
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
@@ -1119,7 +1119,7 @@
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -1135,25 +1135,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>31.15684496189657</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
         <v>13.784170020795</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1180,7 +1180,7 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S8" t="n">
         <v>174.4157128089715</v>
@@ -1189,7 +1189,7 @@
         <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
@@ -1198,10 +1198,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>9.283029612712731</v>
       </c>
     </row>
     <row r="9">
@@ -1299,13 +1299,13 @@
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>77.72878559814592</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1341,13 +1341,13 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>22.58276652364342</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -1356,10 +1356,10 @@
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1387,7 +1387,7 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H11" t="n">
-        <v>294.6077643873199</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I11" t="n">
         <v>41.57692977292595</v>
@@ -1432,7 +1432,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174127</v>
       </c>
       <c r="X11" t="n">
         <v>369.731100678469</v>
@@ -1469,7 +1469,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I12" t="n">
-        <v>18.81721868247747</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1496,7 +1496,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098397</v>
       </c>
       <c r="S12" t="n">
         <v>128.1435076414547</v>
@@ -1530,22 +1530,22 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>148.5873298926981</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1575,10 +1575,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T13" t="n">
         <v>219.5489492761692</v>
@@ -1587,7 +1587,7 @@
         <v>286.2118382056129</v>
       </c>
       <c r="V13" t="n">
-        <v>50.43805308696684</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
         <v>286.522998336591</v>
@@ -1657,7 +1657,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>109.187761788176</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T14" t="n">
         <v>203.9179701396201</v>
@@ -1706,7 +1706,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I15" t="n">
-        <v>18.81721868247747</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1764,22 +1764,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>74.75769145492406</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -1815,10 +1815,10 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U16" t="n">
         <v>286.2118382056129</v>
@@ -1833,7 +1833,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>75.35116901583</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -1861,7 +1861,7 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H17" t="n">
-        <v>294.6077643873199</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I17" t="n">
         <v>41.57692977292595</v>
@@ -1943,7 +1943,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I18" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247747</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1970,7 +1970,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S18" t="n">
         <v>128.1435076414547</v>
@@ -2004,7 +2004,7 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
@@ -2016,13 +2016,13 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>90.39124635263593</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>96.35242040983809</v>
+        <v>74.75769145492406</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2055,7 +2055,7 @@
         <v>189.7690253314419</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U19" t="n">
         <v>286.2118382056129</v>
@@ -2067,7 +2067,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
         <v>218.5846533520948</v>
@@ -2143,7 +2143,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174127</v>
       </c>
       <c r="X20" t="n">
         <v>369.731100678469</v>
@@ -2207,7 +2207,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S21" t="n">
         <v>128.1435076414547</v>
@@ -2247,10 +2247,10 @@
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>18.26879610203984</v>
+        <v>74.75769145492406</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
@@ -2286,7 +2286,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S22" t="n">
         <v>189.7690253314419</v>
@@ -2335,10 +2335,10 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H23" t="n">
-        <v>294.6077643873205</v>
+        <v>294.6077643873203</v>
       </c>
       <c r="I23" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292541</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2368,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>109.1877617881758</v>
+        <v>109.1877617881755</v>
       </c>
       <c r="T23" t="n">
         <v>203.9179701396201</v>
@@ -2414,10 +2414,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H24" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851108</v>
       </c>
       <c r="I24" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868248924</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2444,10 +2444,10 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734093657</v>
       </c>
       <c r="S24" t="n">
-        <v>128.1435076414547</v>
+        <v>128.1435076414545</v>
       </c>
       <c r="T24" t="n">
         <v>190.7165703189231</v>
@@ -2475,25 +2475,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>18.26879610204615</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>106.7473372375336</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2526,13 +2526,13 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>189.7690253314418</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
@@ -2654,7 +2654,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I27" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2712,19 +2712,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>163.689844124971</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
@@ -2733,7 +2733,7 @@
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2760,7 +2760,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>189.7690253314419</v>
@@ -2772,16 +2772,16 @@
         <v>286.2118382056129</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>173.8109364783589</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -2812,7 +2812,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I29" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292636</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2891,7 +2891,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I30" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2949,16 +2949,16 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>74.75769145492404</v>
       </c>
       <c r="C31" t="n">
-        <v>97.16210696178877</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
@@ -2997,10 +2997,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T31" t="n">
         <v>219.5489492761692</v>
@@ -3018,7 +3018,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -3128,7 +3128,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I33" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3155,7 +3155,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S33" t="n">
         <v>128.1435076414547</v>
@@ -3186,19 +3186,19 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>74.75769145492404</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
@@ -3207,7 +3207,7 @@
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3234,19 +3234,19 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U34" t="n">
         <v>286.2118382056129</v>
       </c>
       <c r="V34" t="n">
-        <v>159.8284100303891</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
         <v>286.522998336591</v>
@@ -3255,7 +3255,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -3286,7 +3286,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I35" t="n">
-        <v>41.57692977292636</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3365,7 +3365,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I36" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247747</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3423,13 +3423,13 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>163.689844124971</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
@@ -3438,7 +3438,7 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>77.31354443380484</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -3474,10 +3474,10 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U37" t="n">
         <v>286.2118382056129</v>
@@ -3514,7 +3514,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
-        <v>406.8760457417118</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
         <v>410.9217256534534</v>
@@ -3660,7 +3660,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.8319801819373</v>
+        <v>163.689844124971</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
@@ -3711,7 +3711,7 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>173.6268892744757</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T40" t="n">
         <v>219.5489492761692</v>
@@ -3866,7 +3866,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S42" t="n">
         <v>128.1435076414547</v>
@@ -3897,19 +3897,19 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>179.8319801819373</v>
+        <v>163.689844124971</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
@@ -3948,10 +3948,10 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U43" t="n">
         <v>286.2118382056129</v>
@@ -3960,7 +3960,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>71.98153210089556</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
         <v>225.7096553890372</v>
@@ -4134,25 +4134,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>163.689844124971</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>99.13931750950138</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4185,10 +4185,10 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U46" t="n">
         <v>286.2118382056129</v>
@@ -4306,25 +4306,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1309.714918859356</v>
+        <v>936.2491605982757</v>
       </c>
       <c r="C2" t="n">
-        <v>1309.714918859356</v>
+        <v>936.2491605982757</v>
       </c>
       <c r="D2" t="n">
-        <v>1309.714918859356</v>
+        <v>936.2491605982757</v>
       </c>
       <c r="E2" t="n">
-        <v>923.9266662611112</v>
+        <v>936.2491605982757</v>
       </c>
       <c r="F2" t="n">
-        <v>512.9407614715037</v>
+        <v>525.2632558086682</v>
       </c>
       <c r="G2" t="n">
-        <v>94.97695336969059</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H2" t="n">
-        <v>94.97695336969059</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I2" t="n">
         <v>53.94298182036445</v>
@@ -4333,10 +4333,10 @@
         <v>169.7108380533141</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733129</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224077</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
@@ -4372,10 +4372,10 @@
         <v>1309.714918859356</v>
       </c>
       <c r="X2" t="n">
-        <v>1309.714918859356</v>
+        <v>936.2491605982757</v>
       </c>
       <c r="Y2" t="n">
-        <v>1309.714918859356</v>
+        <v>936.2491605982757</v>
       </c>
     </row>
     <row r="3">
@@ -4385,34 +4385,34 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>988.4979752170825</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C3" t="n">
-        <v>814.0449459359555</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D3" t="n">
-        <v>665.1105362747041</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E3" t="n">
-        <v>505.8730812692486</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F3" t="n">
-        <v>359.3385232961338</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H3" t="n">
-        <v>115.9856282673422</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I3" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J3" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K3" t="n">
-        <v>266.2060027641987</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L3" t="n">
         <v>670.8219208598706</v>
@@ -4433,7 +4433,7 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R3" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S3" t="n">
         <v>2488.762748073963</v>
@@ -4448,10 +4448,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W3" t="n">
-        <v>1572.325111207637</v>
+        <v>1572.325111207638</v>
       </c>
       <c r="X3" t="n">
-        <v>1364.473611002104</v>
+        <v>1364.473611002105</v>
       </c>
       <c r="Y3" t="n">
         <v>1156.713312237151</v>
@@ -4464,25 +4464,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>728.1289842064344</v>
+        <v>498.1369047015218</v>
       </c>
       <c r="C4" t="n">
-        <v>667.8624625746712</v>
+        <v>498.1369047015218</v>
       </c>
       <c r="D4" t="n">
-        <v>517.7458231623355</v>
+        <v>348.0202652891861</v>
       </c>
       <c r="E4" t="n">
-        <v>369.8327295799424</v>
+        <v>348.0202652891861</v>
       </c>
       <c r="F4" t="n">
-        <v>222.942782082032</v>
+        <v>348.0202652891861</v>
       </c>
       <c r="G4" t="n">
-        <v>53.94298182036445</v>
+        <v>348.0202652891861</v>
       </c>
       <c r="H4" t="n">
-        <v>53.94298182036445</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="I4" t="n">
         <v>53.94298182036445</v>
@@ -4509,31 +4509,31 @@
         <v>728.1289842064344</v>
       </c>
       <c r="Q4" t="n">
-        <v>728.1289842064344</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="R4" t="n">
-        <v>728.1289842064344</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="S4" t="n">
-        <v>728.1289842064344</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="T4" t="n">
-        <v>728.1289842064344</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="U4" t="n">
-        <v>728.1289842064344</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="V4" t="n">
-        <v>728.1289842064344</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="W4" t="n">
-        <v>728.1289842064344</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="X4" t="n">
-        <v>728.1289842064344</v>
+        <v>679.7853695317615</v>
       </c>
       <c r="Y4" t="n">
-        <v>728.1289842064344</v>
+        <v>679.7853695317615</v>
       </c>
     </row>
     <row r="5">
@@ -4543,22 +4543,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1422.14692331494</v>
+        <v>913.7382812066351</v>
       </c>
       <c r="C5" t="n">
-        <v>1422.14692331494</v>
+        <v>913.7382812066351</v>
       </c>
       <c r="D5" t="n">
-        <v>1422.14692331494</v>
+        <v>555.4725825998845</v>
       </c>
       <c r="E5" t="n">
-        <v>1036.358670716696</v>
+        <v>555.4725825998845</v>
       </c>
       <c r="F5" t="n">
-        <v>625.3727659270879</v>
+        <v>548.527081850681</v>
       </c>
       <c r="G5" t="n">
-        <v>207.4089578252748</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H5" t="n">
         <v>207.4089578252748</v>
@@ -4591,28 +4591,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R5" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S5" t="n">
-        <v>2615.745595024168</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T5" t="n">
-        <v>2397.110927996231</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="U5" t="n">
-        <v>2143.349142634322</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="V5" t="n">
-        <v>1812.286255290752</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="W5" t="n">
-        <v>1812.286255290752</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="X5" t="n">
-        <v>1812.286255290752</v>
+        <v>1303.877613182447</v>
       </c>
       <c r="Y5" t="n">
-        <v>1422.14692331494</v>
+        <v>913.7382812066351</v>
       </c>
     </row>
     <row r="6">
@@ -4646,7 +4646,7 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J6" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K6" t="n">
         <v>266.2060027641994</v>
@@ -4701,28 +4701,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>550.5654064942401</v>
+        <v>124.6845874112026</v>
       </c>
       <c r="C7" t="n">
-        <v>550.5654064942401</v>
+        <v>124.6845874112026</v>
       </c>
       <c r="D7" t="n">
-        <v>550.5654064942401</v>
+        <v>124.6845874112026</v>
       </c>
       <c r="E7" t="n">
-        <v>550.5654064942401</v>
+        <v>124.6845874112026</v>
       </c>
       <c r="F7" t="n">
-        <v>550.5654064942401</v>
+        <v>124.6845874112026</v>
       </c>
       <c r="G7" t="n">
-        <v>393.6767897220517</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H7" t="n">
-        <v>235.9284171545819</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I7" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J7" t="n">
         <v>53.94298182036445</v>
@@ -4746,31 +4746,31 @@
         <v>728.1289842064342</v>
       </c>
       <c r="Q7" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R7" t="n">
-        <v>550.5654064942401</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="S7" t="n">
-        <v>550.5654064942401</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="T7" t="n">
-        <v>550.5654064942401</v>
+        <v>352.67413830922</v>
       </c>
       <c r="U7" t="n">
-        <v>550.5654064942401</v>
+        <v>352.67413830922</v>
       </c>
       <c r="V7" t="n">
-        <v>550.5654064942401</v>
+        <v>352.67413830922</v>
       </c>
       <c r="W7" t="n">
-        <v>550.5654064942401</v>
+        <v>352.67413830922</v>
       </c>
       <c r="X7" t="n">
-        <v>550.5654064942401</v>
+        <v>124.6845874112026</v>
       </c>
       <c r="Y7" t="n">
-        <v>550.5654064942401</v>
+        <v>124.6845874112026</v>
       </c>
     </row>
     <row r="8">
@@ -4780,31 +4780,31 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>468.3004633897576</v>
+        <v>913.7382812066351</v>
       </c>
       <c r="C8" t="n">
-        <v>99.33794644934585</v>
+        <v>913.7382812066351</v>
       </c>
       <c r="D8" t="n">
-        <v>99.33794644934585</v>
+        <v>555.4725825998845</v>
       </c>
       <c r="E8" t="n">
-        <v>99.33794644934585</v>
+        <v>555.4725825998845</v>
       </c>
       <c r="F8" t="n">
-        <v>67.86638588177355</v>
+        <v>548.527081850681</v>
       </c>
       <c r="G8" t="n">
-        <v>53.94298182036446</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H8" t="n">
-        <v>53.94298182036446</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I8" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K8" t="n">
         <v>463.9616490733127</v>
@@ -4822,34 +4822,34 @@
         <v>2238.843319642689</v>
       </c>
       <c r="P8" t="n">
-        <v>2544.691559791253</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q8" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R8" t="n">
-        <v>2697.149091018223</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S8" t="n">
-        <v>2520.971603332393</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T8" t="n">
-        <v>2302.336936304456</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="U8" t="n">
-        <v>2302.336936304456</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="V8" t="n">
-        <v>1971.274048960885</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="W8" t="n">
-        <v>1618.505393690771</v>
+        <v>1309.714918859356</v>
       </c>
       <c r="X8" t="n">
-        <v>1245.039635429691</v>
+        <v>1309.714918859356</v>
       </c>
       <c r="Y8" t="n">
-        <v>854.9003034538794</v>
+        <v>1300.338121270757</v>
       </c>
     </row>
     <row r="9">
@@ -4880,22 +4880,22 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I9" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J9" t="n">
-        <v>53.94298182036446</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K9" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L9" t="n">
-        <v>713.8062203571349</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M9" t="n">
-        <v>1237.953133915166</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N9" t="n">
-        <v>1791.679670014717</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O9" t="n">
         <v>2188.831293537797</v>
@@ -4938,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>279.3468541648868</v>
+        <v>201.8560754027576</v>
       </c>
       <c r="C10" t="n">
-        <v>279.3468541648868</v>
+        <v>201.8560754027576</v>
       </c>
       <c r="D10" t="n">
-        <v>279.3468541648868</v>
+        <v>201.8560754027576</v>
       </c>
       <c r="E10" t="n">
-        <v>279.3468541648868</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F10" t="n">
-        <v>132.4569066669765</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G10" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H10" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I10" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J10" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K10" t="n">
         <v>110.2451748866326</v>
       </c>
       <c r="L10" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M10" t="n">
         <v>382.716901165821</v>
       </c>
       <c r="N10" t="n">
-        <v>529.60403885025</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594902</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q10" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R10" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S10" t="n">
-        <v>728.1289842064343</v>
+        <v>513.8405610245972</v>
       </c>
       <c r="T10" t="n">
-        <v>728.1289842064343</v>
+        <v>491.0296857481896</v>
       </c>
       <c r="U10" t="n">
-        <v>728.1289842064343</v>
+        <v>201.8560754027576</v>
       </c>
       <c r="V10" t="n">
-        <v>728.1289842064343</v>
+        <v>201.8560754027576</v>
       </c>
       <c r="W10" t="n">
-        <v>728.1289842064343</v>
+        <v>201.8560754027576</v>
       </c>
       <c r="X10" t="n">
-        <v>500.139433308417</v>
+        <v>201.8560754027576</v>
       </c>
       <c r="Y10" t="n">
-        <v>279.3468541648868</v>
+        <v>201.8560754027576</v>
       </c>
     </row>
     <row r="11">
@@ -5017,22 +5017,22 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2374.216356690175</v>
+        <v>2374.216356690176</v>
       </c>
       <c r="C11" t="n">
         <v>2005.253839749764</v>
       </c>
       <c r="D11" t="n">
-        <v>1646.988141143013</v>
+        <v>1646.988141143014</v>
       </c>
       <c r="E11" t="n">
         <v>1261.199888544769</v>
       </c>
       <c r="F11" t="n">
-        <v>850.2139837551615</v>
+        <v>850.213983755162</v>
       </c>
       <c r="G11" t="n">
-        <v>435.141533600158</v>
+        <v>435.1415336001585</v>
       </c>
       <c r="H11" t="n">
         <v>137.5579332089257</v>
@@ -5047,13 +5047,13 @@
         <v>618.2595390972663</v>
       </c>
       <c r="L11" t="n">
-        <v>1237.706702364128</v>
+        <v>1482.778354750621</v>
       </c>
       <c r="M11" t="n">
-        <v>2216.257005193956</v>
+        <v>2461.32865758045</v>
       </c>
       <c r="N11" t="n">
-        <v>3196.009277420603</v>
+        <v>3441.080929807096</v>
       </c>
       <c r="O11" t="n">
         <v>4075.973927750058</v>
@@ -5083,10 +5083,10 @@
         <v>3524.421286991189</v>
       </c>
       <c r="X11" t="n">
-        <v>3150.955528730109</v>
+        <v>3150.95552873011</v>
       </c>
       <c r="Y11" t="n">
-        <v>2760.816196754297</v>
+        <v>2760.816196754298</v>
       </c>
     </row>
     <row r="12">
@@ -5096,25 +5096,25 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>970.5927724973196</v>
+        <v>970.5927724973195</v>
       </c>
       <c r="C12" t="n">
-        <v>796.1397432161926</v>
+        <v>796.1397432161925</v>
       </c>
       <c r="D12" t="n">
-        <v>647.2053335549414</v>
+        <v>647.2053335549413</v>
       </c>
       <c r="E12" t="n">
-        <v>487.9678785494859</v>
+        <v>487.9678785494858</v>
       </c>
       <c r="F12" t="n">
-        <v>341.4333205763709</v>
+        <v>341.4333205763708</v>
       </c>
       <c r="G12" t="n">
-        <v>205.070220408989</v>
+        <v>205.0702204089889</v>
       </c>
       <c r="H12" t="n">
-        <v>114.5683260468565</v>
+        <v>114.5683260468564</v>
       </c>
       <c r="I12" t="n">
         <v>95.56103444839441</v>
@@ -5153,7 +5153,7 @@
         <v>2271.877220313403</v>
       </c>
       <c r="U12" t="n">
-        <v>2043.809373447819</v>
+        <v>2043.809373447818</v>
       </c>
       <c r="V12" t="n">
         <v>1808.657265216076</v>
@@ -5162,10 +5162,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X12" t="n">
-        <v>1346.568408282342</v>
+        <v>1346.568408282341</v>
       </c>
       <c r="Y12" t="n">
-        <v>1138.808109517388</v>
+        <v>1138.808109517387</v>
       </c>
     </row>
     <row r="13">
@@ -5175,22 +5175,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>877.1197344942216</v>
+        <v>391.866433243363</v>
       </c>
       <c r="C13" t="n">
-        <v>708.1835515663147</v>
+        <v>391.866433243363</v>
       </c>
       <c r="D13" t="n">
-        <v>558.0669121539789</v>
+        <v>241.7782212305366</v>
       </c>
       <c r="E13" t="n">
-        <v>410.1538185715858</v>
+        <v>241.7782212305366</v>
       </c>
       <c r="F13" t="n">
-        <v>263.2638710736754</v>
+        <v>241.7782212305366</v>
       </c>
       <c r="G13" t="n">
-        <v>95.56103444839441</v>
+        <v>241.7782212305366</v>
       </c>
       <c r="H13" t="n">
         <v>95.56103444839441</v>
@@ -5223,28 +5223,28 @@
         <v>1956.343466104704</v>
       </c>
       <c r="R13" t="n">
-        <v>1956.343466104704</v>
+        <v>1866.513008862232</v>
       </c>
       <c r="S13" t="n">
-        <v>1956.343466104704</v>
+        <v>1674.827124689058</v>
       </c>
       <c r="T13" t="n">
-        <v>1734.57685067423</v>
+        <v>1453.060509258584</v>
       </c>
       <c r="U13" t="n">
-        <v>1445.473983799873</v>
+        <v>1163.957642384228</v>
       </c>
       <c r="V13" t="n">
-        <v>1394.5264554292</v>
+        <v>909.2731541783409</v>
       </c>
       <c r="W13" t="n">
-        <v>1105.109285392239</v>
+        <v>619.8559841413803</v>
       </c>
       <c r="X13" t="n">
-        <v>877.1197344942216</v>
+        <v>391.866433243363</v>
       </c>
       <c r="Y13" t="n">
-        <v>877.1197344942216</v>
+        <v>391.866433243363</v>
       </c>
     </row>
     <row r="14">
@@ -5254,7 +5254,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2374.216356690176</v>
+        <v>2374.216356690175</v>
       </c>
       <c r="C14" t="n">
         <v>2005.253839749764</v>
@@ -5263,13 +5263,13 @@
         <v>1646.988141143014</v>
       </c>
       <c r="E14" t="n">
-        <v>1261.199888544769</v>
+        <v>1261.19988854477</v>
       </c>
       <c r="F14" t="n">
-        <v>850.213983755162</v>
+        <v>850.2139837551618</v>
       </c>
       <c r="G14" t="n">
-        <v>435.1415336001585</v>
+        <v>435.1415336001584</v>
       </c>
       <c r="H14" t="n">
         <v>137.5579332089257</v>
@@ -5278,25 +5278,25 @@
         <v>95.56103444839441</v>
       </c>
       <c r="J14" t="n">
-        <v>284.4401654074198</v>
+        <v>451.8458144277729</v>
       </c>
       <c r="K14" t="n">
-        <v>618.2595390972663</v>
+        <v>1106.569146563073</v>
       </c>
       <c r="L14" t="n">
-        <v>1237.706702364128</v>
+        <v>1971.087962216427</v>
       </c>
       <c r="M14" t="n">
-        <v>2216.257005193956</v>
+        <v>2504.619866888352</v>
       </c>
       <c r="N14" t="n">
-        <v>3196.009277420603</v>
+        <v>3051.398683947134</v>
       </c>
       <c r="O14" t="n">
-        <v>4075.973927750058</v>
+        <v>3931.363334276589</v>
       </c>
       <c r="P14" t="n">
-        <v>4470.748294107236</v>
+        <v>4326.137700633767</v>
       </c>
       <c r="Q14" t="n">
         <v>4719.034655862918</v>
@@ -5314,16 +5314,16 @@
         <v>4208.252829604874</v>
       </c>
       <c r="V14" t="n">
-        <v>3877.189942261304</v>
+        <v>3877.189942261303</v>
       </c>
       <c r="W14" t="n">
         <v>3524.421286991189</v>
       </c>
       <c r="X14" t="n">
-        <v>3150.95552873011</v>
+        <v>3150.955528730109</v>
       </c>
       <c r="Y14" t="n">
-        <v>2760.816196754298</v>
+        <v>2760.816196754297</v>
       </c>
     </row>
     <row r="15">
@@ -5333,22 +5333,22 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>970.5927724973196</v>
+        <v>970.5927724973189</v>
       </c>
       <c r="C15" t="n">
-        <v>796.1397432161926</v>
+        <v>796.139743216192</v>
       </c>
       <c r="D15" t="n">
-        <v>647.2053335549414</v>
+        <v>647.2053335549408</v>
       </c>
       <c r="E15" t="n">
-        <v>487.9678785494859</v>
+        <v>487.9678785494852</v>
       </c>
       <c r="F15" t="n">
-        <v>341.4333205763709</v>
+        <v>341.4333205763703</v>
       </c>
       <c r="G15" t="n">
-        <v>205.070220408989</v>
+        <v>205.0702204089889</v>
       </c>
       <c r="H15" t="n">
         <v>114.5683260468565</v>
@@ -5363,7 +5363,7 @@
         <v>427.5025029193589</v>
       </c>
       <c r="L15" t="n">
-        <v>794.2006632320242</v>
+        <v>794.2006632320243</v>
       </c>
       <c r="M15" t="n">
         <v>1241.47698845434</v>
@@ -5375,22 +5375,22 @@
         <v>2125.96131142685</v>
       </c>
       <c r="P15" t="n">
-        <v>2436.460902902953</v>
+        <v>2436.460902902952</v>
       </c>
       <c r="Q15" t="n">
         <v>2594.102460549552</v>
       </c>
       <c r="R15" t="n">
-        <v>2593.958107142068</v>
+        <v>2593.958107142067</v>
       </c>
       <c r="S15" t="n">
-        <v>2464.520220635548</v>
+        <v>2464.520220635547</v>
       </c>
       <c r="T15" t="n">
         <v>2271.877220313403</v>
       </c>
       <c r="U15" t="n">
-        <v>2043.809373447819</v>
+        <v>2043.809373447818</v>
       </c>
       <c r="V15" t="n">
         <v>1808.657265216076</v>
@@ -5399,10 +5399,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X15" t="n">
-        <v>1346.568408282342</v>
+        <v>1346.568408282341</v>
       </c>
       <c r="Y15" t="n">
-        <v>1138.808109517388</v>
+        <v>1138.808109517387</v>
       </c>
     </row>
     <row r="16">
@@ -5412,19 +5412,19 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>729.2066409118285</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="C16" t="n">
-        <v>560.2704579839216</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="D16" t="n">
-        <v>410.1538185715858</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="E16" t="n">
-        <v>410.1538185715858</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="F16" t="n">
-        <v>263.2638710736754</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="G16" t="n">
         <v>95.56103444839441</v>
@@ -5463,25 +5463,25 @@
         <v>1866.513008862232</v>
       </c>
       <c r="S16" t="n">
-        <v>1866.513008862232</v>
+        <v>1674.827124689058</v>
       </c>
       <c r="T16" t="n">
-        <v>1866.513008862232</v>
+        <v>1453.060509258584</v>
       </c>
       <c r="U16" t="n">
-        <v>1577.410141987875</v>
+        <v>1163.957642384228</v>
       </c>
       <c r="V16" t="n">
-        <v>1322.725653781988</v>
+        <v>909.2731541783409</v>
       </c>
       <c r="W16" t="n">
-        <v>1033.308483745028</v>
+        <v>619.8559841413803</v>
       </c>
       <c r="X16" t="n">
-        <v>805.3189328470103</v>
+        <v>391.866433243363</v>
       </c>
       <c r="Y16" t="n">
-        <v>729.2066409118285</v>
+        <v>171.0738540998329</v>
       </c>
     </row>
     <row r="17">
@@ -5491,22 +5491,22 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2374.216356690175</v>
+        <v>2374.216356690176</v>
       </c>
       <c r="C17" t="n">
         <v>2005.253839749764</v>
       </c>
       <c r="D17" t="n">
-        <v>1646.988141143013</v>
+        <v>1646.988141143014</v>
       </c>
       <c r="E17" t="n">
         <v>1261.199888544769</v>
       </c>
       <c r="F17" t="n">
-        <v>850.2139837551615</v>
+        <v>850.213983755162</v>
       </c>
       <c r="G17" t="n">
-        <v>435.141533600158</v>
+        <v>435.1415336001585</v>
       </c>
       <c r="H17" t="n">
         <v>137.5579332089257</v>
@@ -5515,28 +5515,28 @@
         <v>95.56103444839441</v>
       </c>
       <c r="J17" t="n">
-        <v>284.4401654074198</v>
+        <v>416.3606924710442</v>
       </c>
       <c r="K17" t="n">
-        <v>618.2595390972663</v>
+        <v>750.1800661608906</v>
       </c>
       <c r="L17" t="n">
-        <v>1069.293752345675</v>
+        <v>1614.698881814245</v>
       </c>
       <c r="M17" t="n">
-        <v>2047.844055175504</v>
+        <v>2593.249184644074</v>
       </c>
       <c r="N17" t="n">
-        <v>3027.596327402151</v>
+        <v>3573.001456870721</v>
       </c>
       <c r="O17" t="n">
-        <v>3530.568798281487</v>
+        <v>4075.973927750058</v>
       </c>
       <c r="P17" t="n">
-        <v>4243.923885728434</v>
+        <v>4470.748294107236</v>
       </c>
       <c r="Q17" t="n">
-        <v>4702.402088237422</v>
+        <v>4719.034655862918</v>
       </c>
       <c r="R17" t="n">
         <v>4778.05172241972</v>
@@ -5551,16 +5551,16 @@
         <v>4208.252829604874</v>
       </c>
       <c r="V17" t="n">
-        <v>3877.189942261303</v>
+        <v>3877.189942261304</v>
       </c>
       <c r="W17" t="n">
         <v>3524.421286991189</v>
       </c>
       <c r="X17" t="n">
-        <v>3150.955528730109</v>
+        <v>3150.95552873011</v>
       </c>
       <c r="Y17" t="n">
-        <v>2760.816196754297</v>
+        <v>2760.816196754298</v>
       </c>
     </row>
     <row r="18">
@@ -5570,25 +5570,25 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>970.5927724973195</v>
+        <v>970.5927724973196</v>
       </c>
       <c r="C18" t="n">
-        <v>796.1397432161925</v>
+        <v>796.1397432161926</v>
       </c>
       <c r="D18" t="n">
-        <v>647.2053335549413</v>
+        <v>647.2053335549414</v>
       </c>
       <c r="E18" t="n">
-        <v>487.9678785494858</v>
+        <v>487.9678785494859</v>
       </c>
       <c r="F18" t="n">
-        <v>341.4333205763708</v>
+        <v>341.4333205763709</v>
       </c>
       <c r="G18" t="n">
-        <v>205.0702204089889</v>
+        <v>205.070220408989</v>
       </c>
       <c r="H18" t="n">
-        <v>114.5683260468564</v>
+        <v>114.5683260468565</v>
       </c>
       <c r="I18" t="n">
         <v>95.56103444839441</v>
@@ -5627,7 +5627,7 @@
         <v>2271.877220313403</v>
       </c>
       <c r="U18" t="n">
-        <v>2043.809373447818</v>
+        <v>2043.809373447819</v>
       </c>
       <c r="V18" t="n">
         <v>1808.657265216076</v>
@@ -5636,10 +5636,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X18" t="n">
-        <v>1346.568408282341</v>
+        <v>1346.568408282342</v>
       </c>
       <c r="Y18" t="n">
-        <v>1138.808109517387</v>
+        <v>1138.808109517388</v>
       </c>
     </row>
     <row r="19">
@@ -5649,25 +5649,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>620.8300204283238</v>
+        <v>171.0738540998329</v>
       </c>
       <c r="C19" t="n">
-        <v>451.8938375004169</v>
+        <v>171.0738540998329</v>
       </c>
       <c r="D19" t="n">
-        <v>451.8938375004169</v>
+        <v>171.0738540998329</v>
       </c>
       <c r="E19" t="n">
-        <v>451.8938375004169</v>
+        <v>171.0738540998329</v>
       </c>
       <c r="F19" t="n">
-        <v>451.8938375004169</v>
+        <v>171.0738540998329</v>
       </c>
       <c r="G19" t="n">
-        <v>284.1910008751358</v>
+        <v>171.0738540998329</v>
       </c>
       <c r="H19" t="n">
-        <v>192.886711630049</v>
+        <v>171.0738540998329</v>
       </c>
       <c r="I19" t="n">
         <v>95.56103444839441</v>
@@ -5703,22 +5703,22 @@
         <v>1674.827124689058</v>
       </c>
       <c r="T19" t="n">
-        <v>1674.827124689058</v>
+        <v>1453.060509258584</v>
       </c>
       <c r="U19" t="n">
-        <v>1385.724257814702</v>
+        <v>1163.957642384228</v>
       </c>
       <c r="V19" t="n">
-        <v>1131.039769608815</v>
+        <v>909.2731541783409</v>
       </c>
       <c r="W19" t="n">
-        <v>841.6225995718539</v>
+        <v>619.8559841413803</v>
       </c>
       <c r="X19" t="n">
-        <v>841.6225995718539</v>
+        <v>391.866433243363</v>
       </c>
       <c r="Y19" t="n">
-        <v>620.8300204283238</v>
+        <v>171.0738540998329</v>
       </c>
     </row>
     <row r="20">
@@ -5728,7 +5728,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2374.216356690175</v>
+        <v>2374.216356690176</v>
       </c>
       <c r="C20" t="n">
         <v>2005.253839749764</v>
@@ -5737,13 +5737,13 @@
         <v>1646.988141143014</v>
       </c>
       <c r="E20" t="n">
-        <v>1261.19988854477</v>
+        <v>1261.199888544769</v>
       </c>
       <c r="F20" t="n">
-        <v>850.2139837551618</v>
+        <v>850.213983755162</v>
       </c>
       <c r="G20" t="n">
-        <v>435.1415336001584</v>
+        <v>435.1415336001585</v>
       </c>
       <c r="H20" t="n">
         <v>137.5579332089257</v>
@@ -5752,28 +5752,28 @@
         <v>95.56103444839441</v>
       </c>
       <c r="J20" t="n">
-        <v>284.4401654074198</v>
+        <v>451.8458144277729</v>
       </c>
       <c r="K20" t="n">
-        <v>618.2595390972663</v>
+        <v>1106.569146563073</v>
       </c>
       <c r="L20" t="n">
-        <v>1482.778354750621</v>
+        <v>1557.603359811481</v>
       </c>
       <c r="M20" t="n">
-        <v>2461.32865758045</v>
+        <v>2091.135264483406</v>
       </c>
       <c r="N20" t="n">
-        <v>3196.009277420603</v>
+        <v>2637.914081542188</v>
       </c>
       <c r="O20" t="n">
-        <v>4075.973927750058</v>
+        <v>3517.878731871643</v>
       </c>
       <c r="P20" t="n">
-        <v>4470.748294107236</v>
+        <v>4195.497197679677</v>
       </c>
       <c r="Q20" t="n">
-        <v>4719.034655862918</v>
+        <v>4653.975400188665</v>
       </c>
       <c r="R20" t="n">
         <v>4778.05172241972</v>
@@ -5794,10 +5794,10 @@
         <v>3524.421286991189</v>
       </c>
       <c r="X20" t="n">
-        <v>3150.955528730109</v>
+        <v>3150.95552873011</v>
       </c>
       <c r="Y20" t="n">
-        <v>2760.816196754297</v>
+        <v>2760.816196754298</v>
       </c>
     </row>
     <row r="21">
@@ -5834,10 +5834,10 @@
         <v>189.2383039390118</v>
       </c>
       <c r="K21" t="n">
-        <v>427.5025029193589</v>
+        <v>427.502502919359</v>
       </c>
       <c r="L21" t="n">
-        <v>794.2006632320242</v>
+        <v>794.2006632320243</v>
       </c>
       <c r="M21" t="n">
         <v>1241.47698845434</v>
@@ -5886,16 +5886,16 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>260.9043113423046</v>
+        <v>171.0738540998329</v>
       </c>
       <c r="C22" t="n">
-        <v>260.9043113423046</v>
+        <v>171.0738540998329</v>
       </c>
       <c r="D22" t="n">
-        <v>260.9043113423046</v>
+        <v>171.0738540998329</v>
       </c>
       <c r="E22" t="n">
-        <v>242.4509819463048</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="F22" t="n">
         <v>95.56103444839441</v>
@@ -5934,28 +5934,28 @@
         <v>1956.343466104704</v>
       </c>
       <c r="R22" t="n">
-        <v>1956.343466104704</v>
+        <v>1866.513008862232</v>
       </c>
       <c r="S22" t="n">
-        <v>1764.65758193153</v>
+        <v>1674.827124689058</v>
       </c>
       <c r="T22" t="n">
-        <v>1542.890966501056</v>
+        <v>1453.060509258584</v>
       </c>
       <c r="U22" t="n">
-        <v>1253.788099626699</v>
+        <v>1163.957642384228</v>
       </c>
       <c r="V22" t="n">
-        <v>999.1036114208126</v>
+        <v>909.2731541783409</v>
       </c>
       <c r="W22" t="n">
-        <v>709.6864413838521</v>
+        <v>619.8559841413803</v>
       </c>
       <c r="X22" t="n">
-        <v>481.6968904858347</v>
+        <v>391.866433243363</v>
       </c>
       <c r="Y22" t="n">
-        <v>260.9043113423046</v>
+        <v>171.0738540998329</v>
       </c>
     </row>
     <row r="23">
@@ -5965,7 +5965,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2374.216356690176</v>
+        <v>2374.216356690175</v>
       </c>
       <c r="C23" t="n">
         <v>2005.253839749764</v>
@@ -5974,43 +5974,43 @@
         <v>1646.988141143014</v>
       </c>
       <c r="E23" t="n">
-        <v>1261.199888544769</v>
+        <v>1261.19988854477</v>
       </c>
       <c r="F23" t="n">
-        <v>850.213983755162</v>
+        <v>850.2139837551621</v>
       </c>
       <c r="G23" t="n">
-        <v>435.1415336001585</v>
+        <v>435.1415336001577</v>
       </c>
       <c r="H23" t="n">
-        <v>137.5579332089257</v>
+        <v>137.5579332089252</v>
       </c>
       <c r="I23" t="n">
         <v>95.56103444839441</v>
       </c>
       <c r="J23" t="n">
-        <v>284.4401654074198</v>
+        <v>284.440165407421</v>
       </c>
       <c r="K23" t="n">
-        <v>939.1634975427194</v>
+        <v>939.1634975427223</v>
       </c>
       <c r="L23" t="n">
-        <v>1803.682313196074</v>
+        <v>1803.682313196079</v>
       </c>
       <c r="M23" t="n">
-        <v>2337.214217867999</v>
+        <v>2642.582663047908</v>
       </c>
       <c r="N23" t="n">
-        <v>3316.966490094645</v>
+        <v>3189.361480106693</v>
       </c>
       <c r="O23" t="n">
-        <v>4075.973927750058</v>
+        <v>3692.333950986032</v>
       </c>
       <c r="P23" t="n">
-        <v>4470.748294107236</v>
+        <v>4405.68903843298</v>
       </c>
       <c r="Q23" t="n">
-        <v>4719.034655862918</v>
+        <v>4653.975400188664</v>
       </c>
       <c r="R23" t="n">
         <v>4778.05172241972</v>
@@ -6025,16 +6025,16 @@
         <v>4208.252829604874</v>
       </c>
       <c r="V23" t="n">
-        <v>3877.189942261304</v>
+        <v>3877.189942261303</v>
       </c>
       <c r="W23" t="n">
         <v>3524.421286991189</v>
       </c>
       <c r="X23" t="n">
-        <v>3150.95552873011</v>
+        <v>3150.955528730109</v>
       </c>
       <c r="Y23" t="n">
-        <v>2760.816196754298</v>
+        <v>2760.816196754297</v>
       </c>
     </row>
     <row r="24">
@@ -6044,76 +6044,76 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>970.5927724973195</v>
+        <v>970.5927724973315</v>
       </c>
       <c r="C24" t="n">
-        <v>796.1397432161925</v>
+        <v>796.1397432162045</v>
       </c>
       <c r="D24" t="n">
-        <v>647.2053335549413</v>
+        <v>647.2053335549532</v>
       </c>
       <c r="E24" t="n">
-        <v>487.9678785494858</v>
+        <v>487.9678785494977</v>
       </c>
       <c r="F24" t="n">
-        <v>341.4333205763708</v>
+        <v>341.4333205763827</v>
       </c>
       <c r="G24" t="n">
-        <v>205.0702204089889</v>
+        <v>205.0702204090008</v>
       </c>
       <c r="H24" t="n">
-        <v>114.5683260468564</v>
+        <v>114.5683260468684</v>
       </c>
       <c r="I24" t="n">
         <v>95.56103444839441</v>
       </c>
       <c r="J24" t="n">
-        <v>189.2383039390118</v>
+        <v>189.2383039390124</v>
       </c>
       <c r="K24" t="n">
-        <v>427.5025029193589</v>
+        <v>427.5025029193607</v>
       </c>
       <c r="L24" t="n">
-        <v>794.2006632320242</v>
+        <v>794.2006632320276</v>
       </c>
       <c r="M24" t="n">
-        <v>1241.47698845434</v>
+        <v>1241.476988454345</v>
       </c>
       <c r="N24" t="n">
-        <v>1715.000032008795</v>
+        <v>1715.000032008802</v>
       </c>
       <c r="O24" t="n">
-        <v>2125.96131142685</v>
+        <v>2125.961311426858</v>
       </c>
       <c r="P24" t="n">
-        <v>2436.460902902953</v>
+        <v>2436.460902902963</v>
       </c>
       <c r="Q24" t="n">
-        <v>2594.102460549552</v>
+        <v>2594.102460549563</v>
       </c>
       <c r="R24" t="n">
-        <v>2593.958107142068</v>
+        <v>2593.958107142079</v>
       </c>
       <c r="S24" t="n">
-        <v>2464.520220635548</v>
+        <v>2464.520220635559</v>
       </c>
       <c r="T24" t="n">
-        <v>2271.877220313403</v>
+        <v>2271.877220313415</v>
       </c>
       <c r="U24" t="n">
-        <v>2043.809373447818</v>
+        <v>2043.80937344783</v>
       </c>
       <c r="V24" t="n">
-        <v>1808.657265216076</v>
+        <v>1808.657265216088</v>
       </c>
       <c r="W24" t="n">
-        <v>1554.419908487874</v>
+        <v>1554.419908487886</v>
       </c>
       <c r="X24" t="n">
-        <v>1346.568408282341</v>
+        <v>1346.568408282353</v>
       </c>
       <c r="Y24" t="n">
-        <v>1138.808109517387</v>
+        <v>1138.8081095174</v>
       </c>
     </row>
     <row r="25">
@@ -6123,22 +6123,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>963.4596778203087</v>
+        <v>242.4509819463048</v>
       </c>
       <c r="C25" t="n">
-        <v>794.5234948924018</v>
+        <v>242.4509819463048</v>
       </c>
       <c r="D25" t="n">
-        <v>644.406855480066</v>
+        <v>242.4509819463048</v>
       </c>
       <c r="E25" t="n">
-        <v>496.4937618976729</v>
+        <v>242.4509819463048</v>
       </c>
       <c r="F25" t="n">
-        <v>349.6038143997625</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="G25" t="n">
-        <v>241.7782212305366</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="H25" t="n">
         <v>95.56103444839441</v>
@@ -6147,52 +6147,52 @@
         <v>95.56103444839441</v>
       </c>
       <c r="J25" t="n">
-        <v>140.68366689533</v>
+        <v>140.6836668953304</v>
       </c>
       <c r="K25" t="n">
-        <v>344.6708498442064</v>
+        <v>344.6708498442075</v>
       </c>
       <c r="L25" t="n">
-        <v>661.2306482927024</v>
+        <v>661.2306482927045</v>
       </c>
       <c r="M25" t="n">
-        <v>1005.387693892251</v>
+        <v>1005.387693892254</v>
       </c>
       <c r="N25" t="n">
-        <v>1346.796070598116</v>
+        <v>1346.79607059812</v>
       </c>
       <c r="O25" t="n">
-        <v>1646.12566951853</v>
+        <v>1646.125669518534</v>
       </c>
       <c r="P25" t="n">
-        <v>1878.733169952189</v>
+        <v>1878.733169952194</v>
       </c>
       <c r="Q25" t="n">
-        <v>1956.343466104704</v>
+        <v>1956.34346610471</v>
       </c>
       <c r="R25" t="n">
-        <v>1956.343466104704</v>
+        <v>1956.34346610471</v>
       </c>
       <c r="S25" t="n">
-        <v>1956.343466104704</v>
+        <v>1764.657581931536</v>
       </c>
       <c r="T25" t="n">
-        <v>1956.343466104704</v>
+        <v>1542.890966501062</v>
       </c>
       <c r="U25" t="n">
-        <v>1956.343466104704</v>
+        <v>1253.788099626706</v>
       </c>
       <c r="V25" t="n">
-        <v>1701.658977898817</v>
+        <v>999.103611420819</v>
       </c>
       <c r="W25" t="n">
-        <v>1412.241807861856</v>
+        <v>709.6864413838584</v>
       </c>
       <c r="X25" t="n">
-        <v>1184.252256963839</v>
+        <v>481.6968904858411</v>
       </c>
       <c r="Y25" t="n">
-        <v>963.4596778203087</v>
+        <v>260.904311342311</v>
       </c>
     </row>
     <row r="26">
@@ -6202,76 +6202,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2374.216356690175</v>
+        <v>2374.216356690176</v>
       </c>
       <c r="C26" t="n">
-        <v>2005.253839749763</v>
+        <v>2005.253839749765</v>
       </c>
       <c r="D26" t="n">
-        <v>1646.988141143013</v>
+        <v>1646.988141143015</v>
       </c>
       <c r="E26" t="n">
-        <v>1261.199888544769</v>
+        <v>1261.199888544771</v>
       </c>
       <c r="F26" t="n">
-        <v>850.2139837551617</v>
+        <v>850.2139837551626</v>
       </c>
       <c r="G26" t="n">
-        <v>435.1415336001583</v>
+        <v>435.1415336001592</v>
       </c>
       <c r="H26" t="n">
-        <v>137.5579332089255</v>
+        <v>137.5579332089264</v>
       </c>
       <c r="I26" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J26" t="n">
-        <v>284.4401654074198</v>
+        <v>451.8458144277729</v>
       </c>
       <c r="K26" t="n">
-        <v>618.2595390972663</v>
+        <v>785.6651881176194</v>
       </c>
       <c r="L26" t="n">
-        <v>1482.778354750621</v>
+        <v>1650.184003770974</v>
       </c>
       <c r="M26" t="n">
-        <v>2461.32865758045</v>
+        <v>2183.715908442899</v>
       </c>
       <c r="N26" t="n">
-        <v>3441.080929807096</v>
+        <v>2812.369300656583</v>
       </c>
       <c r="O26" t="n">
-        <v>4075.973927750058</v>
+        <v>3692.333950986038</v>
       </c>
       <c r="P26" t="n">
-        <v>4470.748294107236</v>
+        <v>4405.689038432984</v>
       </c>
       <c r="Q26" t="n">
-        <v>4719.034655862918</v>
+        <v>4653.975400188666</v>
       </c>
       <c r="R26" t="n">
-        <v>4778.05172241972</v>
+        <v>4778.051722419721</v>
       </c>
       <c r="S26" t="n">
-        <v>4667.761053946815</v>
+        <v>4667.761053946816</v>
       </c>
       <c r="T26" t="n">
-        <v>4461.783306331037</v>
+        <v>4461.783306331038</v>
       </c>
       <c r="U26" t="n">
-        <v>4208.252829604873</v>
+        <v>4208.252829604875</v>
       </c>
       <c r="V26" t="n">
-        <v>3877.189942261302</v>
+        <v>3877.189942261304</v>
       </c>
       <c r="W26" t="n">
-        <v>3524.421286991188</v>
+        <v>3524.42128699119</v>
       </c>
       <c r="X26" t="n">
-        <v>3150.955528730108</v>
+        <v>3150.95552873011</v>
       </c>
       <c r="Y26" t="n">
-        <v>2760.816196754296</v>
+        <v>2760.816196754298</v>
       </c>
     </row>
     <row r="27">
@@ -6281,28 +6281,28 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>970.5927724973195</v>
+        <v>970.5927724973196</v>
       </c>
       <c r="C27" t="n">
-        <v>796.1397432161925</v>
+        <v>796.1397432161926</v>
       </c>
       <c r="D27" t="n">
-        <v>647.2053335549413</v>
+        <v>647.2053335549414</v>
       </c>
       <c r="E27" t="n">
-        <v>487.9678785494858</v>
+        <v>487.9678785494859</v>
       </c>
       <c r="F27" t="n">
-        <v>341.4333205763708</v>
+        <v>341.4333205763709</v>
       </c>
       <c r="G27" t="n">
-        <v>205.0702204089889</v>
+        <v>205.070220408989</v>
       </c>
       <c r="H27" t="n">
-        <v>114.5683260468564</v>
+        <v>114.5683260468565</v>
       </c>
       <c r="I27" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J27" t="n">
         <v>189.2383039390118</v>
@@ -6338,7 +6338,7 @@
         <v>2271.877220313403</v>
       </c>
       <c r="U27" t="n">
-        <v>2043.809373447818</v>
+        <v>2043.809373447819</v>
       </c>
       <c r="V27" t="n">
         <v>1808.657265216076</v>
@@ -6347,10 +6347,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X27" t="n">
-        <v>1346.568408282341</v>
+        <v>1346.568408282342</v>
       </c>
       <c r="Y27" t="n">
-        <v>1138.808109517387</v>
+        <v>1138.808109517388</v>
       </c>
     </row>
     <row r="28">
@@ -6360,28 +6360,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>806.7425750505952</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="C28" t="n">
-        <v>637.8063921226883</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="D28" t="n">
-        <v>487.6897527103525</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="E28" t="n">
-        <v>339.7766591279594</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="F28" t="n">
-        <v>192.886711630049</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="G28" t="n">
-        <v>192.886711630049</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H28" t="n">
-        <v>192.886711630049</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="I28" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J28" t="n">
         <v>140.68366689533</v>
@@ -6408,28 +6408,28 @@
         <v>1956.343466104704</v>
       </c>
       <c r="R28" t="n">
-        <v>1866.513008862232</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="S28" t="n">
-        <v>1674.827124689058</v>
+        <v>1764.65758193153</v>
       </c>
       <c r="T28" t="n">
-        <v>1453.060509258584</v>
+        <v>1542.890966501056</v>
       </c>
       <c r="U28" t="n">
-        <v>1163.957642384228</v>
+        <v>1253.788099626699</v>
       </c>
       <c r="V28" t="n">
-        <v>1163.957642384228</v>
+        <v>999.1036114208126</v>
       </c>
       <c r="W28" t="n">
-        <v>1163.957642384228</v>
+        <v>709.6864413838521</v>
       </c>
       <c r="X28" t="n">
-        <v>988.3910398808349</v>
+        <v>481.6968904858347</v>
       </c>
       <c r="Y28" t="n">
-        <v>988.3910398808349</v>
+        <v>260.9043113423046</v>
       </c>
     </row>
     <row r="29">
@@ -6439,10 +6439,10 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2374.216356690175</v>
+        <v>2374.216356690176</v>
       </c>
       <c r="C29" t="n">
-        <v>2005.253839749764</v>
+        <v>2005.253839749765</v>
       </c>
       <c r="D29" t="n">
         <v>1646.988141143014</v>
@@ -6451,64 +6451,64 @@
         <v>1261.19988854477</v>
       </c>
       <c r="F29" t="n">
-        <v>850.213983755162</v>
+        <v>850.2139837551624</v>
       </c>
       <c r="G29" t="n">
-        <v>435.1415336001585</v>
+        <v>435.1415336001589</v>
       </c>
       <c r="H29" t="n">
-        <v>137.5579332089257</v>
+        <v>137.5579332089261</v>
       </c>
       <c r="I29" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J29" t="n">
-        <v>284.4401654074198</v>
+        <v>451.8458144277729</v>
       </c>
       <c r="K29" t="n">
-        <v>618.2595390972663</v>
+        <v>1106.569146563073</v>
       </c>
       <c r="L29" t="n">
-        <v>1237.706702364128</v>
+        <v>1557.603359811481</v>
       </c>
       <c r="M29" t="n">
-        <v>2216.257005193956</v>
+        <v>2317.998088216516</v>
       </c>
       <c r="N29" t="n">
-        <v>3196.009277420603</v>
+        <v>3297.750360443163</v>
       </c>
       <c r="O29" t="n">
-        <v>4075.973927750058</v>
+        <v>3800.7228313225</v>
       </c>
       <c r="P29" t="n">
-        <v>4470.748294107236</v>
+        <v>4195.497197679678</v>
       </c>
       <c r="Q29" t="n">
-        <v>4719.034655862918</v>
+        <v>4653.975400188666</v>
       </c>
       <c r="R29" t="n">
-        <v>4778.05172241972</v>
+        <v>4778.051722419721</v>
       </c>
       <c r="S29" t="n">
-        <v>4667.761053946815</v>
+        <v>4667.761053946816</v>
       </c>
       <c r="T29" t="n">
-        <v>4461.783306331037</v>
+        <v>4461.783306331038</v>
       </c>
       <c r="U29" t="n">
-        <v>4208.252829604874</v>
+        <v>4208.252829604875</v>
       </c>
       <c r="V29" t="n">
-        <v>3877.189942261303</v>
+        <v>3877.189942261304</v>
       </c>
       <c r="W29" t="n">
-        <v>3524.421286991189</v>
+        <v>3524.42128699119</v>
       </c>
       <c r="X29" t="n">
-        <v>3150.955528730109</v>
+        <v>3150.95552873011</v>
       </c>
       <c r="Y29" t="n">
-        <v>2760.816196754297</v>
+        <v>2760.816196754298</v>
       </c>
     </row>
     <row r="30">
@@ -6518,28 +6518,28 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>970.5927724973195</v>
+        <v>970.5927724973196</v>
       </c>
       <c r="C30" t="n">
-        <v>796.1397432161925</v>
+        <v>796.1397432161926</v>
       </c>
       <c r="D30" t="n">
-        <v>647.2053335549413</v>
+        <v>647.2053335549414</v>
       </c>
       <c r="E30" t="n">
-        <v>487.9678785494858</v>
+        <v>487.9678785494859</v>
       </c>
       <c r="F30" t="n">
-        <v>341.4333205763708</v>
+        <v>341.4333205763709</v>
       </c>
       <c r="G30" t="n">
-        <v>205.0702204089889</v>
+        <v>205.070220408989</v>
       </c>
       <c r="H30" t="n">
-        <v>114.5683260468564</v>
+        <v>114.5683260468565</v>
       </c>
       <c r="I30" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J30" t="n">
         <v>189.2383039390118</v>
@@ -6575,7 +6575,7 @@
         <v>2271.877220313403</v>
       </c>
       <c r="U30" t="n">
-        <v>2043.809373447818</v>
+        <v>2043.809373447819</v>
       </c>
       <c r="V30" t="n">
         <v>1808.657265216076</v>
@@ -6584,10 +6584,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X30" t="n">
-        <v>1346.568408282341</v>
+        <v>1346.568408282342</v>
       </c>
       <c r="Y30" t="n">
-        <v>1138.808109517387</v>
+        <v>1138.808109517388</v>
       </c>
     </row>
     <row r="31">
@@ -6597,28 +6597,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>491.7343098287685</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="C31" t="n">
-        <v>393.5907674431232</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="D31" t="n">
-        <v>243.4741280307875</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="E31" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="F31" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="G31" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H31" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="I31" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J31" t="n">
         <v>140.68366689533</v>
@@ -6645,28 +6645,28 @@
         <v>1956.343466104704</v>
       </c>
       <c r="R31" t="n">
-        <v>1956.343466104704</v>
+        <v>1866.513008862232</v>
       </c>
       <c r="S31" t="n">
-        <v>1956.343466104704</v>
+        <v>1674.827124689058</v>
       </c>
       <c r="T31" t="n">
-        <v>1734.57685067423</v>
+        <v>1453.060509258584</v>
       </c>
       <c r="U31" t="n">
-        <v>1445.473983799873</v>
+        <v>1163.957642384228</v>
       </c>
       <c r="V31" t="n">
-        <v>1190.789495593986</v>
+        <v>909.2731541783409</v>
       </c>
       <c r="W31" t="n">
-        <v>901.3723255570255</v>
+        <v>619.8559841413803</v>
       </c>
       <c r="X31" t="n">
-        <v>673.3827746590082</v>
+        <v>391.866433243363</v>
       </c>
       <c r="Y31" t="n">
-        <v>673.3827746590082</v>
+        <v>171.0738540998329</v>
       </c>
     </row>
     <row r="32">
@@ -6676,28 +6676,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2374.216356690175</v>
+        <v>2374.216356690176</v>
       </c>
       <c r="C32" t="n">
-        <v>2005.253839749763</v>
+        <v>2005.253839749765</v>
       </c>
       <c r="D32" t="n">
-        <v>1646.988141143013</v>
+        <v>1646.988141143015</v>
       </c>
       <c r="E32" t="n">
-        <v>1261.199888544769</v>
+        <v>1261.199888544771</v>
       </c>
       <c r="F32" t="n">
-        <v>850.2139837551617</v>
+        <v>850.2139837551626</v>
       </c>
       <c r="G32" t="n">
-        <v>435.1415336001583</v>
+        <v>435.1415336001592</v>
       </c>
       <c r="H32" t="n">
-        <v>137.5579332089255</v>
+        <v>137.5579332089264</v>
       </c>
       <c r="I32" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J32" t="n">
         <v>284.4401654074198</v>
@@ -6706,46 +6706,46 @@
         <v>618.2595390972663</v>
       </c>
       <c r="L32" t="n">
-        <v>1482.778354750621</v>
+        <v>1069.293752345675</v>
       </c>
       <c r="M32" t="n">
-        <v>2461.32865758045</v>
+        <v>1897.67628410419</v>
       </c>
       <c r="N32" t="n">
-        <v>3441.080929807096</v>
+        <v>2877.428556330836</v>
       </c>
       <c r="O32" t="n">
-        <v>4075.973927750058</v>
+        <v>3757.393206660291</v>
       </c>
       <c r="P32" t="n">
-        <v>4470.748294107236</v>
+        <v>4470.748294107237</v>
       </c>
       <c r="Q32" t="n">
-        <v>4719.034655862918</v>
+        <v>4719.034655862919</v>
       </c>
       <c r="R32" t="n">
-        <v>4778.05172241972</v>
+        <v>4778.051722419721</v>
       </c>
       <c r="S32" t="n">
-        <v>4667.761053946815</v>
+        <v>4667.761053946816</v>
       </c>
       <c r="T32" t="n">
-        <v>4461.783306331037</v>
+        <v>4461.783306331038</v>
       </c>
       <c r="U32" t="n">
-        <v>4208.252829604873</v>
+        <v>4208.252829604875</v>
       </c>
       <c r="V32" t="n">
-        <v>3877.189942261302</v>
+        <v>3877.189942261304</v>
       </c>
       <c r="W32" t="n">
-        <v>3524.421286991188</v>
+        <v>3524.42128699119</v>
       </c>
       <c r="X32" t="n">
-        <v>3150.955528730108</v>
+        <v>3150.95552873011</v>
       </c>
       <c r="Y32" t="n">
-        <v>2760.816196754296</v>
+        <v>2760.816196754298</v>
       </c>
     </row>
     <row r="33">
@@ -6755,28 +6755,28 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>970.5927724973195</v>
+        <v>970.5927724973196</v>
       </c>
       <c r="C33" t="n">
-        <v>796.1397432161925</v>
+        <v>796.1397432161926</v>
       </c>
       <c r="D33" t="n">
-        <v>647.2053335549413</v>
+        <v>647.2053335549414</v>
       </c>
       <c r="E33" t="n">
-        <v>487.9678785494858</v>
+        <v>487.9678785494859</v>
       </c>
       <c r="F33" t="n">
-        <v>341.4333205763708</v>
+        <v>341.4333205763709</v>
       </c>
       <c r="G33" t="n">
-        <v>205.0702204089889</v>
+        <v>205.070220408989</v>
       </c>
       <c r="H33" t="n">
-        <v>114.5683260468564</v>
+        <v>114.5683260468565</v>
       </c>
       <c r="I33" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J33" t="n">
         <v>189.2383039390118</v>
@@ -6812,7 +6812,7 @@
         <v>2271.877220313403</v>
       </c>
       <c r="U33" t="n">
-        <v>2043.809373447818</v>
+        <v>2043.809373447819</v>
       </c>
       <c r="V33" t="n">
         <v>1808.657265216076</v>
@@ -6821,10 +6821,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X33" t="n">
-        <v>1346.568408282341</v>
+        <v>1346.568408282342</v>
       </c>
       <c r="Y33" t="n">
-        <v>1138.808109517387</v>
+        <v>1138.808109517388</v>
       </c>
     </row>
     <row r="34">
@@ -6834,28 +6834,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>806.7425750505952</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="C34" t="n">
-        <v>637.8063921226883</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="D34" t="n">
-        <v>487.6897527103525</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="E34" t="n">
-        <v>339.7766591279594</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="F34" t="n">
-        <v>192.886711630049</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="G34" t="n">
-        <v>192.886711630049</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H34" t="n">
-        <v>192.886711630049</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="I34" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J34" t="n">
         <v>140.68366689533</v>
@@ -6882,28 +6882,28 @@
         <v>1956.343466104704</v>
       </c>
       <c r="R34" t="n">
-        <v>1956.343466104704</v>
+        <v>1866.513008862232</v>
       </c>
       <c r="S34" t="n">
-        <v>1956.343466104704</v>
+        <v>1674.827124689058</v>
       </c>
       <c r="T34" t="n">
-        <v>1956.343466104704</v>
+        <v>1453.060509258584</v>
       </c>
       <c r="U34" t="n">
-        <v>1667.240599230347</v>
+        <v>1163.957642384228</v>
       </c>
       <c r="V34" t="n">
-        <v>1505.797760815813</v>
+        <v>909.2731541783409</v>
       </c>
       <c r="W34" t="n">
-        <v>1216.380590778852</v>
+        <v>619.8559841413803</v>
       </c>
       <c r="X34" t="n">
-        <v>988.3910398808349</v>
+        <v>391.866433243363</v>
       </c>
       <c r="Y34" t="n">
-        <v>988.3910398808349</v>
+        <v>171.0738540998329</v>
       </c>
     </row>
     <row r="35">
@@ -6913,10 +6913,10 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2374.216356690176</v>
+        <v>2374.216356690175</v>
       </c>
       <c r="C35" t="n">
-        <v>2005.253839749765</v>
+        <v>2005.253839749764</v>
       </c>
       <c r="D35" t="n">
         <v>1646.988141143014</v>
@@ -6925,64 +6925,64 @@
         <v>1261.19988854477</v>
       </c>
       <c r="F35" t="n">
-        <v>850.2139837551624</v>
+        <v>850.213983755162</v>
       </c>
       <c r="G35" t="n">
-        <v>435.1415336001589</v>
+        <v>435.1415336001585</v>
       </c>
       <c r="H35" t="n">
-        <v>137.5579332089261</v>
+        <v>137.5579332089257</v>
       </c>
       <c r="I35" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J35" t="n">
-        <v>451.8458144277729</v>
+        <v>284.4401654074198</v>
       </c>
       <c r="K35" t="n">
-        <v>785.6651881176194</v>
+        <v>939.1634975427194</v>
       </c>
       <c r="L35" t="n">
-        <v>1521.86673817257</v>
+        <v>1390.197710791128</v>
       </c>
       <c r="M35" t="n">
-        <v>2055.398642844495</v>
+        <v>2368.748013620957</v>
       </c>
       <c r="N35" t="n">
-        <v>2602.177459903277</v>
+        <v>3348.500285847604</v>
       </c>
       <c r="O35" t="n">
-        <v>3482.142110232732</v>
+        <v>4010.914672075804</v>
       </c>
       <c r="P35" t="n">
-        <v>4195.497197679678</v>
+        <v>4405.689038432983</v>
       </c>
       <c r="Q35" t="n">
-        <v>4653.975400188666</v>
+        <v>4653.975400188665</v>
       </c>
       <c r="R35" t="n">
-        <v>4778.051722419721</v>
+        <v>4778.05172241972</v>
       </c>
       <c r="S35" t="n">
-        <v>4667.761053946816</v>
+        <v>4667.761053946815</v>
       </c>
       <c r="T35" t="n">
-        <v>4461.783306331038</v>
+        <v>4461.783306331037</v>
       </c>
       <c r="U35" t="n">
-        <v>4208.252829604875</v>
+        <v>4208.252829604874</v>
       </c>
       <c r="V35" t="n">
-        <v>3877.189942261304</v>
+        <v>3877.189942261303</v>
       </c>
       <c r="W35" t="n">
-        <v>3524.42128699119</v>
+        <v>3524.421286991189</v>
       </c>
       <c r="X35" t="n">
-        <v>3150.95552873011</v>
+        <v>3150.955528730109</v>
       </c>
       <c r="Y35" t="n">
-        <v>2760.816196754298</v>
+        <v>2760.816196754297</v>
       </c>
     </row>
     <row r="36">
@@ -6992,37 +6992,37 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>970.5927724973194</v>
+        <v>970.5927724973196</v>
       </c>
       <c r="C36" t="n">
-        <v>796.1397432161924</v>
+        <v>796.1397432161926</v>
       </c>
       <c r="D36" t="n">
-        <v>647.2053335549413</v>
+        <v>647.2053335549414</v>
       </c>
       <c r="E36" t="n">
-        <v>487.9678785494857</v>
+        <v>487.9678785494859</v>
       </c>
       <c r="F36" t="n">
-        <v>341.4333205763708</v>
+        <v>341.4333205763709</v>
       </c>
       <c r="G36" t="n">
-        <v>205.0702204089894</v>
+        <v>205.070220408989</v>
       </c>
       <c r="H36" t="n">
-        <v>114.5683260468568</v>
+        <v>114.5683260468565</v>
       </c>
       <c r="I36" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J36" t="n">
-        <v>189.238303939012</v>
+        <v>189.2383039390118</v>
       </c>
       <c r="K36" t="n">
-        <v>427.5025029193591</v>
+        <v>427.5025029193589</v>
       </c>
       <c r="L36" t="n">
-        <v>794.2006632320245</v>
+        <v>794.2006632320242</v>
       </c>
       <c r="M36" t="n">
         <v>1241.47698845434</v>
@@ -7058,10 +7058,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X36" t="n">
-        <v>1346.568408282341</v>
+        <v>1346.568408282342</v>
       </c>
       <c r="Y36" t="n">
-        <v>1138.808109517387</v>
+        <v>1138.808109517388</v>
       </c>
     </row>
     <row r="37">
@@ -7071,28 +7071,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>492.7083461157126</v>
+        <v>260.9043113423046</v>
       </c>
       <c r="C37" t="n">
-        <v>323.7721631878057</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="D37" t="n">
-        <v>173.65552377547</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="E37" t="n">
-        <v>173.65552377547</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="F37" t="n">
-        <v>173.65552377547</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="G37" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="H37" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="I37" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J37" t="n">
         <v>140.68366689533</v>
@@ -7122,25 +7122,25 @@
         <v>1956.343466104704</v>
       </c>
       <c r="S37" t="n">
-        <v>1956.343466104704</v>
+        <v>1764.65758193153</v>
       </c>
       <c r="T37" t="n">
-        <v>1956.343466104704</v>
+        <v>1542.890966501056</v>
       </c>
       <c r="U37" t="n">
-        <v>1667.240599230347</v>
+        <v>1253.788099626699</v>
       </c>
       <c r="V37" t="n">
-        <v>1412.556111024461</v>
+        <v>999.1036114208126</v>
       </c>
       <c r="W37" t="n">
-        <v>1123.1389409875</v>
+        <v>709.6864413838521</v>
       </c>
       <c r="X37" t="n">
-        <v>895.1493900894825</v>
+        <v>481.6968904858347</v>
       </c>
       <c r="Y37" t="n">
-        <v>674.3568109459524</v>
+        <v>260.9043113423046</v>
       </c>
     </row>
     <row r="38">
@@ -7156,16 +7156,16 @@
         <v>2005.253839749765</v>
       </c>
       <c r="D38" t="n">
-        <v>1646.988141143014</v>
+        <v>1646.988141143015</v>
       </c>
       <c r="E38" t="n">
-        <v>1261.19988854477</v>
+        <v>1261.199888544771</v>
       </c>
       <c r="F38" t="n">
-        <v>850.213983755162</v>
+        <v>850.2139837551626</v>
       </c>
       <c r="G38" t="n">
-        <v>435.1415336001585</v>
+        <v>435.1415336001592</v>
       </c>
       <c r="H38" t="n">
         <v>137.5579332089257</v>
@@ -7177,25 +7177,25 @@
         <v>284.4401654074198</v>
       </c>
       <c r="K38" t="n">
-        <v>618.2595390972663</v>
+        <v>939.1634975427194</v>
       </c>
       <c r="L38" t="n">
-        <v>1482.778354750621</v>
+        <v>1390.197710791128</v>
       </c>
       <c r="M38" t="n">
-        <v>2461.32865758045</v>
+        <v>2368.748013620957</v>
       </c>
       <c r="N38" t="n">
-        <v>3441.080929807096</v>
+        <v>3196.009277420604</v>
       </c>
       <c r="O38" t="n">
-        <v>3944.053400686433</v>
+        <v>4075.973927750058</v>
       </c>
       <c r="P38" t="n">
-        <v>4338.827767043611</v>
+        <v>4470.748294107237</v>
       </c>
       <c r="Q38" t="n">
-        <v>4653.975400188666</v>
+        <v>4719.034655862919</v>
       </c>
       <c r="R38" t="n">
         <v>4778.051722419721</v>
@@ -7229,43 +7229,43 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>970.5927724973197</v>
+        <v>970.5927724973203</v>
       </c>
       <c r="C39" t="n">
-        <v>796.1397432161928</v>
+        <v>796.1397432161933</v>
       </c>
       <c r="D39" t="n">
-        <v>647.2053335549415</v>
+        <v>647.2053335549422</v>
       </c>
       <c r="E39" t="n">
-        <v>487.9678785494859</v>
+        <v>487.9678785494866</v>
       </c>
       <c r="F39" t="n">
-        <v>341.4333205763709</v>
+        <v>341.4333205763717</v>
       </c>
       <c r="G39" t="n">
-        <v>205.0702204089889</v>
+        <v>205.0702204089899</v>
       </c>
       <c r="H39" t="n">
-        <v>114.5683260468565</v>
+        <v>114.5683260468568</v>
       </c>
       <c r="I39" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J39" t="n">
-        <v>189.2383039390118</v>
+        <v>189.238303939012</v>
       </c>
       <c r="K39" t="n">
-        <v>427.5025029193589</v>
+        <v>427.5025029193594</v>
       </c>
       <c r="L39" t="n">
-        <v>794.2006632320242</v>
+        <v>794.2006632320249</v>
       </c>
       <c r="M39" t="n">
-        <v>1241.47698845434</v>
+        <v>1241.476988454341</v>
       </c>
       <c r="N39" t="n">
-        <v>1715.000032008795</v>
+        <v>1715.000032008796</v>
       </c>
       <c r="O39" t="n">
         <v>2125.96131142685</v>
@@ -7274,7 +7274,7 @@
         <v>2436.460902902953</v>
       </c>
       <c r="Q39" t="n">
-        <v>2594.102460549552</v>
+        <v>2594.102460549553</v>
       </c>
       <c r="R39" t="n">
         <v>2593.958107142068</v>
@@ -7283,16 +7283,16 @@
         <v>2464.520220635548</v>
       </c>
       <c r="T39" t="n">
-        <v>2271.877220313403</v>
+        <v>2271.877220313404</v>
       </c>
       <c r="U39" t="n">
-        <v>2043.809373447819</v>
+        <v>2043.80937344782</v>
       </c>
       <c r="V39" t="n">
-        <v>1808.657265216076</v>
+        <v>1808.657265216077</v>
       </c>
       <c r="W39" t="n">
-        <v>1554.419908487874</v>
+        <v>1554.419908487875</v>
       </c>
       <c r="X39" t="n">
         <v>1346.568408282342</v>
@@ -7359,25 +7359,25 @@
         <v>1956.343466104704</v>
       </c>
       <c r="S40" t="n">
-        <v>1780.96276986786</v>
+        <v>1764.65758193153</v>
       </c>
       <c r="T40" t="n">
-        <v>1559.196154437386</v>
+        <v>1542.890966501056</v>
       </c>
       <c r="U40" t="n">
-        <v>1270.093287563029</v>
+        <v>1253.788099626699</v>
       </c>
       <c r="V40" t="n">
-        <v>1015.408799357142</v>
+        <v>999.1036114208126</v>
       </c>
       <c r="W40" t="n">
-        <v>725.9916293201816</v>
+        <v>709.6864413838521</v>
       </c>
       <c r="X40" t="n">
-        <v>498.0020784221642</v>
+        <v>481.6968904858347</v>
       </c>
       <c r="Y40" t="n">
-        <v>277.2094992786341</v>
+        <v>260.9043113423046</v>
       </c>
     </row>
     <row r="41">
@@ -7387,46 +7387,46 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2374.216356690175</v>
+        <v>2374.216356690176</v>
       </c>
       <c r="C41" t="n">
-        <v>2005.253839749764</v>
+        <v>2005.253839749765</v>
       </c>
       <c r="D41" t="n">
-        <v>1646.988141143014</v>
+        <v>1646.988141143015</v>
       </c>
       <c r="E41" t="n">
-        <v>1261.19988854477</v>
+        <v>1261.199888544771</v>
       </c>
       <c r="F41" t="n">
-        <v>850.213983755162</v>
+        <v>850.2139837551626</v>
       </c>
       <c r="G41" t="n">
-        <v>435.1415336001586</v>
+        <v>435.1415336001592</v>
       </c>
       <c r="H41" t="n">
-        <v>137.5579332089258</v>
+        <v>137.5579332089257</v>
       </c>
       <c r="I41" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J41" t="n">
-        <v>284.4401654074198</v>
+        <v>451.8458144277729</v>
       </c>
       <c r="K41" t="n">
-        <v>618.2595390972663</v>
+        <v>1106.569146563073</v>
       </c>
       <c r="L41" t="n">
-        <v>1482.778354750621</v>
+        <v>1557.603359811481</v>
       </c>
       <c r="M41" t="n">
-        <v>2461.32865758045</v>
+        <v>2091.135264483406</v>
       </c>
       <c r="N41" t="n">
-        <v>3441.080929807096</v>
+        <v>3070.887536710053</v>
       </c>
       <c r="O41" t="n">
-        <v>4075.973927750058</v>
+        <v>3950.852187039507</v>
       </c>
       <c r="P41" t="n">
         <v>4470.748294107237</v>
@@ -7444,19 +7444,19 @@
         <v>4461.783306331038</v>
       </c>
       <c r="U41" t="n">
-        <v>4208.252829604874</v>
+        <v>4208.252829604875</v>
       </c>
       <c r="V41" t="n">
-        <v>3877.189942261303</v>
+        <v>3877.189942261304</v>
       </c>
       <c r="W41" t="n">
-        <v>3524.421286991189</v>
+        <v>3524.42128699119</v>
       </c>
       <c r="X41" t="n">
-        <v>3150.955528730109</v>
+        <v>3150.95552873011</v>
       </c>
       <c r="Y41" t="n">
-        <v>2760.816196754297</v>
+        <v>2760.816196754298</v>
       </c>
     </row>
     <row r="42">
@@ -7493,10 +7493,10 @@
         <v>189.2383039390118</v>
       </c>
       <c r="K42" t="n">
-        <v>427.5025029193589</v>
+        <v>427.502502919359</v>
       </c>
       <c r="L42" t="n">
-        <v>794.2006632320242</v>
+        <v>794.2006632320243</v>
       </c>
       <c r="M42" t="n">
         <v>1241.47698845434</v>
@@ -7545,16 +7545,16 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>709.4168978689405</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="C43" t="n">
-        <v>540.4807149410336</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="D43" t="n">
-        <v>390.3640755286979</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="E43" t="n">
-        <v>242.4509819463048</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="F43" t="n">
         <v>95.56103444839442</v>
@@ -7596,25 +7596,25 @@
         <v>1956.343466104704</v>
       </c>
       <c r="S43" t="n">
-        <v>1956.343466104704</v>
+        <v>1764.65758193153</v>
       </c>
       <c r="T43" t="n">
-        <v>1956.343466104704</v>
+        <v>1542.890966501056</v>
       </c>
       <c r="U43" t="n">
-        <v>1667.240599230347</v>
+        <v>1253.788099626699</v>
       </c>
       <c r="V43" t="n">
-        <v>1412.556111024461</v>
+        <v>999.1036114208126</v>
       </c>
       <c r="W43" t="n">
-        <v>1339.847492740728</v>
+        <v>709.6864413838521</v>
       </c>
       <c r="X43" t="n">
-        <v>1111.85794184271</v>
+        <v>481.6968904858347</v>
       </c>
       <c r="Y43" t="n">
-        <v>891.0653626991802</v>
+        <v>260.9043113423046</v>
       </c>
     </row>
     <row r="44">
@@ -7627,49 +7627,49 @@
         <v>2374.216356690175</v>
       </c>
       <c r="C44" t="n">
-        <v>2005.253839749763</v>
+        <v>2005.253839749764</v>
       </c>
       <c r="D44" t="n">
-        <v>1646.988141143013</v>
+        <v>1646.988141143014</v>
       </c>
       <c r="E44" t="n">
-        <v>1261.199888544769</v>
+        <v>1261.19988854477</v>
       </c>
       <c r="F44" t="n">
-        <v>850.2139837551617</v>
+        <v>850.213983755162</v>
       </c>
       <c r="G44" t="n">
-        <v>435.1415336001583</v>
+        <v>435.1415336001585</v>
       </c>
       <c r="H44" t="n">
-        <v>137.5579332089255</v>
+        <v>137.5579332089257</v>
       </c>
       <c r="I44" t="n">
         <v>95.56103444839441</v>
       </c>
       <c r="J44" t="n">
-        <v>284.4401654074198</v>
+        <v>451.8458144277729</v>
       </c>
       <c r="K44" t="n">
-        <v>618.2595390972663</v>
+        <v>848.0509105096021</v>
       </c>
       <c r="L44" t="n">
-        <v>1482.778354750621</v>
+        <v>1299.085123758011</v>
       </c>
       <c r="M44" t="n">
-        <v>2461.32865758045</v>
+        <v>1832.617028429936</v>
       </c>
       <c r="N44" t="n">
-        <v>3441.080929807096</v>
+        <v>2812.369300656582</v>
       </c>
       <c r="O44" t="n">
-        <v>4075.973927750058</v>
+        <v>3692.333950986037</v>
       </c>
       <c r="P44" t="n">
-        <v>4470.748294107236</v>
+        <v>4405.689038432983</v>
       </c>
       <c r="Q44" t="n">
-        <v>4719.034655862918</v>
+        <v>4653.975400188665</v>
       </c>
       <c r="R44" t="n">
         <v>4778.05172241972</v>
@@ -7681,19 +7681,19 @@
         <v>4461.783306331037</v>
       </c>
       <c r="U44" t="n">
-        <v>4208.252829604873</v>
+        <v>4208.252829604874</v>
       </c>
       <c r="V44" t="n">
-        <v>3877.189942261302</v>
+        <v>3877.189942261303</v>
       </c>
       <c r="W44" t="n">
-        <v>3524.421286991188</v>
+        <v>3524.421286991189</v>
       </c>
       <c r="X44" t="n">
-        <v>3150.955528730108</v>
+        <v>3150.955528730109</v>
       </c>
       <c r="Y44" t="n">
-        <v>2760.816196754296</v>
+        <v>2760.816196754297</v>
       </c>
     </row>
     <row r="45">
@@ -7703,43 +7703,43 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>970.5927724973195</v>
+        <v>970.5927724973203</v>
       </c>
       <c r="C45" t="n">
-        <v>796.1397432161925</v>
+        <v>796.1397432161933</v>
       </c>
       <c r="D45" t="n">
-        <v>647.2053335549413</v>
+        <v>647.2053335549422</v>
       </c>
       <c r="E45" t="n">
-        <v>487.9678785494858</v>
+        <v>487.9678785494866</v>
       </c>
       <c r="F45" t="n">
-        <v>341.4333205763708</v>
+        <v>341.4333205763717</v>
       </c>
       <c r="G45" t="n">
-        <v>205.0702204089889</v>
+        <v>205.0702204089899</v>
       </c>
       <c r="H45" t="n">
-        <v>114.5683260468564</v>
+        <v>114.5683260468568</v>
       </c>
       <c r="I45" t="n">
         <v>95.56103444839441</v>
       </c>
       <c r="J45" t="n">
-        <v>189.2383039390118</v>
+        <v>189.238303939012</v>
       </c>
       <c r="K45" t="n">
-        <v>427.5025029193589</v>
+        <v>427.5025029193594</v>
       </c>
       <c r="L45" t="n">
-        <v>794.2006632320242</v>
+        <v>794.2006632320249</v>
       </c>
       <c r="M45" t="n">
-        <v>1241.47698845434</v>
+        <v>1241.476988454341</v>
       </c>
       <c r="N45" t="n">
-        <v>1715.000032008795</v>
+        <v>1715.000032008796</v>
       </c>
       <c r="O45" t="n">
         <v>2125.96131142685</v>
@@ -7748,7 +7748,7 @@
         <v>2436.460902902953</v>
       </c>
       <c r="Q45" t="n">
-        <v>2594.102460549552</v>
+        <v>2594.102460549553</v>
       </c>
       <c r="R45" t="n">
         <v>2593.958107142068</v>
@@ -7757,22 +7757,22 @@
         <v>2464.520220635548</v>
       </c>
       <c r="T45" t="n">
-        <v>2271.877220313403</v>
+        <v>2271.877220313404</v>
       </c>
       <c r="U45" t="n">
-        <v>2043.809373447818</v>
+        <v>2043.80937344782</v>
       </c>
       <c r="V45" t="n">
-        <v>1808.657265216076</v>
+        <v>1808.657265216077</v>
       </c>
       <c r="W45" t="n">
-        <v>1554.419908487874</v>
+        <v>1554.419908487875</v>
       </c>
       <c r="X45" t="n">
-        <v>1346.568408282341</v>
+        <v>1346.568408282342</v>
       </c>
       <c r="Y45" t="n">
-        <v>1138.808109517387</v>
+        <v>1138.808109517388</v>
       </c>
     </row>
     <row r="46">
@@ -7782,22 +7782,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>492.7083461157126</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="C46" t="n">
-        <v>492.7083461157126</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="D46" t="n">
-        <v>342.5917067033769</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="E46" t="n">
-        <v>342.5917067033769</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="F46" t="n">
-        <v>195.7017592054665</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="G46" t="n">
-        <v>195.7017592054665</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="H46" t="n">
         <v>95.56103444839441</v>
@@ -7833,25 +7833,25 @@
         <v>1956.343466104704</v>
       </c>
       <c r="S46" t="n">
-        <v>1956.343466104704</v>
+        <v>1764.65758193153</v>
       </c>
       <c r="T46" t="n">
-        <v>1956.343466104704</v>
+        <v>1542.890966501056</v>
       </c>
       <c r="U46" t="n">
-        <v>1667.240599230347</v>
+        <v>1253.788099626699</v>
       </c>
       <c r="V46" t="n">
-        <v>1412.556111024461</v>
+        <v>999.1036114208126</v>
       </c>
       <c r="W46" t="n">
-        <v>1123.1389409875</v>
+        <v>709.6864413838521</v>
       </c>
       <c r="X46" t="n">
-        <v>895.1493900894825</v>
+        <v>481.6968904858347</v>
       </c>
       <c r="Y46" t="n">
-        <v>674.3568109459524</v>
+        <v>260.9043113423046</v>
       </c>
     </row>
   </sheetData>
@@ -8057,13 +8057,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>50.07369958270192</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>221.0467526719077</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L3" t="n">
-        <v>370.8403453034592</v>
+        <v>251.4045252050814</v>
       </c>
       <c r="M3" t="n">
         <v>465.7050637499999</v>
@@ -8294,10 +8294,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K6" t="n">
-        <v>145.0294169142014</v>
+        <v>221.0467526719084</v>
       </c>
       <c r="L6" t="n">
         <v>370.8403453034592</v>
@@ -8531,7 +8531,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>50.07369958270193</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
         <v>264.4652370125786</v>
@@ -8546,7 +8546,7 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O9" t="n">
-        <v>350.4438349360591</v>
+        <v>274.4264991783519</v>
       </c>
       <c r="P9" t="n">
         <v>318.4627686399372</v>
@@ -8695,7 +8695,7 @@
         <v>0</v>
       </c>
       <c r="L11" t="n">
-        <v>170.1140909277297</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M11" t="n">
         <v>449.5135334928325</v>
@@ -8704,7 +8704,7 @@
         <v>437.3469244119842</v>
       </c>
       <c r="O11" t="n">
-        <v>380.8001812627454</v>
+        <v>133.2530576400246</v>
       </c>
       <c r="P11" t="n">
         <v>0</v>
@@ -8926,19 +8926,19 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K14" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L14" t="n">
-        <v>170.1140909277297</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M14" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O14" t="n">
         <v>380.8001812627454</v>
@@ -8947,7 +8947,7 @@
         <v>0</v>
       </c>
       <c r="Q14" t="n">
-        <v>0</v>
+        <v>146.0713065388573</v>
       </c>
       <c r="R14" t="n">
         <v>0</v>
@@ -9163,13 +9163,13 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>133.2530576400246</v>
       </c>
       <c r="K17" t="n">
         <v>0</v>
       </c>
       <c r="L17" t="n">
-        <v>0</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M17" t="n">
         <v>449.5135334928325</v>
@@ -9181,13 +9181,13 @@
         <v>0</v>
       </c>
       <c r="P17" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>16.80057335908688</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9400,31 +9400,31 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K20" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L20" t="n">
-        <v>417.6612145504504</v>
+        <v>0</v>
       </c>
       <c r="M20" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N20" t="n">
-        <v>189.7998007892635</v>
+        <v>0</v>
       </c>
       <c r="O20" t="n">
         <v>380.8001812627454</v>
       </c>
       <c r="P20" t="n">
-        <v>0</v>
+        <v>285.7011105564198</v>
       </c>
       <c r="Q20" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9646,22 +9646,22 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M23" t="n">
-        <v>0</v>
+        <v>308.4529749291937</v>
       </c>
       <c r="N23" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O23" t="n">
-        <v>258.6211785616921</v>
+        <v>0</v>
       </c>
       <c r="P23" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q23" t="n">
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9713,7 +9713,7 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>-8.857110283434464e-12</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -9874,7 +9874,7 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K26" t="n">
         <v>0</v>
@@ -9883,22 +9883,22 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M26" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N26" t="n">
-        <v>437.3469244119842</v>
+        <v>82.70159106555775</v>
       </c>
       <c r="O26" t="n">
-        <v>133.2530576400246</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P26" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q26" t="n">
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -10111,31 +10111,31 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K29" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L29" t="n">
-        <v>170.1140909277297</v>
+        <v>0</v>
       </c>
       <c r="M29" t="n">
-        <v>449.5135334928325</v>
+        <v>229.1543674071819</v>
       </c>
       <c r="N29" t="n">
         <v>437.3469244119842</v>
       </c>
       <c r="O29" t="n">
-        <v>380.8001812627454</v>
+        <v>0</v>
       </c>
       <c r="P29" t="n">
         <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10354,19 +10354,19 @@
         <v>0</v>
       </c>
       <c r="L32" t="n">
-        <v>417.6612145504504</v>
+        <v>0</v>
       </c>
       <c r="M32" t="n">
-        <v>449.5135334928325</v>
+        <v>297.8289162490807</v>
       </c>
       <c r="N32" t="n">
         <v>437.3469244119842</v>
       </c>
       <c r="O32" t="n">
-        <v>133.2530576400246</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P32" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q32" t="n">
         <v>0</v>
@@ -10585,28 +10585,28 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K35" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L35" t="n">
-        <v>288.0478149561032</v>
+        <v>0</v>
       </c>
       <c r="M35" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N35" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O35" t="n">
-        <v>380.8001812627454</v>
+        <v>161.0524397463271</v>
       </c>
       <c r="P35" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R35" t="n">
         <v>65.71641987298243</v>
@@ -10825,28 +10825,28 @@
         <v>0</v>
       </c>
       <c r="K38" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L38" t="n">
-        <v>417.6612145504504</v>
+        <v>0</v>
       </c>
       <c r="M38" t="n">
         <v>449.5135334928325</v>
       </c>
       <c r="N38" t="n">
-        <v>437.3469244119842</v>
+        <v>283.3156027685499</v>
       </c>
       <c r="O38" t="n">
-        <v>0</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P38" t="n">
         <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>67.53663776704306</v>
+        <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -11059,25 +11059,25 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K41" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L41" t="n">
-        <v>417.6612145504504</v>
+        <v>0</v>
       </c>
       <c r="M41" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N41" t="n">
         <v>437.3469244119842</v>
       </c>
       <c r="O41" t="n">
-        <v>133.2530576400255</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P41" t="n">
-        <v>0</v>
+        <v>126.3855966773243</v>
       </c>
       <c r="Q41" t="n">
         <v>0</v>
@@ -11296,31 +11296,31 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K44" t="n">
-        <v>0</v>
+        <v>63.01588120402295</v>
       </c>
       <c r="L44" t="n">
-        <v>417.6612145504504</v>
+        <v>0</v>
       </c>
       <c r="M44" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N44" t="n">
         <v>437.3469244119842</v>
       </c>
       <c r="O44" t="n">
-        <v>133.2530576400246</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P44" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q44" t="n">
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -23418,22 +23418,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>0.02814312551430476</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H13" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>96.35242040983809</v>
@@ -23463,10 +23463,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -23475,7 +23475,7 @@
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>201.6995902368612</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
@@ -23652,22 +23652,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>105.0742887270132</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H16" t="n">
         <v>144.7550149143208</v>
@@ -23703,10 +23703,10 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -23721,7 +23721,7 @@
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>143.2334843362648</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -23892,7 +23892,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
         <v>148.6154730182124</v>
@@ -23904,13 +23904,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H19" t="n">
-        <v>54.36376856168485</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>21.59472895491403</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23943,7 +23943,7 @@
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -23955,7 +23955,7 @@
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -24135,10 +24135,10 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>128.1651665445293</v>
+        <v>71.67627119164511</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>166.0258082590282</v>
@@ -24174,7 +24174,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -24363,28 +24363,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>161.5631840798912</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>59.2784710214946</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>144.7550149143207</v>
       </c>
       <c r="I25" t="n">
-        <v>96.35242040983809</v>
+        <v>96.35242040983792</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24411,16 +24411,16 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>88.93215267004733</v>
+        <v>88.93215267004706</v>
       </c>
       <c r="S25" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -24600,19 +24600,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>16.14213605696625</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
         <v>166.0258082590282</v>
@@ -24621,7 +24621,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24648,7 +24648,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -24660,16 +24660,16 @@
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>51.8987189106783</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -24837,16 +24837,16 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>105.0742887270133</v>
       </c>
       <c r="C31" t="n">
-        <v>70.08471413683907</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
         <v>145.4210480229312</v>
@@ -24885,10 +24885,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -24906,7 +24906,7 @@
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -25074,19 +25074,19 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>105.0742887270133</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
         <v>166.0258082590282</v>
@@ -25095,7 +25095,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25122,19 +25122,19 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>92.30923329343892</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
         <v>0</v>
@@ -25143,7 +25143,7 @@
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -25311,13 +25311,13 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>3.556976973656788</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
         <v>146.4339626465692</v>
@@ -25326,7 +25326,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>88.71226382522339</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H37" t="n">
         <v>144.7550149143208</v>
@@ -25362,10 +25362,10 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S37" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
@@ -25548,7 +25548,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>16.14213605696625</v>
       </c>
       <c r="C40" t="n">
         <v>167.2468210986278</v>
@@ -25599,7 +25599,7 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S40" t="n">
-        <v>16.14213605696617</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
@@ -25785,19 +25785,19 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>16.14213605696625</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
         <v>166.0258082590282</v>
@@ -25836,10 +25836,10 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S43" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
@@ -25848,7 +25848,7 @@
         <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>214.5414662356955</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
@@ -26022,25 +26022,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>16.14213605696625</v>
       </c>
       <c r="C46" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
         <v>166.0258082590282</v>
       </c>
       <c r="H46" t="n">
-        <v>45.6156974048194</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I46" t="n">
         <v>96.35242040983809</v>
@@ -26073,10 +26073,10 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S46" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>953968.8932518226</v>
+        <v>953968.8932518224</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>953968.8932518224</v>
+        <v>953968.8932518226</v>
       </c>
     </row>
     <row r="8">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>953968.8932518226</v>
+        <v>953968.8932518223</v>
       </c>
     </row>
     <row r="10">
@@ -26319,28 +26319,28 @@
         <v>472099.017671963</v>
       </c>
       <c r="D2" t="n">
-        <v>472099.0176719629</v>
+        <v>472099.017671963</v>
       </c>
       <c r="E2" t="n">
-        <v>456644.0549200306</v>
+        <v>456644.0549200309</v>
       </c>
       <c r="F2" t="n">
-        <v>456644.0549200308</v>
+        <v>456644.0549200309</v>
       </c>
       <c r="G2" t="n">
-        <v>456644.0549200308</v>
+        <v>456644.0549200309</v>
       </c>
       <c r="H2" t="n">
         <v>456644.0549200308</v>
       </c>
       <c r="I2" t="n">
+        <v>456644.054920031</v>
+      </c>
+      <c r="J2" t="n">
         <v>456644.0549200308</v>
       </c>
-      <c r="J2" t="n">
+      <c r="K2" t="n">
         <v>456644.0549200309</v>
-      </c>
-      <c r="K2" t="n">
-        <v>456644.0549200308</v>
       </c>
       <c r="L2" t="n">
         <v>456644.0549200309</v>
@@ -26349,13 +26349,13 @@
         <v>456644.0549200309</v>
       </c>
       <c r="N2" t="n">
+        <v>456644.0549200309</v>
+      </c>
+      <c r="O2" t="n">
+        <v>456644.0549200309</v>
+      </c>
+      <c r="P2" t="n">
         <v>456644.054920031</v>
-      </c>
-      <c r="O2" t="n">
-        <v>456644.0549200308</v>
-      </c>
-      <c r="P2" t="n">
-        <v>456644.0549200308</v>
       </c>
     </row>
     <row r="3">
@@ -26386,10 +26386,10 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>2.567329602243262e-09</v>
       </c>
       <c r="J3" t="n">
-        <v>176423.219192593</v>
+        <v>176423.2191925905</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26420,7 +26420,7 @@
         <v>192206.5963924297</v>
       </c>
       <c r="C4" t="n">
-        <v>192206.5963924298</v>
+        <v>192206.5963924297</v>
       </c>
       <c r="D4" t="n">
         <v>192206.5963924297</v>
@@ -26429,16 +26429,16 @@
         <v>21619.60799709187</v>
       </c>
       <c r="F4" t="n">
+        <v>21619.60799709186</v>
+      </c>
+      <c r="G4" t="n">
         <v>21619.60799709187</v>
       </c>
-      <c r="G4" t="n">
+      <c r="H4" t="n">
         <v>21619.60799709186</v>
       </c>
-      <c r="H4" t="n">
-        <v>21619.60799709187</v>
-      </c>
       <c r="I4" t="n">
-        <v>21619.60799709186</v>
+        <v>21619.60799709158</v>
       </c>
       <c r="J4" t="n">
         <v>21619.60799709187</v>
@@ -26447,19 +26447,19 @@
         <v>21619.60799709187</v>
       </c>
       <c r="L4" t="n">
+        <v>21619.60799709188</v>
+      </c>
+      <c r="M4" t="n">
+        <v>21619.60799709186</v>
+      </c>
+      <c r="N4" t="n">
         <v>21619.60799709187</v>
       </c>
-      <c r="M4" t="n">
+      <c r="O4" t="n">
         <v>21619.60799709187</v>
       </c>
-      <c r="N4" t="n">
-        <v>21619.60799709188</v>
-      </c>
-      <c r="O4" t="n">
-        <v>21619.60799709188</v>
-      </c>
       <c r="P4" t="n">
-        <v>21619.60799709187</v>
+        <v>21619.60799709186</v>
       </c>
     </row>
     <row r="5">
@@ -26475,7 +26475,7 @@
         <v>82859.07806340946</v>
       </c>
       <c r="D5" t="n">
-        <v>82859.07806340947</v>
+        <v>82859.07806340946</v>
       </c>
       <c r="E5" t="n">
         <v>96383.51825371364</v>
@@ -26490,19 +26490,19 @@
         <v>96383.51825371364</v>
       </c>
       <c r="I5" t="n">
+        <v>96383.51825371372</v>
+      </c>
+      <c r="J5" t="n">
+        <v>96383.51825371366</v>
+      </c>
+      <c r="K5" t="n">
+        <v>96383.51825371366</v>
+      </c>
+      <c r="L5" t="n">
+        <v>96383.51825371366</v>
+      </c>
+      <c r="M5" t="n">
         <v>96383.51825371364</v>
-      </c>
-      <c r="J5" t="n">
-        <v>96383.51825371364</v>
-      </c>
-      <c r="K5" t="n">
-        <v>96383.51825371364</v>
-      </c>
-      <c r="L5" t="n">
-        <v>96383.51825371364</v>
-      </c>
-      <c r="M5" t="n">
-        <v>96383.51825371366</v>
       </c>
       <c r="N5" t="n">
         <v>96383.51825371366</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-392934.5359984208</v>
+        <v>-392934.5359984207</v>
       </c>
       <c r="C6" t="n">
-        <v>197033.3432161237</v>
+        <v>197033.3432161238</v>
       </c>
       <c r="D6" t="n">
-        <v>197033.3432161237</v>
+        <v>197033.3432161238</v>
       </c>
       <c r="E6" t="n">
-        <v>-389408.4402264393</v>
+        <v>-388803.680814407</v>
       </c>
       <c r="F6" t="n">
-        <v>337968.9737669674</v>
+        <v>338573.7331789996</v>
       </c>
       <c r="G6" t="n">
-        <v>337968.9737669674</v>
+        <v>338573.7331789996</v>
       </c>
       <c r="H6" t="n">
-        <v>337968.9737669674</v>
+        <v>338573.7331789995</v>
       </c>
       <c r="I6" t="n">
-        <v>337968.9737669674</v>
+        <v>338573.7331789973</v>
       </c>
       <c r="J6" t="n">
-        <v>161545.7545743746</v>
+        <v>162150.513986409</v>
       </c>
       <c r="K6" t="n">
-        <v>337968.9737669674</v>
+        <v>338573.7331789996</v>
       </c>
       <c r="L6" t="n">
-        <v>337968.9737669675</v>
+        <v>338573.7331789996</v>
       </c>
       <c r="M6" t="n">
-        <v>208326.6589280226</v>
+        <v>208931.418340055</v>
       </c>
       <c r="N6" t="n">
-        <v>337968.9737669675</v>
+        <v>338573.7331789996</v>
       </c>
       <c r="O6" t="n">
-        <v>337968.9737669672</v>
+        <v>338573.7331789996</v>
       </c>
       <c r="P6" t="n">
-        <v>337968.9737669674</v>
+        <v>338573.7331789997</v>
       </c>
     </row>
   </sheetData>
@@ -26743,7 +26743,7 @@
         <v>377.7436642170866</v>
       </c>
       <c r="D3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="E3" t="n">
         <v>1089.776700593298</v>
@@ -26758,7 +26758,7 @@
         <v>1089.776700593298</v>
       </c>
       <c r="I3" t="n">
-        <v>1089.776700593298</v>
+        <v>1089.776700593302</v>
       </c>
       <c r="J3" t="n">
         <v>1089.776700593298</v>
@@ -26795,7 +26795,7 @@
         <v>674.2872727545556</v>
       </c>
       <c r="D4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="E4" t="n">
         <v>1194.51293060493</v>
@@ -26980,10 +26980,10 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>3.410605131648481e-12</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>-2.080492331272832e-12</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>520.2256578503743</v>
+        <v>520.2256578503744</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545558</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>520.2256578503745</v>
+        <v>520.2256578503742</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>520.2256578503743</v>
+        <v>520.2256578503744</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27387,19 +27387,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>99.10841501723553</v>
       </c>
       <c r="H2" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
-        <v>111.3076844110284</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27444,7 +27444,7 @@
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -27536,28 +27536,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>107.5829646831822</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H4" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>45.19995918853699</v>
@@ -27581,7 +27581,7 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
         <v>146.6651919801578</v>
@@ -27602,7 +27602,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>206.9722268160252</v>
       </c>
       <c r="Y4" t="n">
         <v>218.5846533520948</v>
@@ -27621,19 +27621,19 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -27663,10 +27663,10 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>93.82625177485755</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
@@ -27681,7 +27681,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>14.71119934091644</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -27788,16 +27788,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>11.99007165458445</v>
+        <v>97.2756127241211</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27818,7 +27818,7 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -27827,7 +27827,7 @@
         <v>212.1455389500189</v>
       </c>
       <c r="T7" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
         <v>286.2818742419777</v>
@@ -27839,7 +27839,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -27855,25 +27855,25 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>375.7192007798149</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
         <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27900,7 +27900,7 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -27909,7 +27909,7 @@
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -27918,10 +27918,10 @@
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>376.9549090433409</v>
       </c>
     </row>
     <row r="9">
@@ -28019,13 +28019,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>89.58101666090499</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H10" t="n">
         <v>156.1708888417951</v>
@@ -28034,7 +28034,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28058,16 +28058,16 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S10" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>225.0351054580843</v>
+        <v>202.4523389344409</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
@@ -28076,10 +28076,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -31521,19 +31521,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K8" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L8" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M8" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N8" t="n">
         <v>270.9617944338304</v>
@@ -31548,13 +31548,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S8" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U8" t="n">
         <v>0.1214853995472036</v>
@@ -31594,16 +31594,16 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I9" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K9" t="n">
         <v>131.2017781649102</v>
@@ -31621,22 +31621,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P9" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q9" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S9" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T9" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31673,16 +31673,16 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I10" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J10" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K10" t="n">
         <v>79.14039391302239</v>
@@ -31697,16 +31697,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P10" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R10" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S10" t="n">
         <v>11.87105908695336</v>
@@ -32551,7 +32551,7 @@
         <v>80.70516131752258</v>
       </c>
       <c r="J21" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026439</v>
       </c>
       <c r="K21" t="n">
         <v>378.5123470353157</v>
@@ -32700,49 +32700,49 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681611</v>
       </c>
       <c r="H23" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844682</v>
       </c>
       <c r="I23" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974805</v>
       </c>
       <c r="J23" t="n">
-        <v>371.8329054953988</v>
+        <v>371.8329054954</v>
       </c>
       <c r="K23" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003827</v>
       </c>
       <c r="L23" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623216</v>
       </c>
       <c r="M23" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490575019</v>
       </c>
       <c r="N23" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095048</v>
       </c>
       <c r="O23" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099083</v>
       </c>
       <c r="P23" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746433</v>
       </c>
       <c r="Q23" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781704</v>
       </c>
       <c r="R23" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563578</v>
       </c>
       <c r="S23" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806982</v>
       </c>
       <c r="T23" t="n">
-        <v>19.1778794245112</v>
+        <v>19.17787942451126</v>
       </c>
       <c r="U23" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3504809489345289</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32779,49 +32779,49 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.344047997502566</v>
+        <v>2.344047997502574</v>
       </c>
       <c r="H24" t="n">
-        <v>22.63856881798531</v>
+        <v>22.63856881798538</v>
       </c>
       <c r="I24" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752282</v>
       </c>
       <c r="J24" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026445</v>
       </c>
       <c r="K24" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353169</v>
       </c>
       <c r="L24" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138812</v>
       </c>
       <c r="M24" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233493</v>
       </c>
       <c r="N24" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837943</v>
       </c>
       <c r="O24" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970268</v>
       </c>
       <c r="P24" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002941</v>
       </c>
       <c r="Q24" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987496</v>
       </c>
       <c r="R24" t="n">
-        <v>145.5365940905541</v>
+        <v>145.5365940905546</v>
       </c>
       <c r="S24" t="n">
-        <v>43.53966346238316</v>
+        <v>43.5396634623833</v>
       </c>
       <c r="T24" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898528</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1542136840462215</v>
+        <v>0.154213684046222</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32858,49 +32858,49 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430544</v>
       </c>
       <c r="H25" t="n">
-        <v>17.47215759311879</v>
+        <v>17.47215759311885</v>
       </c>
       <c r="I25" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742037</v>
       </c>
       <c r="J25" t="n">
-        <v>138.937596729739</v>
+        <v>138.9375967297395</v>
       </c>
       <c r="K25" t="n">
-        <v>228.3171513702024</v>
+        <v>228.3171513702031</v>
       </c>
       <c r="L25" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098829</v>
       </c>
       <c r="M25" t="n">
-        <v>308.0495024316432</v>
+        <v>308.0495024316442</v>
       </c>
       <c r="N25" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883125</v>
       </c>
       <c r="O25" t="n">
-        <v>277.7680023086001</v>
+        <v>277.768002308601</v>
       </c>
       <c r="P25" t="n">
-        <v>237.6785118802169</v>
+        <v>237.6785118802177</v>
       </c>
       <c r="Q25" t="n">
-        <v>164.556281789588</v>
+        <v>164.5562817895886</v>
       </c>
       <c r="R25" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712242</v>
       </c>
       <c r="S25" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553047</v>
       </c>
       <c r="T25" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112322</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780298</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -33046,7 +33046,7 @@
         <v>447.6103584002927</v>
       </c>
       <c r="Q27" t="n">
-        <v>299.2156706987485</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R27" t="n">
         <v>145.5365940905541</v>
@@ -33283,7 +33283,7 @@
         <v>447.6103584002927</v>
       </c>
       <c r="Q30" t="n">
-        <v>299.2156706987485</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R30" t="n">
         <v>145.5365940905541</v>
@@ -33994,7 +33994,7 @@
         <v>447.6103584002927</v>
       </c>
       <c r="Q39" t="n">
-        <v>299.2156706987485</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R39" t="n">
         <v>145.5365940905541</v>
@@ -34210,7 +34210,7 @@
         <v>80.70516131752258</v>
       </c>
       <c r="J42" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026439</v>
       </c>
       <c r="K42" t="n">
         <v>378.5123470353157</v>
@@ -34468,7 +34468,7 @@
         <v>447.6103584002927</v>
       </c>
       <c r="Q45" t="n">
-        <v>299.2156706987485</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R45" t="n">
         <v>145.5365940905541</v>
@@ -34777,13 +34777,13 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K3" t="n">
-        <v>214.4070918624589</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L3" t="n">
-        <v>408.7029475713857</v>
+        <v>289.2671274730079</v>
       </c>
       <c r="M3" t="n">
         <v>529.4413268262938</v>
@@ -35014,10 +35014,10 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>76.0173357577069</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>138.3897561047526</v>
+        <v>214.4070918624596</v>
       </c>
       <c r="L6" t="n">
         <v>408.7029475713857</v>
@@ -35172,19 +35172,19 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K8" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L8" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M8" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N8" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O8" t="n">
         <v>406.5635087530452</v>
@@ -35251,7 +35251,7 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K9" t="n">
         <v>257.8255762031298</v>
@@ -35263,13 +35263,13 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N9" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O9" t="n">
-        <v>401.1632560839194</v>
+        <v>325.1459203262123</v>
       </c>
       <c r="P9" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q9" t="n">
         <v>173.8110948137341</v>
@@ -35415,7 +35415,7 @@
         <v>337.1912865554005</v>
       </c>
       <c r="L11" t="n">
-        <v>625.7042053200619</v>
+        <v>873.2513289427826</v>
       </c>
       <c r="M11" t="n">
         <v>988.4346493230593</v>
@@ -35424,7 +35424,7 @@
         <v>989.6487598248956</v>
       </c>
       <c r="O11" t="n">
-        <v>888.8531821509645</v>
+        <v>641.3060585282437</v>
       </c>
       <c r="P11" t="n">
         <v>398.7619862193719</v>
@@ -35646,19 +35646,19 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>190.7870009687126</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K14" t="n">
-        <v>337.1912865554005</v>
+        <v>661.3366991265652</v>
       </c>
       <c r="L14" t="n">
-        <v>625.7042053200619</v>
+        <v>873.2513289427826</v>
       </c>
       <c r="M14" t="n">
-        <v>988.4346493230593</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N14" t="n">
-        <v>989.6487598248956</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O14" t="n">
         <v>888.8531821509645</v>
@@ -35667,7 +35667,7 @@
         <v>398.7619862193719</v>
       </c>
       <c r="Q14" t="n">
-        <v>250.7943048037195</v>
+        <v>396.8656113425768</v>
       </c>
       <c r="R14" t="n">
         <v>59.61319854222478</v>
@@ -35883,13 +35883,13 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>190.7870009687126</v>
+        <v>324.0400586087371</v>
       </c>
       <c r="K17" t="n">
         <v>337.1912865554005</v>
       </c>
       <c r="L17" t="n">
-        <v>455.5901143923322</v>
+        <v>873.2513289427826</v>
       </c>
       <c r="M17" t="n">
         <v>988.4346493230593</v>
@@ -35901,13 +35901,13 @@
         <v>508.0530008882191</v>
       </c>
       <c r="P17" t="n">
-        <v>720.5606943908545</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q17" t="n">
-        <v>463.1092954636242</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R17" t="n">
-        <v>76.41377190131166</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -36120,31 +36120,31 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>190.7870009687126</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K20" t="n">
-        <v>337.1912865554005</v>
+        <v>661.3366991265652</v>
       </c>
       <c r="L20" t="n">
-        <v>873.2513289427826</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M20" t="n">
-        <v>988.4346493230593</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N20" t="n">
-        <v>742.101636202175</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O20" t="n">
         <v>888.8531821509645</v>
       </c>
       <c r="P20" t="n">
-        <v>398.7619862193719</v>
+        <v>684.4630967757917</v>
       </c>
       <c r="Q20" t="n">
-        <v>250.7943048037195</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R20" t="n">
-        <v>59.61319854222478</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36199,7 +36199,7 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597718</v>
       </c>
       <c r="K21" t="n">
         <v>240.6709080609567</v>
@@ -36357,31 +36357,31 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687138</v>
       </c>
       <c r="K23" t="n">
-        <v>661.3366991265652</v>
+        <v>661.3366991265669</v>
       </c>
       <c r="L23" t="n">
-        <v>873.2513289427826</v>
+        <v>873.2513289427848</v>
       </c>
       <c r="M23" t="n">
-        <v>538.9211158302268</v>
+        <v>847.3740907594229</v>
       </c>
       <c r="N23" t="n">
-        <v>989.6487598248956</v>
+        <v>552.301835412914</v>
       </c>
       <c r="O23" t="n">
-        <v>766.6741794499112</v>
+        <v>508.0530008882215</v>
       </c>
       <c r="P23" t="n">
-        <v>398.7619862193719</v>
+        <v>720.5606943908565</v>
       </c>
       <c r="Q23" t="n">
-        <v>250.7943048037195</v>
+        <v>250.794304803721</v>
       </c>
       <c r="R23" t="n">
-        <v>59.61319854222478</v>
+        <v>125.3296184152081</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36436,28 +36436,28 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597779</v>
       </c>
       <c r="K24" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609579</v>
       </c>
       <c r="L24" t="n">
-        <v>370.4021821340054</v>
+        <v>370.402182134007</v>
       </c>
       <c r="M24" t="n">
-        <v>451.7942679013292</v>
+        <v>451.794267901331</v>
       </c>
       <c r="N24" t="n">
-        <v>478.3061046004592</v>
+        <v>478.306104600461</v>
       </c>
       <c r="O24" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525824</v>
       </c>
       <c r="P24" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859639</v>
       </c>
       <c r="Q24" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127281</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36515,28 +36515,28 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>45.57841661306622</v>
+        <v>45.57841661306668</v>
       </c>
       <c r="K25" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443203</v>
       </c>
       <c r="L25" t="n">
-        <v>319.7573721701981</v>
+        <v>319.757372170199</v>
       </c>
       <c r="M25" t="n">
-        <v>347.6333793934838</v>
+        <v>347.6333793934848</v>
       </c>
       <c r="N25" t="n">
-        <v>344.8569461675401</v>
+        <v>344.8569461675411</v>
       </c>
       <c r="O25" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226406</v>
       </c>
       <c r="P25" t="n">
-        <v>234.9570711451104</v>
+        <v>234.9570711451112</v>
       </c>
       <c r="Q25" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789417</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36594,7 +36594,7 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>190.7870009687126</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K26" t="n">
         <v>337.1912865554005</v>
@@ -36603,22 +36603,22 @@
         <v>873.2513289427826</v>
       </c>
       <c r="M26" t="n">
-        <v>988.4346493230593</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N26" t="n">
-        <v>989.6487598248956</v>
+        <v>635.0034264784692</v>
       </c>
       <c r="O26" t="n">
-        <v>641.3060585282437</v>
+        <v>888.8531821509645</v>
       </c>
       <c r="P26" t="n">
-        <v>398.7619862193719</v>
+        <v>720.5606943908545</v>
       </c>
       <c r="Q26" t="n">
         <v>250.7943048037195</v>
       </c>
       <c r="R26" t="n">
-        <v>59.61319854222478</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36694,7 +36694,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q27" t="n">
-        <v>159.233896612727</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36831,31 +36831,31 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>190.7870009687126</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K29" t="n">
-        <v>337.1912865554005</v>
+        <v>661.3366991265652</v>
       </c>
       <c r="L29" t="n">
-        <v>625.7042053200619</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M29" t="n">
-        <v>988.4346493230593</v>
+        <v>768.0754832374087</v>
       </c>
       <c r="N29" t="n">
         <v>989.6487598248956</v>
       </c>
       <c r="O29" t="n">
-        <v>888.8531821509645</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P29" t="n">
         <v>398.7619862193719</v>
       </c>
       <c r="Q29" t="n">
-        <v>250.7943048037195</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R29" t="n">
-        <v>59.61319854222478</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36931,7 +36931,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q30" t="n">
-        <v>159.233896612727</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37074,19 +37074,19 @@
         <v>337.1912865554005</v>
       </c>
       <c r="L32" t="n">
-        <v>873.2513289427826</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M32" t="n">
-        <v>988.4346493230593</v>
+        <v>836.7500320793075</v>
       </c>
       <c r="N32" t="n">
         <v>989.6487598248956</v>
       </c>
       <c r="O32" t="n">
-        <v>641.3060585282437</v>
+        <v>888.8531821509645</v>
       </c>
       <c r="P32" t="n">
-        <v>398.7619862193719</v>
+        <v>720.5606943908545</v>
       </c>
       <c r="Q32" t="n">
         <v>250.7943048037195</v>
@@ -37305,28 +37305,28 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>359.8836161407863</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K35" t="n">
-        <v>337.1912865554005</v>
+        <v>661.3366991265652</v>
       </c>
       <c r="L35" t="n">
-        <v>743.6379293484354</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M35" t="n">
-        <v>538.9211158302268</v>
+        <v>988.4346493230593</v>
       </c>
       <c r="N35" t="n">
-        <v>552.3018354129115</v>
+        <v>989.6487598248956</v>
       </c>
       <c r="O35" t="n">
-        <v>888.8531821509645</v>
+        <v>669.1054406345462</v>
       </c>
       <c r="P35" t="n">
-        <v>720.5606943908545</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q35" t="n">
-        <v>463.1092954636242</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R35" t="n">
         <v>125.3296184152072</v>
@@ -37545,28 +37545,28 @@
         <v>190.7870009687126</v>
       </c>
       <c r="K38" t="n">
-        <v>337.1912865554005</v>
+        <v>661.3366991265652</v>
       </c>
       <c r="L38" t="n">
-        <v>873.2513289427826</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M38" t="n">
         <v>988.4346493230593</v>
       </c>
       <c r="N38" t="n">
-        <v>989.6487598248956</v>
+        <v>835.6174381814614</v>
       </c>
       <c r="O38" t="n">
-        <v>508.0530008882191</v>
+        <v>888.8531821509645</v>
       </c>
       <c r="P38" t="n">
         <v>398.7619862193719</v>
       </c>
       <c r="Q38" t="n">
-        <v>318.3309425707625</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R38" t="n">
-        <v>125.3296184152072</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37642,7 +37642,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q39" t="n">
-        <v>159.233896612727</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37779,25 +37779,25 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>190.7870009687126</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K41" t="n">
-        <v>337.1912865554005</v>
+        <v>661.3366991265652</v>
       </c>
       <c r="L41" t="n">
-        <v>873.2513289427826</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M41" t="n">
-        <v>988.4346493230593</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N41" t="n">
         <v>989.6487598248956</v>
       </c>
       <c r="O41" t="n">
-        <v>641.3060585282446</v>
+        <v>888.8531821509645</v>
       </c>
       <c r="P41" t="n">
-        <v>398.7619862193719</v>
+        <v>525.1475828966961</v>
       </c>
       <c r="Q41" t="n">
         <v>250.7943048037195</v>
@@ -37858,7 +37858,7 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597716</v>
       </c>
       <c r="K42" t="n">
         <v>240.6709080609567</v>
@@ -38016,31 +38016,31 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>190.7870009687126</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K44" t="n">
-        <v>337.1912865554005</v>
+        <v>400.2071677594234</v>
       </c>
       <c r="L44" t="n">
-        <v>873.2513289427826</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M44" t="n">
-        <v>988.4346493230593</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N44" t="n">
         <v>989.6487598248956</v>
       </c>
       <c r="O44" t="n">
-        <v>641.3060585282437</v>
+        <v>888.8531821509645</v>
       </c>
       <c r="P44" t="n">
-        <v>398.7619862193719</v>
+        <v>720.5606943908545</v>
       </c>
       <c r="Q44" t="n">
         <v>250.7943048037195</v>
       </c>
       <c r="R44" t="n">
-        <v>59.61319854222478</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38116,7 +38116,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q45" t="n">
-        <v>159.233896612727</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
